--- a/lang/pl/headTags.xlsx
+++ b/lang/pl/headTags.xlsx
@@ -10,19 +10,19 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1169</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1170">
   <si>
     <t>en</t>
   </si>
   <si>
-    <t>pl</t>
+    <t>pl (Polish)</t>
   </si>
   <si>
     <t>101 Dalmatians</t>
@@ -511,6 +511,9 @@
     <t>Charlie and the Chocolate Factory</t>
   </si>
   <si>
+    <t>Chase the Skies</t>
+  </si>
+  <si>
     <t>Cheese</t>
   </si>
   <si>
@@ -982,6 +985,9 @@
     <t>Fairy Tales</t>
   </si>
   <si>
+    <t>Fall Drop</t>
+  </si>
+  <si>
     <t>Fall Guys</t>
   </si>
   <si>
@@ -1747,6 +1753,9 @@
     <t>Hypixel</t>
   </si>
   <si>
+    <t>Hypixel (Attribute Shard)</t>
+  </si>
+  <si>
     <t>Hypixel (Dyes)</t>
   </si>
   <si>
@@ -2638,6 +2647,9 @@
     <t>Quake</t>
   </si>
   <si>
+    <t>R.E.P.O.</t>
+  </si>
+  <si>
     <t>Rabbit</t>
   </si>
   <si>
@@ -2959,6 +2971,9 @@
     <t>Spooky's Jump Scare Mansion</t>
   </si>
   <si>
+    <t>Spore</t>
+  </si>
+  <si>
     <t>Sport</t>
   </si>
   <si>
@@ -3047,9 +3062,6 @@
   </si>
   <si>
     <t>Summer</t>
-  </si>
-  <si>
-    <t>Summer Drop 2025</t>
   </si>
   <si>
     <t>Sunglasses</t>
@@ -3861,7 +3873,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1165"/>
+  <dimension ref="A1:B1169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -9702,8 +9714,28 @@
         <v>1165</v>
       </c>
     </row>
+    <row r="1166" spans="1:2">
+      <c r="A1166" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:2">
+      <c r="A1167" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:2">
+      <c r="A1168" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:2">
+      <c r="A1169" t="s">
+        <v>1169</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1165"/>
+  <autoFilter ref="A1:B1169"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/pl/headTags.xlsx
+++ b/lang/pl/headTags.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1848">
   <si>
     <t>en</t>
   </si>
@@ -4048,12 +4048,18 @@
     <t>Pirates of the Caribbean</t>
   </si>
   <si>
+    <t>Piraci z Karaibów</t>
+  </si>
+  <si>
     <t>Pizza Tower</t>
   </si>
   <si>
     <t>Planet</t>
   </si>
   <si>
+    <t>Planeta</t>
+  </si>
+  <si>
     <t>Plants vs. Zombies</t>
   </si>
   <si>
@@ -4099,15 +4105,27 @@
     <t>Pokemon Items</t>
   </si>
   <si>
+    <t>Przedmioty Pokemon</t>
+  </si>
+  <si>
     <t>Pokemon Trainer</t>
   </si>
   <si>
+    <t>Trener Pokemon</t>
+  </si>
+  <si>
     <t>Polar Bear</t>
   </si>
   <si>
+    <t>Niedźwiedź polarny</t>
+  </si>
+  <si>
     <t>Police</t>
   </si>
   <si>
+    <t>Policja</t>
+  </si>
+  <si>
     <t>Pom Poko</t>
   </si>
   <si>
@@ -4132,39 +4150,69 @@
     <t>Postman Pat</t>
   </si>
   <si>
+    <t>Listonosz Pat</t>
+  </si>
+  <si>
     <t>Power Rangers</t>
   </si>
   <si>
     <t>Powerpuff Girls</t>
   </si>
   <si>
+    <t>Atomówki</t>
+  </si>
+  <si>
     <t>Predator</t>
   </si>
   <si>
     <t>Present</t>
   </si>
   <si>
+    <t>Obecny</t>
+  </si>
+  <si>
     <t>Pride</t>
   </si>
   <si>
+    <t>Duma</t>
+  </si>
+  <si>
     <t>Primate</t>
   </si>
   <si>
+    <t>Prymat</t>
+  </si>
+  <si>
     <t>Princess Mononoke</t>
   </si>
   <si>
+    <t>Księżniczka Mononoke</t>
+  </si>
+  <si>
     <t>Prof Layton</t>
   </si>
   <si>
+    <t>Prof. Layton</t>
+  </si>
+  <si>
     <t>Pumpkin</t>
   </si>
   <si>
+    <t>Dynia</t>
+  </si>
+  <si>
     <t>Pumpkin (Lit)</t>
   </si>
   <si>
+    <t>Dynia (Lit)</t>
+  </si>
+  <si>
     <t>Punctuation Mark</t>
   </si>
   <si>
+    <t>Znak interpunkcyjny</t>
+  </si>
+  <si>
     <t>Quake</t>
   </si>
   <si>
@@ -4174,39 +4222,60 @@
     <t>Rabbit</t>
   </si>
   <si>
+    <t>Królik</t>
+  </si>
+  <si>
     <t>Railway</t>
   </si>
   <si>
+    <t>Kolej</t>
+  </si>
+  <si>
     <t>Rain World</t>
   </si>
   <si>
     <t>Ratatouille</t>
   </si>
   <si>
+    <t>Ratatuj</t>
+  </si>
+  <si>
     <t>Ratchet &amp; Clank</t>
   </si>
   <si>
     <t>Re:Creators</t>
   </si>
   <si>
+    <t>Re:Twórcy</t>
+  </si>
+  <si>
     <t>Re:Zero</t>
   </si>
   <si>
     <t>Realm of the Mad God</t>
   </si>
   <si>
+    <t>Królestwo Szalonego Boga</t>
+  </si>
+  <si>
     <t>Red Dead Redemption</t>
   </si>
   <si>
     <t>Red Riding Hood</t>
   </si>
   <si>
+    <t>Czerwony Kapturek</t>
+  </si>
+  <si>
     <t>Redstone</t>
   </si>
   <si>
     <t>Regional Form Pokemon</t>
   </si>
   <si>
+    <t>Pokemon w formie regionalnej</t>
+  </si>
+  <si>
     <t>Regretavator</t>
   </si>
   <si>
@@ -4216,9 +4285,15 @@
     <t>Religion</t>
   </si>
   <si>
+    <t>Religia</t>
+  </si>
+  <si>
     <t>Reptile</t>
   </si>
   <si>
+    <t>Gad</t>
+  </si>
+  <si>
     <t>Rescue Rangers</t>
   </si>
   <si>
@@ -4231,18 +4306,33 @@
     <t>Ribbon</t>
   </si>
   <si>
+    <t>Wstążka</t>
+  </si>
+  <si>
     <t>Rick and Morty</t>
   </si>
   <si>
+    <t>Rick i Morty</t>
+  </si>
+  <si>
     <t>Risk of Rain</t>
   </si>
   <si>
+    <t>Ryzyko deszczu</t>
+  </si>
+  <si>
     <t>Rival of Aether</t>
   </si>
   <si>
+    <t>Rywal Aether</t>
+  </si>
+  <si>
     <t>River</t>
   </si>
   <si>
+    <t>Rzeka</t>
+  </si>
+  <si>
     <t>Riverdale</t>
   </si>
   <si>
@@ -4267,15 +4357,27 @@
     <t>Rodent</t>
   </si>
   <si>
+    <t>Gryzoń</t>
+  </si>
+  <si>
     <t>Rotated Entity</t>
   </si>
   <si>
+    <t>Obrócony podmiot</t>
+  </si>
+  <si>
     <t>Royal Headgear</t>
   </si>
   <si>
+    <t>Królewskie nakrycie głowy</t>
+  </si>
+  <si>
     <t>Rune</t>
   </si>
   <si>
+    <t>Runa</t>
+  </si>
+  <si>
     <t>Runescape</t>
   </si>
   <si>
@@ -4285,18 +4387,33 @@
     <t>Sackboy: A Big Adventure</t>
   </si>
   <si>
+    <t>Sackboy: Wielka przygoda</t>
+  </si>
+  <si>
     <t>Sad Creature</t>
   </si>
   <si>
+    <t>Smutne stworzenie</t>
+  </si>
+  <si>
     <t>Sad Person</t>
   </si>
   <si>
+    <t>Smutna osoba</t>
+  </si>
+  <si>
     <t>Safari (Other)</t>
   </si>
   <si>
+    <t>Safari (Inne)</t>
+  </si>
+  <si>
     <t>Saga of Tanya the Evil</t>
   </si>
   <si>
+    <t>Saga o złej Tanyi</t>
+  </si>
+  <si>
     <t>Sailor Moon</t>
   </si>
   <si>
@@ -4306,24 +4423,42 @@
     <t>Samurai Helmet</t>
   </si>
   <si>
+    <t>Hełm samurajski</t>
+  </si>
+  <si>
     <t>Satisfactory</t>
   </si>
   <si>
+    <t>Zadowalający</t>
+  </si>
+  <si>
     <t>Saw</t>
   </si>
   <si>
+    <t>Piła</t>
+  </si>
+  <si>
     <t>Scarf</t>
   </si>
   <si>
+    <t>Szalik</t>
+  </si>
+  <si>
     <t>Scooby-Doo</t>
   </si>
   <si>
     <t>SCP Containment Breach</t>
   </si>
   <si>
+    <t>Naruszenie ochrony przed SCP</t>
+  </si>
+  <si>
     <t>Scream</t>
   </si>
   <si>
+    <t>Krzyk</t>
+  </si>
+  <si>
     <t>Scribblenauts</t>
   </si>
   <si>
@@ -4333,6 +4468,9 @@
     <t>Seafarer</t>
   </si>
   <si>
+    <t>Marynarz</t>
+  </si>
+  <si>
     <t>Seraph of the End</t>
   </si>
   <si>
@@ -4342,15 +4480,27 @@
     <t>Sesame Street</t>
   </si>
   <si>
+    <t>Ulica Sezamkowa</t>
+  </si>
+  <si>
     <t>Seven Deadly Sins</t>
   </si>
   <si>
+    <t>Siedem grzechów głównych</t>
+  </si>
+  <si>
     <t>Shadows of Mordor</t>
   </si>
   <si>
+    <t>Cienie Mordoru</t>
+  </si>
+  <si>
     <t>Sheep</t>
   </si>
   <si>
+    <t>Owca</t>
+  </si>
+  <si>
     <t>Sherlock Holmes</t>
   </si>
   <si>
@@ -4363,9 +4513,15 @@
     <t>Shiny Pokemon</t>
   </si>
   <si>
+    <t>Błyszczący Pokemon</t>
+  </si>
+  <si>
     <t>Shipping</t>
   </si>
   <si>
+    <t>Wysyłka</t>
+  </si>
+  <si>
     <t>Shovel Knight</t>
   </si>
   <si>
@@ -4384,18 +4540,33 @@
     <t>Simpsons</t>
   </si>
   <si>
+    <t>Simpsonowie</t>
+  </si>
+  <si>
     <t>Skeleton</t>
   </si>
   <si>
+    <t>Szkielet</t>
+  </si>
+  <si>
     <t>Skeleton (Vanilla)</t>
   </si>
   <si>
+    <t>Szkielet (wanilia)</t>
+  </si>
+  <si>
     <t>Skeptical Creature</t>
   </si>
   <si>
+    <t>Sceptyczne stworzenie</t>
+  </si>
+  <si>
     <t>Skeptical Person</t>
   </si>
   <si>
+    <t>Osoba sceptyczna</t>
+  </si>
+  <si>
     <t>Skullgirls</t>
   </si>
   <si>
@@ -4405,21 +4576,39 @@
     <t>Sleeping Beauty</t>
   </si>
   <si>
+    <t>Śpiąca Królewna</t>
+  </si>
+  <si>
     <t>Sleeping Creature</t>
   </si>
   <si>
+    <t>Śpiąca istota</t>
+  </si>
+  <si>
     <t>Sleeping Person</t>
   </si>
   <si>
+    <t>Osoba śpiąca</t>
+  </si>
+  <si>
     <t>Sliced</t>
   </si>
   <si>
+    <t>W plasterkach</t>
+  </si>
+  <si>
     <t>Slime</t>
   </si>
   <si>
+    <t>Szlam</t>
+  </si>
+  <si>
     <t>Slime (Vanilla)</t>
   </si>
   <si>
+    <t>Slime (wanilia)</t>
+  </si>
+  <si>
     <t>Slime Rancher</t>
   </si>
   <si>
@@ -4435,21 +4624,39 @@
     <t>Smoking</t>
   </si>
   <si>
+    <t>Palenie</t>
+  </si>
+  <si>
     <t>Smurfs</t>
   </si>
   <si>
+    <t>Smerfy</t>
+  </si>
+  <si>
     <t>Snow Fight</t>
   </si>
   <si>
+    <t>Walka na śnieżki</t>
+  </si>
+  <si>
     <t>Snow Sculpture</t>
   </si>
   <si>
+    <t>Rzeźba w śniegu</t>
+  </si>
+  <si>
     <t>Snow White and the Seven Dwarfs</t>
   </si>
   <si>
+    <t>Królewna Śnieżka i siedmiu krasnoludków</t>
+  </si>
+  <si>
     <t>Songs of War</t>
   </si>
   <si>
+    <t>Pieśni wojny</t>
+  </si>
+  <si>
     <t>Sonic the Hedgehog</t>
   </si>
   <si>
@@ -4462,6 +4669,9 @@
     <t>Space Travel</t>
   </si>
   <si>
+    <t>Podróże kosmiczne</t>
+  </si>
+  <si>
     <t>Spawn Egg</t>
   </si>
   <si>
@@ -4474,6 +4684,9 @@
     <t>Spider</t>
   </si>
   <si>
+    <t>Pająk</t>
+  </si>
+  <si>
     <t>Spider (Vanilla)</t>
   </si>
   <si>
@@ -4489,24 +4702,42 @@
     <t>Spongebob Squarepants</t>
   </si>
   <si>
+    <t>Spongebob Kanciastoporty</t>
+  </si>
+  <si>
     <t>Spooky's Jump Scare Mansion</t>
   </si>
   <si>
+    <t>Rezydencja strachów Spooky's Jump</t>
+  </si>
+  <si>
     <t>Spore</t>
   </si>
   <si>
+    <t>Zarodnik</t>
+  </si>
+  <si>
     <t>Sport</t>
   </si>
   <si>
     <t>Spreads</t>
   </si>
   <si>
+    <t>Spready</t>
+  </si>
+  <si>
     <t>Spring to Life</t>
   </si>
   <si>
+    <t>Wiosna do życia</t>
+  </si>
+  <si>
     <t>Spy x Family</t>
   </si>
   <si>
+    <t>Szpieg x rodzina</t>
+  </si>
+  <si>
     <t>Spyro</t>
   </si>
   <si>
@@ -4516,6 +4747,9 @@
     <t>St. Patrick's Day</t>
   </si>
   <si>
+    <t>Dzień Świętego Patryka</t>
+  </si>
+  <si>
     <t>StackUp</t>
   </si>
   <si>
@@ -4528,15 +4762,27 @@
     <t>Star vs the Forces of Evil</t>
   </si>
   <si>
+    <t>Gwiazda kontra siły zła</t>
+  </si>
+  <si>
     <t>Star Wars</t>
   </si>
   <si>
+    <t>Gwiezdne wojny</t>
+  </si>
+  <si>
     <t>Star Wars Helmet</t>
   </si>
   <si>
+    <t>Hełm Star Wars</t>
+  </si>
+  <si>
     <t>Star Wars Trooper Helmet</t>
   </si>
   <si>
+    <t>Hełm żołnierza Gwiezdnych Wojen</t>
+  </si>
+  <si>
     <t>Starbucks</t>
   </si>
   <si>
@@ -4549,9 +4795,15 @@
     <t>Starter Pokemon</t>
   </si>
   <si>
+    <t>Pokemon startowy</t>
+  </si>
+  <si>
     <t>Stationery</t>
   </si>
   <si>
+    <t>Artykuły papiernicze</t>
+  </si>
+  <si>
     <t>Steampunk</t>
   </si>
   <si>
@@ -4567,9 +4819,15 @@
     <t>Stone</t>
   </si>
   <si>
+    <t>Kamień</t>
+  </si>
+  <si>
     <t>Storage (other)</t>
   </si>
   <si>
+    <t>Przechowywanie (inne)</t>
+  </si>
+  <si>
     <t>Stranger Things</t>
   </si>
   <si>
@@ -4585,9 +4843,15 @@
     <t>Summer</t>
   </si>
   <si>
+    <t>Lato</t>
+  </si>
+  <si>
     <t>Sunglasses</t>
   </si>
   <si>
+    <t>Okulary przeciwsłoneczne</t>
+  </si>
+  <si>
     <t>Super Mario</t>
   </si>
   <si>
@@ -4597,15 +4861,24 @@
     <t>Surprised Creature</t>
   </si>
   <si>
+    <t>Zaskoczona istota</t>
+  </si>
+  <si>
     <t>Surprised Person</t>
   </si>
   <si>
+    <t>Zaskoczona osoba</t>
+  </si>
+  <si>
     <t>Sushi</t>
   </si>
   <si>
     <t>Swamp</t>
   </si>
   <si>
+    <t>Bagno</t>
+  </si>
+  <si>
     <t>Sword Art Online</t>
   </si>
   <si>
@@ -4615,6 +4888,9 @@
     <t>Tangled</t>
   </si>
   <si>
+    <t>Zaplątani</t>
+  </si>
+  <si>
     <t>Tattletail</t>
   </si>
   <si>
@@ -4624,6 +4900,9 @@
     <t>Teletubbies</t>
   </si>
   <si>
+    <t>Teletubisie</t>
+  </si>
+  <si>
     <t>Terraria</t>
   </si>
   <si>
@@ -4636,30 +4915,51 @@
     <t>Thanksgiving</t>
   </si>
   <si>
+    <t>Święto Dziękczynienia</t>
+  </si>
+  <si>
     <t>That Time I Got Reincarnated as a Slime</t>
   </si>
   <si>
+    <t>Tym razem reinkarnowałem się jako szlam</t>
+  </si>
+  <si>
     <t>Thaumcraft</t>
   </si>
   <si>
     <t>The Adventures of Tintin</t>
   </si>
   <si>
+    <t>Przygody Tintina</t>
+  </si>
+  <si>
     <t>The Amazing Digital Circus</t>
   </si>
   <si>
+    <t>Niesamowity cyfrowy cyrk</t>
+  </si>
+  <si>
     <t>The Amazing World of Gumball</t>
   </si>
   <si>
+    <t>Niesamowity świat Gumballa</t>
+  </si>
+  <si>
     <t>The Binding of Isaac</t>
   </si>
   <si>
     <t>The Boys</t>
   </si>
   <si>
+    <t>Chłopcy</t>
+  </si>
+  <si>
     <t>The Cat Returns</t>
   </si>
   <si>
+    <t>Kot powraca</t>
+  </si>
+  <si>
     <t>The Conjuring</t>
   </si>
   <si>
@@ -4669,39 +4969,69 @@
     <t>The English Ensemble Stars</t>
   </si>
   <si>
+    <t>Gwiazdy angielskiego zespołu</t>
+  </si>
+  <si>
     <t>The Fairly OddParents</t>
   </si>
   <si>
     <t>The Finals</t>
   </si>
   <si>
+    <t>Finały</t>
+  </si>
+  <si>
     <t>The Flash</t>
   </si>
   <si>
     <t>The Flintstones</t>
   </si>
   <si>
+    <t>Flintstonowie</t>
+  </si>
+  <si>
     <t>The Fly</t>
   </si>
   <si>
+    <t>Mucha</t>
+  </si>
+  <si>
     <t>The Garden Awakens</t>
   </si>
   <si>
+    <t>Ogród budzi się</t>
+  </si>
+  <si>
     <t>The Good Dinosaur</t>
   </si>
   <si>
+    <t>Dobry dinozaur</t>
+  </si>
+  <si>
     <t>The Great Mouse Detective</t>
   </si>
   <si>
+    <t>Wielki mysi detektyw</t>
+  </si>
+  <si>
     <t>The Grim Adventures of Billy &amp; Mandy</t>
   </si>
   <si>
+    <t>Ponure przygody Billy'ego i Mandy</t>
+  </si>
+  <si>
     <t>The Hunchback of Notre Dame</t>
   </si>
   <si>
+    <t>Garbus z Notre Dame</t>
+  </si>
+  <si>
     <t>The Iron Giant</t>
   </si>
   <si>
+    <t>Żelazny gigant</t>
+  </si>
+  <si>
     <t>The Last Guardian</t>
   </si>
   <si>
@@ -4714,6 +5044,9 @@
     <t>The Lorax</t>
   </si>
   <si>
+    <t>Lorax</t>
+  </si>
+  <si>
     <t>The Neverhood</t>
   </si>
   <si>
@@ -4723,18 +5056,33 @@
     <t>The Princess and the Frog</t>
   </si>
   <si>
+    <t>Księżniczka i żaba</t>
+  </si>
+  <si>
     <t>The Ren &amp; Stimpy Show</t>
   </si>
   <si>
+    <t>Ren &amp; Stimpy Show</t>
+  </si>
+  <si>
     <t>The Road to El Dorado</t>
   </si>
   <si>
+    <t>Droga do El Dorado</t>
+  </si>
+  <si>
     <t>The Texas Chainsaw Massacre</t>
   </si>
   <si>
+    <t>Teksańska masakra piłą łańcuchową</t>
+  </si>
+  <si>
     <t>The Three Caballeros</t>
   </si>
   <si>
+    <t>Trzej Caballeros</t>
+  </si>
+  <si>
     <t>The Walten Files</t>
   </si>
   <si>
@@ -4750,6 +5098,9 @@
     <t>Those Nights at Rachel's</t>
   </si>
   <si>
+    <t>Te noce u Rachel</t>
+  </si>
+  <si>
     <t>Tinker's Construct</t>
   </si>
   <si>
@@ -4762,15 +5113,24 @@
     <t>Tom and Jerry</t>
   </si>
   <si>
+    <t>Tom i Jerry</t>
+  </si>
+  <si>
     <t>Tomb Raider</t>
   </si>
   <si>
     <t>Tomorrow's Pioneers</t>
   </si>
   <si>
+    <t>Pionierzy jutra</t>
+  </si>
+  <si>
     <t>Tooth Gap</t>
   </si>
   <si>
+    <t>Szczelina między zębami</t>
+  </si>
+  <si>
     <t>Toradora</t>
   </si>
   <si>
@@ -4780,24 +5140,42 @@
     <t>Touhou Project</t>
   </si>
   <si>
+    <t>Projekt Touhou</t>
+  </si>
+  <si>
     <t>Toy</t>
   </si>
   <si>
+    <t>Zabawka</t>
+  </si>
+  <si>
     <t>Toy Story</t>
   </si>
   <si>
     <t>Traffic</t>
   </si>
   <si>
+    <t>Ruch drogowy</t>
+  </si>
+  <si>
     <t>Traffic Light</t>
   </si>
   <si>
+    <t>Sygnalizacja świetlna</t>
+  </si>
+  <si>
     <t>Traffic Sign</t>
   </si>
   <si>
+    <t>Znak drogowy</t>
+  </si>
+  <si>
     <t>Trails and Tales</t>
   </si>
   <si>
+    <t>Szlaki i opowieści</t>
+  </si>
+  <si>
     <t>Transformers</t>
   </si>
   <si>
@@ -4807,24 +5185,39 @@
     <t>Transparent Head</t>
   </si>
   <si>
+    <t>Przezroczysta głowica</t>
+  </si>
+  <si>
     <t>Trash Can</t>
   </si>
   <si>
+    <t>Kosz na śmieci</t>
+  </si>
+  <si>
     <t>Treasure</t>
   </si>
   <si>
+    <t>Skarb</t>
+  </si>
+  <si>
     <t>Treasure Planet</t>
   </si>
   <si>
     <t>Tricky Trials Update</t>
   </si>
   <si>
+    <t>Aktualizacja Tricky Trials</t>
+  </si>
+  <si>
     <t>Tron</t>
   </si>
   <si>
     <t>Turtle</t>
   </si>
   <si>
+    <t>Żółw</t>
+  </si>
+  <si>
     <t>Twilight Forest</t>
   </si>
   <si>
@@ -4846,24 +5239,42 @@
     <t>Universal Symbol</t>
   </si>
   <si>
+    <t>Symbol uniwersalny</t>
+  </si>
+  <si>
     <t>Up</t>
   </si>
   <si>
+    <t>W górę</t>
+  </si>
+  <si>
     <t>Urban Wildlife</t>
   </si>
   <si>
+    <t>Miejska dzika przyroda</t>
+  </si>
+  <si>
     <t>V for Vendetta</t>
   </si>
   <si>
+    <t>V jak Vendetta</t>
+  </si>
+  <si>
     <t>Valentines</t>
   </si>
   <si>
+    <t>Walentynki</t>
+  </si>
+  <si>
     <t>Valorant</t>
   </si>
   <si>
     <t>Vanilla (removed)</t>
   </si>
   <si>
+    <t>Wanilia (usunięta)</t>
+  </si>
+  <si>
     <t>Vanilla Block</t>
   </si>
   <si>
@@ -4873,6 +5284,9 @@
     <t>Vanilla Helmet</t>
   </si>
   <si>
+    <t>Kask waniliowy</t>
+  </si>
+  <si>
     <t>Vanilla Item</t>
   </si>
   <si>
@@ -4885,39 +5299,75 @@
     <t>Vegetable</t>
   </si>
   <si>
+    <t>Warzywo</t>
+  </si>
+  <si>
     <t>Vehicle</t>
   </si>
   <si>
+    <t>Pojazd</t>
+  </si>
+  <si>
     <t>Vikings</t>
   </si>
   <si>
+    <t>Wikingowie</t>
+  </si>
+  <si>
     <t>Villager</t>
   </si>
   <si>
+    <t>Wieśniak</t>
+  </si>
+  <si>
     <t>Villager (Desert)</t>
   </si>
   <si>
+    <t>Wieśniak (Pustynia)</t>
+  </si>
+  <si>
     <t>Villager (Jungle)</t>
   </si>
   <si>
+    <t>Wieśniak (dżungla)</t>
+  </si>
+  <si>
     <t>Villager (Plains)</t>
   </si>
   <si>
+    <t>Wieśniak (równiny)</t>
+  </si>
+  <si>
     <t>Villager (Savanna)</t>
   </si>
   <si>
+    <t>Wieśniak (Savanna)</t>
+  </si>
+  <si>
     <t>Villager (Snowy Tundra)</t>
   </si>
   <si>
+    <t>Wieśniak (Śnieżna Tundra)</t>
+  </si>
+  <si>
     <t>Villager (Swamp)</t>
   </si>
   <si>
+    <t>Wieśniak (Bagna)</t>
+  </si>
+  <si>
     <t>Villager (Taiga)</t>
   </si>
   <si>
+    <t>Wieśniak (Tajga)</t>
+  </si>
+  <si>
     <t>Virtual Youtuber</t>
   </si>
   <si>
+    <t>Wirtualny youtuber</t>
+  </si>
+  <si>
     <t>Vocaloid</t>
   </si>
   <si>
@@ -4936,9 +5386,15 @@
     <t>Wallace and Gromit</t>
   </si>
   <si>
+    <t>Wallace i Gromit</t>
+  </si>
+  <si>
     <t>War of the Worlds</t>
   </si>
   <si>
+    <t>Wojna światów</t>
+  </si>
+  <si>
     <t>Warcraft</t>
   </si>
   <si>
@@ -4951,6 +5407,9 @@
     <t>Warrior Cats</t>
   </si>
   <si>
+    <t>Wojownicze koty</t>
+  </si>
+  <si>
     <t>We Bear Bears</t>
   </si>
   <si>
@@ -4960,39 +5419,75 @@
     <t>Weather</t>
   </si>
   <si>
+    <t>Pogoda</t>
+  </si>
+  <si>
     <t>Welcome Home</t>
   </si>
   <si>
+    <t>Witamy w domu</t>
+  </si>
+  <si>
     <t>Who is this?</t>
   </si>
   <si>
+    <t>Kto to jest?</t>
+  </si>
+  <si>
     <t>Wild Update</t>
   </si>
   <si>
+    <t>Dzika aktualizacja</t>
+  </si>
+  <si>
     <t>Wings of Fire</t>
   </si>
   <si>
+    <t>Skrzydła ognia</t>
+  </si>
+  <si>
     <t>Winnie the Pooh</t>
   </si>
   <si>
+    <t>Kubuś Puchatek</t>
+  </si>
+  <si>
     <t>Winter</t>
   </si>
   <si>
+    <t>Zima</t>
+  </si>
+  <si>
     <t>Witcher</t>
   </si>
   <si>
+    <t>Wiedźmin</t>
+  </si>
+  <si>
     <t>Wonderful Wonder World</t>
   </si>
   <si>
+    <t>Wspaniały cudowny świat</t>
+  </si>
+  <si>
     <t>Wood</t>
   </si>
   <si>
+    <t>Drewno</t>
+  </si>
+  <si>
     <t>Wool</t>
   </si>
   <si>
+    <t>Wełna</t>
+  </si>
+  <si>
     <t>Work Safety Helmet</t>
   </si>
   <si>
+    <t>Kask ochronny</t>
+  </si>
+  <si>
     <t>Wreck It Ralph</t>
   </si>
   <si>
@@ -5011,9 +5506,15 @@
     <t>Yandere Simulator</t>
   </si>
   <si>
+    <t>Symulator Yandere</t>
+  </si>
+  <si>
     <t>Yellow Submarine</t>
   </si>
   <si>
+    <t>Żółta łódź podwodna</t>
+  </si>
+  <si>
     <t>Yokai</t>
   </si>
   <si>
@@ -5023,9 +5524,15 @@
     <t>Young</t>
   </si>
   <si>
+    <t>Młody</t>
+  </si>
+  <si>
     <t>Youtube</t>
   </si>
   <si>
+    <t>YouTube</t>
+  </si>
+  <si>
     <t>Yu-Gi-Oh</t>
   </si>
   <si>
@@ -5041,10 +5548,16 @@
     <t>Zodiac Sign</t>
   </si>
   <si>
+    <t>Znak zodiaku</t>
+  </si>
+  <si>
     <t>Zombie</t>
   </si>
   <si>
     <t>Zombie (Vanilla)</t>
+  </si>
+  <si>
+    <t>Zombie (wanilia)</t>
   </si>
   <si>
     <t>Zootopia</t>
@@ -12083,1675 +12596,2680 @@
       <c r="A835" t="s">
         <v>1342</v>
       </c>
+      <c r="B835" t="s">
+        <v>1343</v>
+      </c>
     </row>
     <row r="836" spans="1:2">
       <c r="A836" t="s">
-        <v>1343</v>
+        <v>1344</v>
+      </c>
+      <c r="B836" t="s">
+        <v>1344</v>
       </c>
     </row>
     <row r="837" spans="1:2">
       <c r="A837" t="s">
-        <v>1344</v>
+        <v>1345</v>
+      </c>
+      <c r="B837" t="s">
+        <v>1346</v>
       </c>
     </row>
     <row r="838" spans="1:2">
       <c r="A838" t="s">
-        <v>1345</v>
+        <v>1347</v>
+      </c>
+      <c r="B838" t="s">
+        <v>1347</v>
       </c>
     </row>
     <row r="839" spans="1:2">
       <c r="A839" t="s">
-        <v>1346</v>
+        <v>1348</v>
+      </c>
+      <c r="B839" t="s">
+        <v>1348</v>
       </c>
     </row>
     <row r="840" spans="1:2">
       <c r="A840" t="s">
-        <v>1347</v>
+        <v>1349</v>
+      </c>
+      <c r="B840" t="s">
+        <v>1349</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>1348</v>
+        <v>1350</v>
+      </c>
+      <c r="B841" t="s">
+        <v>1350</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1349</v>
+        <v>1351</v>
+      </c>
+      <c r="B842" t="s">
+        <v>1351</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1350</v>
+        <v>1352</v>
+      </c>
+      <c r="B843" t="s">
+        <v>1352</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>1351</v>
+        <v>1353</v>
+      </c>
+      <c r="B844" t="s">
+        <v>1353</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" t="s">
-        <v>1352</v>
+        <v>1354</v>
+      </c>
+      <c r="B845" t="s">
+        <v>1354</v>
       </c>
     </row>
     <row r="846" spans="1:2">
       <c r="A846" t="s">
-        <v>1353</v>
+        <v>1355</v>
+      </c>
+      <c r="B846" t="s">
+        <v>1355</v>
       </c>
     </row>
     <row r="847" spans="1:2">
       <c r="A847" t="s">
-        <v>1354</v>
+        <v>1356</v>
+      </c>
+      <c r="B847" t="s">
+        <v>1356</v>
       </c>
     </row>
     <row r="848" spans="1:2">
       <c r="A848" t="s">
-        <v>1355</v>
+        <v>1357</v>
+      </c>
+      <c r="B848" t="s">
+        <v>1357</v>
       </c>
     </row>
     <row r="849" spans="1:2">
       <c r="A849" t="s">
-        <v>1356</v>
+        <v>1358</v>
+      </c>
+      <c r="B849" t="s">
+        <v>1358</v>
       </c>
     </row>
     <row r="850" spans="1:2">
       <c r="A850" t="s">
-        <v>1357</v>
+        <v>1359</v>
+      </c>
+      <c r="B850" t="s">
+        <v>1359</v>
       </c>
     </row>
     <row r="851" spans="1:2">
       <c r="A851" t="s">
-        <v>1358</v>
+        <v>1360</v>
+      </c>
+      <c r="B851" t="s">
+        <v>1360</v>
       </c>
     </row>
     <row r="852" spans="1:2">
       <c r="A852" t="s">
-        <v>1359</v>
+        <v>1361</v>
+      </c>
+      <c r="B852" t="s">
+        <v>1362</v>
       </c>
     </row>
     <row r="853" spans="1:2">
       <c r="A853" t="s">
-        <v>1360</v>
+        <v>1363</v>
+      </c>
+      <c r="B853" t="s">
+        <v>1364</v>
       </c>
     </row>
     <row r="854" spans="1:2">
       <c r="A854" t="s">
-        <v>1361</v>
+        <v>1365</v>
+      </c>
+      <c r="B854" t="s">
+        <v>1366</v>
       </c>
     </row>
     <row r="855" spans="1:2">
       <c r="A855" t="s">
-        <v>1362</v>
+        <v>1367</v>
+      </c>
+      <c r="B855" t="s">
+        <v>1368</v>
       </c>
     </row>
     <row r="856" spans="1:2">
       <c r="A856" t="s">
-        <v>1363</v>
+        <v>1369</v>
+      </c>
+      <c r="B856" t="s">
+        <v>1369</v>
       </c>
     </row>
     <row r="857" spans="1:2">
       <c r="A857" t="s">
-        <v>1364</v>
+        <v>1370</v>
+      </c>
+      <c r="B857" t="s">
+        <v>1370</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>1365</v>
+        <v>1371</v>
+      </c>
+      <c r="B858" t="s">
+        <v>1371</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1366</v>
+        <v>1372</v>
+      </c>
+      <c r="B859" t="s">
+        <v>1372</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1367</v>
+        <v>1373</v>
+      </c>
+      <c r="B860" t="s">
+        <v>1373</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1368</v>
+        <v>1374</v>
+      </c>
+      <c r="B861" t="s">
+        <v>1374</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1369</v>
+        <v>1375</v>
+      </c>
+      <c r="B862" t="s">
+        <v>1375</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1370</v>
+        <v>1376</v>
+      </c>
+      <c r="B863" t="s">
+        <v>1377</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>1371</v>
+        <v>1378</v>
+      </c>
+      <c r="B864" t="s">
+        <v>1378</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>1372</v>
+        <v>1379</v>
+      </c>
+      <c r="B865" t="s">
+        <v>1380</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
-        <v>1373</v>
+        <v>1381</v>
+      </c>
+      <c r="B866" t="s">
+        <v>1381</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>1374</v>
+        <v>1382</v>
+      </c>
+      <c r="B867" t="s">
+        <v>1383</v>
       </c>
     </row>
     <row r="868" spans="1:2">
       <c r="A868" t="s">
-        <v>1375</v>
+        <v>1384</v>
+      </c>
+      <c r="B868" t="s">
+        <v>1385</v>
       </c>
     </row>
     <row r="869" spans="1:2">
       <c r="A869" t="s">
-        <v>1376</v>
+        <v>1386</v>
+      </c>
+      <c r="B869" t="s">
+        <v>1387</v>
       </c>
     </row>
     <row r="870" spans="1:2">
       <c r="A870" t="s">
-        <v>1377</v>
+        <v>1388</v>
+      </c>
+      <c r="B870" t="s">
+        <v>1389</v>
       </c>
     </row>
     <row r="871" spans="1:2">
       <c r="A871" t="s">
-        <v>1378</v>
+        <v>1390</v>
+      </c>
+      <c r="B871" t="s">
+        <v>1391</v>
       </c>
     </row>
     <row r="872" spans="1:2">
       <c r="A872" t="s">
-        <v>1379</v>
+        <v>1392</v>
+      </c>
+      <c r="B872" t="s">
+        <v>1393</v>
       </c>
     </row>
     <row r="873" spans="1:2">
       <c r="A873" t="s">
-        <v>1380</v>
+        <v>1394</v>
+      </c>
+      <c r="B873" t="s">
+        <v>1395</v>
       </c>
     </row>
     <row r="874" spans="1:2">
       <c r="A874" t="s">
-        <v>1381</v>
+        <v>1396</v>
+      </c>
+      <c r="B874" t="s">
+        <v>1397</v>
       </c>
     </row>
     <row r="875" spans="1:2">
       <c r="A875" t="s">
-        <v>1382</v>
+        <v>1398</v>
+      </c>
+      <c r="B875" t="s">
+        <v>1398</v>
       </c>
     </row>
     <row r="876" spans="1:2">
       <c r="A876" t="s">
-        <v>1383</v>
+        <v>1399</v>
+      </c>
+      <c r="B876" t="s">
+        <v>1399</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1384</v>
+        <v>1400</v>
+      </c>
+      <c r="B877" t="s">
+        <v>1401</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
-        <v>1385</v>
+        <v>1402</v>
+      </c>
+      <c r="B878" t="s">
+        <v>1403</v>
       </c>
     </row>
     <row r="879" spans="1:2">
       <c r="A879" t="s">
-        <v>1386</v>
+        <v>1404</v>
+      </c>
+      <c r="B879" t="s">
+        <v>1404</v>
       </c>
     </row>
     <row r="880" spans="1:2">
       <c r="A880" t="s">
-        <v>1387</v>
+        <v>1405</v>
+      </c>
+      <c r="B880" t="s">
+        <v>1406</v>
       </c>
     </row>
     <row r="881" spans="1:2">
       <c r="A881" t="s">
-        <v>1388</v>
+        <v>1407</v>
+      </c>
+      <c r="B881" t="s">
+        <v>1407</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1389</v>
+        <v>1408</v>
+      </c>
+      <c r="B882" t="s">
+        <v>1409</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>1390</v>
+        <v>1410</v>
+      </c>
+      <c r="B883" t="s">
+        <v>1410</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>1391</v>
+        <v>1411</v>
+      </c>
+      <c r="B884" t="s">
+        <v>1412</v>
       </c>
     </row>
     <row r="885" spans="1:2">
       <c r="A885" t="s">
-        <v>1392</v>
+        <v>1413</v>
+      </c>
+      <c r="B885" t="s">
+        <v>1413</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1393</v>
+        <v>1414</v>
+      </c>
+      <c r="B886" t="s">
+        <v>1415</v>
       </c>
     </row>
     <row r="887" spans="1:2">
       <c r="A887" t="s">
-        <v>1394</v>
+        <v>1416</v>
+      </c>
+      <c r="B887" t="s">
+        <v>1416</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1395</v>
+        <v>1417</v>
+      </c>
+      <c r="B888" t="s">
+        <v>1418</v>
       </c>
     </row>
     <row r="889" spans="1:2">
       <c r="A889" t="s">
-        <v>1396</v>
+        <v>1419</v>
+      </c>
+      <c r="B889" t="s">
+        <v>1419</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>1397</v>
+        <v>1420</v>
+      </c>
+      <c r="B890" t="s">
+        <v>1420</v>
       </c>
     </row>
     <row r="891" spans="1:2">
       <c r="A891" t="s">
-        <v>1398</v>
+        <v>1421</v>
+      </c>
+      <c r="B891" t="s">
+        <v>1422</v>
       </c>
     </row>
     <row r="892" spans="1:2">
       <c r="A892" t="s">
-        <v>1399</v>
+        <v>1423</v>
+      </c>
+      <c r="B892" t="s">
+        <v>1424</v>
       </c>
     </row>
     <row r="893" spans="1:2">
       <c r="A893" t="s">
-        <v>1400</v>
+        <v>1425</v>
+      </c>
+      <c r="B893" t="s">
+        <v>1425</v>
       </c>
     </row>
     <row r="894" spans="1:2">
       <c r="A894" t="s">
-        <v>1401</v>
+        <v>1426</v>
+      </c>
+      <c r="B894" t="s">
+        <v>1426</v>
       </c>
     </row>
     <row r="895" spans="1:2">
       <c r="A895" t="s">
-        <v>1402</v>
+        <v>1427</v>
+      </c>
+      <c r="B895" t="s">
+        <v>1427</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
-        <v>1403</v>
+        <v>1428</v>
+      </c>
+      <c r="B896" t="s">
+        <v>1429</v>
       </c>
     </row>
     <row r="897" spans="1:2">
       <c r="A897" t="s">
-        <v>1404</v>
+        <v>1430</v>
+      </c>
+      <c r="B897" t="s">
+        <v>1431</v>
       </c>
     </row>
     <row r="898" spans="1:2">
       <c r="A898" t="s">
-        <v>1405</v>
+        <v>1432</v>
+      </c>
+      <c r="B898" t="s">
+        <v>1433</v>
       </c>
     </row>
     <row r="899" spans="1:2">
       <c r="A899" t="s">
-        <v>1406</v>
+        <v>1434</v>
+      </c>
+      <c r="B899" t="s">
+        <v>1435</v>
       </c>
     </row>
     <row r="900" spans="1:2">
       <c r="A900" t="s">
-        <v>1407</v>
+        <v>1436</v>
+      </c>
+      <c r="B900" t="s">
+        <v>1437</v>
       </c>
     </row>
     <row r="901" spans="1:2">
       <c r="A901" t="s">
-        <v>1408</v>
+        <v>1438</v>
+      </c>
+      <c r="B901" t="s">
+        <v>1438</v>
       </c>
     </row>
     <row r="902" spans="1:2">
       <c r="A902" t="s">
-        <v>1409</v>
+        <v>1439</v>
+      </c>
+      <c r="B902" t="s">
+        <v>1439</v>
       </c>
     </row>
     <row r="903" spans="1:2">
       <c r="A903" t="s">
-        <v>1410</v>
+        <v>1440</v>
+      </c>
+      <c r="B903" t="s">
+        <v>1440</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1411</v>
+        <v>1441</v>
+      </c>
+      <c r="B904" t="s">
+        <v>1441</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1412</v>
+        <v>1442</v>
+      </c>
+      <c r="B905" t="s">
+        <v>1442</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1413</v>
+        <v>1443</v>
+      </c>
+      <c r="B906" t="s">
+        <v>1443</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1414</v>
+        <v>1444</v>
+      </c>
+      <c r="B907" t="s">
+        <v>1444</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1415</v>
+        <v>1445</v>
+      </c>
+      <c r="B908" t="s">
+        <v>1446</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" t="s">
-        <v>1416</v>
+        <v>1447</v>
+      </c>
+      <c r="B909" t="s">
+        <v>1448</v>
       </c>
     </row>
     <row r="910" spans="1:2">
       <c r="A910" t="s">
-        <v>1417</v>
+        <v>1449</v>
+      </c>
+      <c r="B910" t="s">
+        <v>1450</v>
       </c>
     </row>
     <row r="911" spans="1:2">
       <c r="A911" t="s">
-        <v>1418</v>
+        <v>1451</v>
+      </c>
+      <c r="B911" t="s">
+        <v>1452</v>
       </c>
     </row>
     <row r="912" spans="1:2">
       <c r="A912" t="s">
-        <v>1419</v>
+        <v>1453</v>
+      </c>
+      <c r="B912" t="s">
+        <v>1453</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1420</v>
+        <v>1454</v>
+      </c>
+      <c r="B913" t="s">
+        <v>1454</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1421</v>
+        <v>1455</v>
+      </c>
+      <c r="B914" t="s">
+        <v>1456</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>1422</v>
+        <v>1457</v>
+      </c>
+      <c r="B915" t="s">
+        <v>1458</v>
       </c>
     </row>
     <row r="916" spans="1:2">
       <c r="A916" t="s">
-        <v>1423</v>
+        <v>1459</v>
+      </c>
+      <c r="B916" t="s">
+        <v>1460</v>
       </c>
     </row>
     <row r="917" spans="1:2">
       <c r="A917" t="s">
-        <v>1424</v>
+        <v>1461</v>
+      </c>
+      <c r="B917" t="s">
+        <v>1462</v>
       </c>
     </row>
     <row r="918" spans="1:2">
       <c r="A918" t="s">
-        <v>1425</v>
+        <v>1463</v>
+      </c>
+      <c r="B918" t="s">
+        <v>1464</v>
       </c>
     </row>
     <row r="919" spans="1:2">
       <c r="A919" t="s">
-        <v>1426</v>
+        <v>1465</v>
+      </c>
+      <c r="B919" t="s">
+        <v>1465</v>
       </c>
     </row>
     <row r="920" spans="1:2">
       <c r="A920" t="s">
-        <v>1427</v>
+        <v>1466</v>
+      </c>
+      <c r="B920" t="s">
+        <v>1466</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1428</v>
+        <v>1467</v>
+      </c>
+      <c r="B921" t="s">
+        <v>1468</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
-        <v>1429</v>
+        <v>1469</v>
+      </c>
+      <c r="B922" t="s">
+        <v>1470</v>
       </c>
     </row>
     <row r="923" spans="1:2">
       <c r="A923" t="s">
-        <v>1430</v>
+        <v>1471</v>
+      </c>
+      <c r="B923" t="s">
+        <v>1472</v>
       </c>
     </row>
     <row r="924" spans="1:2">
       <c r="A924" t="s">
-        <v>1431</v>
+        <v>1473</v>
+      </c>
+      <c r="B924" t="s">
+        <v>1474</v>
       </c>
     </row>
     <row r="925" spans="1:2">
       <c r="A925" t="s">
-        <v>1432</v>
+        <v>1475</v>
+      </c>
+      <c r="B925" t="s">
+        <v>1475</v>
       </c>
     </row>
     <row r="926" spans="1:2">
       <c r="A926" t="s">
-        <v>1433</v>
+        <v>1476</v>
+      </c>
+      <c r="B926" t="s">
+        <v>1477</v>
       </c>
     </row>
     <row r="927" spans="1:2">
       <c r="A927" t="s">
-        <v>1434</v>
+        <v>1478</v>
+      </c>
+      <c r="B927" t="s">
+        <v>1479</v>
       </c>
     </row>
     <row r="928" spans="1:2">
       <c r="A928" t="s">
-        <v>1435</v>
+        <v>1480</v>
+      </c>
+      <c r="B928" t="s">
+        <v>1480</v>
       </c>
     </row>
     <row r="929" spans="1:2">
       <c r="A929" t="s">
-        <v>1436</v>
+        <v>1481</v>
+      </c>
+      <c r="B929" t="s">
+        <v>1481</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1437</v>
+        <v>1482</v>
+      </c>
+      <c r="B930" t="s">
+        <v>1483</v>
       </c>
     </row>
     <row r="931" spans="1:2">
       <c r="A931" t="s">
-        <v>1438</v>
+        <v>1484</v>
+      </c>
+      <c r="B931" t="s">
+        <v>1484</v>
       </c>
     </row>
     <row r="932" spans="1:2">
       <c r="A932" t="s">
-        <v>1439</v>
+        <v>1485</v>
+      </c>
+      <c r="B932" t="s">
+        <v>1485</v>
       </c>
     </row>
     <row r="933" spans="1:2">
       <c r="A933" t="s">
-        <v>1440</v>
+        <v>1486</v>
+      </c>
+      <c r="B933" t="s">
+        <v>1487</v>
       </c>
     </row>
     <row r="934" spans="1:2">
       <c r="A934" t="s">
-        <v>1441</v>
+        <v>1488</v>
+      </c>
+      <c r="B934" t="s">
+        <v>1489</v>
       </c>
     </row>
     <row r="935" spans="1:2">
       <c r="A935" t="s">
-        <v>1442</v>
+        <v>1490</v>
+      </c>
+      <c r="B935" t="s">
+        <v>1491</v>
       </c>
     </row>
     <row r="936" spans="1:2">
       <c r="A936" t="s">
-        <v>1443</v>
+        <v>1492</v>
+      </c>
+      <c r="B936" t="s">
+        <v>1493</v>
       </c>
     </row>
     <row r="937" spans="1:2">
       <c r="A937" t="s">
-        <v>1444</v>
+        <v>1494</v>
+      </c>
+      <c r="B937" t="s">
+        <v>1494</v>
       </c>
     </row>
     <row r="938" spans="1:2">
       <c r="A938" t="s">
-        <v>1445</v>
+        <v>1495</v>
+      </c>
+      <c r="B938" t="s">
+        <v>1495</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
-        <v>1446</v>
+        <v>1496</v>
+      </c>
+      <c r="B939" t="s">
+        <v>1496</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1447</v>
+        <v>1497</v>
+      </c>
+      <c r="B940" t="s">
+        <v>1498</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1448</v>
+        <v>1499</v>
+      </c>
+      <c r="B941" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
-        <v>1449</v>
+        <v>1501</v>
+      </c>
+      <c r="B942" t="s">
+        <v>1501</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" t="s">
-        <v>1450</v>
+        <v>1502</v>
+      </c>
+      <c r="B943" t="s">
+        <v>1502</v>
       </c>
     </row>
     <row r="944" spans="1:2">
       <c r="A944" t="s">
-        <v>1451</v>
+        <v>1503</v>
+      </c>
+      <c r="B944" t="s">
+        <v>1503</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1452</v>
+        <v>1504</v>
+      </c>
+      <c r="B945" t="s">
+        <v>1504</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1453</v>
+        <v>1505</v>
+      </c>
+      <c r="B946" t="s">
+        <v>1505</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1454</v>
+        <v>1506</v>
+      </c>
+      <c r="B947" t="s">
+        <v>1507</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1455</v>
+        <v>1508</v>
+      </c>
+      <c r="B948" t="s">
+        <v>1509</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1456</v>
+        <v>1510</v>
+      </c>
+      <c r="B949" t="s">
+        <v>1511</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
-        <v>1457</v>
+        <v>1512</v>
+      </c>
+      <c r="B950" t="s">
+        <v>1513</v>
       </c>
     </row>
     <row r="951" spans="1:2">
       <c r="A951" t="s">
-        <v>1458</v>
+        <v>1514</v>
+      </c>
+      <c r="B951" t="s">
+        <v>1515</v>
       </c>
     </row>
     <row r="952" spans="1:2">
       <c r="A952" t="s">
-        <v>1459</v>
+        <v>1516</v>
+      </c>
+      <c r="B952" t="s">
+        <v>1516</v>
       </c>
     </row>
     <row r="953" spans="1:2">
       <c r="A953" t="s">
-        <v>1460</v>
+        <v>1517</v>
+      </c>
+      <c r="B953" t="s">
+        <v>1517</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" t="s">
-        <v>1461</v>
+        <v>1518</v>
+      </c>
+      <c r="B954" t="s">
+        <v>1519</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1462</v>
+        <v>1520</v>
+      </c>
+      <c r="B955" t="s">
+        <v>1521</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
-        <v>1463</v>
+        <v>1522</v>
+      </c>
+      <c r="B956" t="s">
+        <v>1523</v>
       </c>
     </row>
     <row r="957" spans="1:2">
       <c r="A957" t="s">
-        <v>1464</v>
+        <v>1524</v>
+      </c>
+      <c r="B957" t="s">
+        <v>1525</v>
       </c>
     </row>
     <row r="958" spans="1:2">
       <c r="A958" t="s">
-        <v>1465</v>
+        <v>1526</v>
+      </c>
+      <c r="B958" t="s">
+        <v>1527</v>
       </c>
     </row>
     <row r="959" spans="1:2">
       <c r="A959" t="s">
-        <v>1466</v>
+        <v>1528</v>
+      </c>
+      <c r="B959" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="960" spans="1:2">
       <c r="A960" t="s">
-        <v>1467</v>
+        <v>1530</v>
+      </c>
+      <c r="B960" t="s">
+        <v>1530</v>
       </c>
     </row>
     <row r="961" spans="1:2">
       <c r="A961" t="s">
-        <v>1468</v>
+        <v>1531</v>
+      </c>
+      <c r="B961" t="s">
+        <v>1531</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" t="s">
-        <v>1469</v>
+        <v>1532</v>
+      </c>
+      <c r="B962" t="s">
+        <v>1532</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1470</v>
+        <v>1533</v>
+      </c>
+      <c r="B963" t="s">
+        <v>1533</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1471</v>
+        <v>1534</v>
+      </c>
+      <c r="B964" t="s">
+        <v>1535</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1472</v>
+        <v>1536</v>
+      </c>
+      <c r="B965" t="s">
+        <v>1537</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
-        <v>1473</v>
+        <v>1538</v>
+      </c>
+      <c r="B966" t="s">
+        <v>1539</v>
       </c>
     </row>
     <row r="967" spans="1:2">
       <c r="A967" t="s">
-        <v>1474</v>
+        <v>1540</v>
+      </c>
+      <c r="B967" t="s">
+        <v>1541</v>
       </c>
     </row>
     <row r="968" spans="1:2">
       <c r="A968" t="s">
-        <v>1475</v>
+        <v>1542</v>
+      </c>
+      <c r="B968" t="s">
+        <v>1543</v>
       </c>
     </row>
     <row r="969" spans="1:2">
       <c r="A969" t="s">
-        <v>1476</v>
+        <v>1544</v>
+      </c>
+      <c r="B969" t="s">
+        <v>1545</v>
       </c>
     </row>
     <row r="970" spans="1:2">
       <c r="A970" t="s">
-        <v>1477</v>
+        <v>1546</v>
+      </c>
+      <c r="B970" t="s">
+        <v>1546</v>
       </c>
     </row>
     <row r="971" spans="1:2">
       <c r="A971" t="s">
-        <v>1478</v>
+        <v>1547</v>
+      </c>
+      <c r="B971" t="s">
+        <v>1547</v>
       </c>
     </row>
     <row r="972" spans="1:2">
       <c r="A972" t="s">
-        <v>1479</v>
+        <v>1548</v>
+      </c>
+      <c r="B972" t="s">
+        <v>1548</v>
       </c>
     </row>
     <row r="973" spans="1:2">
       <c r="A973" t="s">
-        <v>1480</v>
+        <v>1549</v>
+      </c>
+      <c r="B973" t="s">
+        <v>1550</v>
       </c>
     </row>
     <row r="974" spans="1:2">
       <c r="A974" t="s">
-        <v>1481</v>
+        <v>1551</v>
+      </c>
+      <c r="B974" t="s">
+        <v>1551</v>
       </c>
     </row>
     <row r="975" spans="1:2">
       <c r="A975" t="s">
-        <v>1482</v>
+        <v>1552</v>
+      </c>
+      <c r="B975" t="s">
+        <v>1552</v>
       </c>
     </row>
     <row r="976" spans="1:2">
       <c r="A976" t="s">
-        <v>1483</v>
+        <v>1553</v>
+      </c>
+      <c r="B976" t="s">
+        <v>1553</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1484</v>
+        <v>1554</v>
+      </c>
+      <c r="B977" t="s">
+        <v>1555</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1485</v>
+        <v>1556</v>
+      </c>
+      <c r="B978" t="s">
+        <v>1556</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1486</v>
+        <v>1557</v>
+      </c>
+      <c r="B979" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
-        <v>1487</v>
+        <v>1558</v>
+      </c>
+      <c r="B980" t="s">
+        <v>1558</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
-        <v>1488</v>
+        <v>1559</v>
+      </c>
+      <c r="B981" t="s">
+        <v>1559</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1489</v>
+        <v>1560</v>
+      </c>
+      <c r="B982" t="s">
+        <v>1561</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1490</v>
+        <v>1562</v>
+      </c>
+      <c r="B983" t="s">
+        <v>1563</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1491</v>
+        <v>1564</v>
+      </c>
+      <c r="B984" t="s">
+        <v>1565</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1492</v>
+        <v>1566</v>
+      </c>
+      <c r="B985" t="s">
+        <v>1566</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
-        <v>1493</v>
+        <v>1567</v>
+      </c>
+      <c r="B986" t="s">
+        <v>1568</v>
       </c>
     </row>
     <row r="987" spans="1:2">
       <c r="A987" t="s">
-        <v>1494</v>
+        <v>1569</v>
+      </c>
+      <c r="B987" t="s">
+        <v>1570</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" t="s">
-        <v>1495</v>
+        <v>1571</v>
+      </c>
+      <c r="B988" t="s">
+        <v>1572</v>
       </c>
     </row>
     <row r="989" spans="1:2">
       <c r="A989" t="s">
-        <v>1496</v>
+        <v>1573</v>
+      </c>
+      <c r="B989" t="s">
+        <v>1573</v>
       </c>
     </row>
     <row r="990" spans="1:2">
       <c r="A990" t="s">
-        <v>1497</v>
+        <v>1574</v>
+      </c>
+      <c r="B990" t="s">
+        <v>1574</v>
       </c>
     </row>
     <row r="991" spans="1:2">
       <c r="A991" t="s">
-        <v>1498</v>
+        <v>1575</v>
+      </c>
+      <c r="B991" t="s">
+        <v>1576</v>
       </c>
     </row>
     <row r="992" spans="1:2">
       <c r="A992" t="s">
-        <v>1499</v>
+        <v>1577</v>
+      </c>
+      <c r="B992" t="s">
+        <v>1577</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1500</v>
+        <v>1578</v>
+      </c>
+      <c r="B993" t="s">
+        <v>1578</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>1501</v>
+        <v>1579</v>
+      </c>
+      <c r="B994" t="s">
+        <v>1579</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1502</v>
+        <v>1580</v>
+      </c>
+      <c r="B995" t="s">
+        <v>1581</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1503</v>
+        <v>1582</v>
+      </c>
+      <c r="B996" t="s">
+        <v>1583</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
-        <v>1504</v>
+        <v>1584</v>
+      </c>
+      <c r="B997" t="s">
+        <v>1585</v>
       </c>
     </row>
     <row r="998" spans="1:2">
       <c r="A998" t="s">
-        <v>1505</v>
+        <v>1586</v>
+      </c>
+      <c r="B998" t="s">
+        <v>1587</v>
       </c>
     </row>
     <row r="999" spans="1:2">
       <c r="A999" t="s">
-        <v>1506</v>
+        <v>1588</v>
+      </c>
+      <c r="B999" t="s">
+        <v>1588</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
       <c r="A1000" t="s">
-        <v>1507</v>
+        <v>1589</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>1589</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1508</v>
+        <v>1590</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>1590</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1509</v>
+        <v>1591</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>1592</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1510</v>
+        <v>1593</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>1594</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1511</v>
+        <v>1595</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>1595</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1512</v>
+        <v>1596</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>1596</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1513</v>
+        <v>1597</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>1597</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1514</v>
+        <v>1598</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>1598</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1515</v>
+        <v>1599</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>1600</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1516</v>
+        <v>1601</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>1602</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
-        <v>1517</v>
+        <v>1603</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>1603</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
-        <v>1518</v>
+        <v>1604</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>1604</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" t="s">
-        <v>1519</v>
+        <v>1605</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>1605</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1520</v>
+        <v>1606</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>1606</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1521</v>
+        <v>1607</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>1608</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1522</v>
+        <v>1609</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>1610</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1523</v>
+        <v>1611</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>1611</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1524</v>
+        <v>1612</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>1612</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
       <c r="A1018" t="s">
-        <v>1525</v>
+        <v>1613</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>1614</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
       <c r="A1019" t="s">
-        <v>1526</v>
+        <v>1615</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>1616</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
       <c r="A1020" t="s">
-        <v>1527</v>
+        <v>1617</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>1617</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
       <c r="A1021" t="s">
-        <v>1528</v>
+        <v>1618</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>1619</v>
       </c>
     </row>
     <row r="1022" spans="1:2">
       <c r="A1022" t="s">
-        <v>1529</v>
+        <v>1620</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>1620</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1530</v>
+        <v>1621</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>1621</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1531</v>
+        <v>1622</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>1623</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1532</v>
+        <v>1624</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>1624</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1533</v>
+        <v>1625</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>1625</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1534</v>
+        <v>1626</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>1627</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1535</v>
+        <v>1628</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>1628</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1536</v>
+        <v>1629</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>1629</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1537</v>
+        <v>1630</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>1630</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1538</v>
+        <v>1631</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>1632</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1539</v>
+        <v>1633</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>1634</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
-        <v>1540</v>
+        <v>1635</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>1635</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1541</v>
+        <v>1636</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>1637</v>
       </c>
     </row>
     <row r="1035" spans="1:2">
       <c r="A1035" t="s">
-        <v>1542</v>
+        <v>1638</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>1639</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" t="s">
-        <v>1543</v>
+        <v>1640</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>1641</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" t="s">
-        <v>1544</v>
+        <v>1642</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>1642</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
       <c r="A1038" t="s">
-        <v>1545</v>
+        <v>1643</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>1644</v>
       </c>
     </row>
     <row r="1039" spans="1:2">
       <c r="A1039" t="s">
-        <v>1546</v>
+        <v>1645</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>1646</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
       <c r="A1040" t="s">
-        <v>1547</v>
+        <v>1647</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>1647</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" t="s">
-        <v>1548</v>
+        <v>1648</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>1648</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
       <c r="A1042" t="s">
-        <v>1549</v>
+        <v>1649</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>1650</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
       <c r="A1043" t="s">
-        <v>1550</v>
+        <v>1651</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>1651</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" t="s">
-        <v>1551</v>
+        <v>1652</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>1653</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
       <c r="A1045" t="s">
-        <v>1552</v>
+        <v>1654</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>1654</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046" t="s">
-        <v>1553</v>
+        <v>1655</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>1656</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
       <c r="A1047" t="s">
-        <v>1554</v>
+        <v>1657</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>1658</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048" t="s">
-        <v>1555</v>
+        <v>1659</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>1660</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
       <c r="A1049" t="s">
-        <v>1556</v>
+        <v>1661</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>1662</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
       <c r="A1050" t="s">
-        <v>1557</v>
+        <v>1663</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>1664</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
       <c r="A1051" t="s">
-        <v>1558</v>
+        <v>1665</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>1666</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
       <c r="A1052" t="s">
-        <v>1559</v>
+        <v>1667</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>1668</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
       <c r="A1053" t="s">
-        <v>1560</v>
+        <v>1669</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>1670</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
       <c r="A1054" t="s">
-        <v>1561</v>
+        <v>1671</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>1671</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
       <c r="A1055" t="s">
-        <v>1562</v>
+        <v>1672</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>1672</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
       <c r="A1056" t="s">
-        <v>1563</v>
+        <v>1673</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>1673</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
       <c r="A1057" t="s">
-        <v>1564</v>
+        <v>1674</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>1675</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
       <c r="A1058" t="s">
-        <v>1565</v>
+        <v>1676</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>1676</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" t="s">
-        <v>1566</v>
+        <v>1677</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>1677</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060" t="s">
-        <v>1567</v>
+        <v>1678</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>1679</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
       <c r="A1061" t="s">
-        <v>1568</v>
+        <v>1680</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>1681</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
       <c r="A1062" t="s">
-        <v>1569</v>
+        <v>1682</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>1683</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
       <c r="A1063" t="s">
-        <v>1570</v>
+        <v>1684</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>1685</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
       <c r="A1064" t="s">
-        <v>1571</v>
+        <v>1686</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>1687</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
       <c r="A1065" t="s">
-        <v>1572</v>
+        <v>1688</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>1688</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
       <c r="A1066" t="s">
-        <v>1573</v>
+        <v>1689</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>1689</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
       <c r="A1067" t="s">
-        <v>1574</v>
+        <v>1690</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>1690</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
       <c r="A1068" t="s">
-        <v>1575</v>
+        <v>1691</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>1691</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
-        <v>1576</v>
+        <v>1692</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>1693</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" t="s">
-        <v>1577</v>
+        <v>1694</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>1694</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1578</v>
+        <v>1695</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>1695</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1579</v>
+        <v>1696</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>1696</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1580</v>
+        <v>1697</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>1698</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>1581</v>
+        <v>1699</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>1699</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1582</v>
+        <v>1700</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>1701</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1583</v>
+        <v>1702</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>1703</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
-        <v>1584</v>
+        <v>1704</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>1704</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1585</v>
+        <v>1705</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>1705</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1586</v>
+        <v>1706</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>1707</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
       <c r="A1080" t="s">
-        <v>1587</v>
+        <v>1708</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>1709</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
-        <v>1588</v>
+        <v>1710</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>1710</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1589</v>
+        <v>1711</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>1712</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
       <c r="A1083" t="s">
-        <v>1590</v>
+        <v>1713</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>1714</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
       <c r="A1084" t="s">
-        <v>1591</v>
+        <v>1715</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>1716</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
       <c r="A1085" t="s">
-        <v>1592</v>
+        <v>1717</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>1718</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
       <c r="A1086" t="s">
-        <v>1593</v>
+        <v>1719</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>1719</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
       <c r="A1087" t="s">
-        <v>1594</v>
+        <v>1720</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>1720</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" t="s">
-        <v>1595</v>
+        <v>1721</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>1722</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
       <c r="A1089" t="s">
-        <v>1596</v>
+        <v>1723</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>1724</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
       <c r="A1090" t="s">
-        <v>1597</v>
+        <v>1725</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>1726</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
-        <v>1598</v>
+        <v>1727</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>1727</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" t="s">
-        <v>1599</v>
+        <v>1728</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>1729</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
       <c r="A1093" t="s">
-        <v>1600</v>
+        <v>1730</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>1730</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
       <c r="A1094" t="s">
-        <v>1601</v>
+        <v>1731</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>1732</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
       <c r="A1095" t="s">
-        <v>1602</v>
+        <v>1733</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>1733</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
       <c r="A1096" t="s">
-        <v>1603</v>
+        <v>1734</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>1734</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1604</v>
+        <v>1735</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>1735</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" t="s">
-        <v>1605</v>
+        <v>1736</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>1736</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
-        <v>1606</v>
+        <v>1737</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>1737</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1607</v>
+        <v>1738</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>1738</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1608</v>
+        <v>1739</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>1740</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1609</v>
+        <v>1741</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>1742</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>1610</v>
+        <v>1743</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>1744</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>1611</v>
+        <v>1745</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>1746</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>1612</v>
+        <v>1747</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>1748</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
-        <v>1613</v>
+        <v>1749</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>1749</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
-        <v>1614</v>
+        <v>1750</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>1751</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>1615</v>
+        <v>1752</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>1752</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" t="s">
-        <v>1616</v>
+        <v>1753</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>1753</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>1617</v>
+        <v>1754</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>1755</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
       <c r="A1111" t="s">
-        <v>1618</v>
+        <v>1756</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>1756</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" t="s">
-        <v>1619</v>
+        <v>1757</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>1757</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113" t="s">
-        <v>1620</v>
+        <v>1758</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>1758</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
       <c r="A1114" t="s">
-        <v>1621</v>
+        <v>1759</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>1760</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
       <c r="A1115" t="s">
-        <v>1622</v>
+        <v>1761</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>1762</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116" t="s">
-        <v>1623</v>
+        <v>1763</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>1764</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
       <c r="A1117" t="s">
-        <v>1624</v>
+        <v>1765</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>1766</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
       <c r="A1118" t="s">
-        <v>1625</v>
+        <v>1767</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>1768</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
       <c r="A1119" t="s">
-        <v>1626</v>
+        <v>1769</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>1770</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
       <c r="A1120" t="s">
-        <v>1627</v>
+        <v>1771</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>1772</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
       <c r="A1121" t="s">
-        <v>1628</v>
+        <v>1773</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>1774</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
       <c r="A1122" t="s">
-        <v>1629</v>
+        <v>1775</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>1776</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
       <c r="A1123" t="s">
-        <v>1630</v>
+        <v>1777</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>1778</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
       <c r="A1124" t="s">
-        <v>1631</v>
+        <v>1779</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>1780</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
       <c r="A1125" t="s">
-        <v>1632</v>
+        <v>1781</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>1782</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
       <c r="A1126" t="s">
-        <v>1633</v>
+        <v>1783</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>1783</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" t="s">
-        <v>1634</v>
+        <v>1784</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>1784</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
-        <v>1635</v>
+        <v>1785</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>1785</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>1636</v>
+        <v>1786</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>1786</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1637</v>
+        <v>1787</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>1787</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1638</v>
+        <v>1788</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>1789</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1639</v>
+        <v>1790</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>1791</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1640</v>
+        <v>1792</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>1792</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1641</v>
+        <v>1793</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>1793</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1642</v>
+        <v>1794</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>1794</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1643</v>
+        <v>1795</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>1796</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1644</v>
+        <v>1797</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>1797</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1645</v>
+        <v>1798</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>1798</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1646</v>
+        <v>1799</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>1800</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>1647</v>
+        <v>1801</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>1802</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
-        <v>1648</v>
+        <v>1803</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>1804</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" t="s">
-        <v>1649</v>
+        <v>1805</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>1806</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
       <c r="A1143" t="s">
-        <v>1650</v>
+        <v>1807</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>1808</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" t="s">
-        <v>1651</v>
+        <v>1809</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>1810</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" t="s">
-        <v>1652</v>
+        <v>1811</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>1812</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
       <c r="A1146" t="s">
-        <v>1653</v>
+        <v>1813</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>1814</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
-        <v>1654</v>
+        <v>1815</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>1816</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" t="s">
-        <v>1655</v>
+        <v>1817</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>1818</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" t="s">
-        <v>1656</v>
+        <v>1819</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>1820</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
-        <v>1657</v>
+        <v>1821</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>1822</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
       <c r="A1151" t="s">
-        <v>1658</v>
+        <v>1823</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>1823</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
-        <v>1659</v>
+        <v>1824</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>1824</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
-        <v>1660</v>
+        <v>1825</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>1825</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>1661</v>
+        <v>1826</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>1826</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1662</v>
+        <v>1827</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>1827</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1663</v>
+        <v>1828</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>1829</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1664</v>
+        <v>1830</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>1831</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1665</v>
+        <v>1832</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>1832</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1666</v>
+        <v>1833</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>1833</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1667</v>
+        <v>1834</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>1835</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1668</v>
+        <v>1836</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>1837</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1669</v>
+        <v>1838</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>1838</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1670</v>
+        <v>1839</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>1839</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1671</v>
+        <v>1840</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>1840</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1672</v>
+        <v>1841</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>1841</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1673</v>
+        <v>1842</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>1843</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1674</v>
+        <v>1844</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>1844</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1675</v>
+        <v>1845</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>1846</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1676</v>
+        <v>1847</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>1847</v>
       </c>
     </row>
   </sheetData>

--- a/lang/pl/headTags.xlsx
+++ b/lang/pl/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1170</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1850">
   <si>
     <t>en</t>
   </si>
@@ -1523,6 +1523,12 @@
   </si>
   <si>
     <t>Wybuchowy</t>
+  </si>
+  <si>
+    <t>Eye</t>
+  </si>
+  <si>
+    <t>Oko</t>
   </si>
   <si>
     <t>Eyepatch</t>
@@ -5907,7 +5913,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1169"/>
+  <dimension ref="A1:B1170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -8437,15 +8443,15 @@
         <v>502</v>
       </c>
       <c r="B315" t="s">
-        <v>174</v>
+        <v>503</v>
       </c>
     </row>
     <row r="316" spans="1:2">
       <c r="A316" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B316" t="s">
-        <v>504</v>
+        <v>174</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -8453,12 +8459,12 @@
         <v>505</v>
       </c>
       <c r="B317" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B318" t="s">
         <v>507</v>
@@ -8469,20 +8475,20 @@
         <v>508</v>
       </c>
       <c r="B319" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B320" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B321" t="s">
         <v>511</v>
@@ -8501,36 +8507,36 @@
         <v>514</v>
       </c>
       <c r="B323" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="324" spans="1:2">
       <c r="A324" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B324" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="325" spans="1:2">
       <c r="A325" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B325" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B326" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="327" spans="1:2">
       <c r="A327" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B327" t="s">
         <v>519</v>
@@ -8541,28 +8547,28 @@
         <v>520</v>
       </c>
       <c r="B328" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B329" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B330" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B331" t="s">
         <v>524</v>
@@ -8629,12 +8635,12 @@
         <v>539</v>
       </c>
       <c r="B339" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="340" spans="1:2">
       <c r="A340" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B340" t="s">
         <v>541</v>
@@ -8653,12 +8659,12 @@
         <v>544</v>
       </c>
       <c r="B342" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="343" spans="1:2">
       <c r="A343" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B343" t="s">
         <v>546</v>
@@ -8685,12 +8691,12 @@
         <v>551</v>
       </c>
       <c r="B346" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="347" spans="1:2">
       <c r="A347" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B347" t="s">
         <v>553</v>
@@ -8789,12 +8795,12 @@
         <v>576</v>
       </c>
       <c r="B359" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="360" spans="1:2">
       <c r="A360" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B360" t="s">
         <v>578</v>
@@ -8821,12 +8827,12 @@
         <v>583</v>
       </c>
       <c r="B363" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="364" spans="1:2">
       <c r="A364" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B364" t="s">
         <v>585</v>
@@ -8853,12 +8859,12 @@
         <v>590</v>
       </c>
       <c r="B367" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="368" spans="1:2">
       <c r="A368" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B368" t="s">
         <v>592</v>
@@ -9357,12 +9363,12 @@
         <v>715</v>
       </c>
       <c r="B430" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B431" t="s">
         <v>717</v>
@@ -9381,12 +9387,12 @@
         <v>720</v>
       </c>
       <c r="B433" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B434" t="s">
         <v>722</v>
@@ -9397,12 +9403,12 @@
         <v>723</v>
       </c>
       <c r="B435" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B436" t="s">
         <v>725</v>
@@ -9413,12 +9419,12 @@
         <v>726</v>
       </c>
       <c r="B437" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B438" t="s">
         <v>728</v>
@@ -9461,12 +9467,12 @@
         <v>737</v>
       </c>
       <c r="B443" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B444" t="s">
         <v>739</v>
@@ -9477,12 +9483,12 @@
         <v>740</v>
       </c>
       <c r="B445" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B446" t="s">
         <v>742</v>
@@ -9493,12 +9499,12 @@
         <v>743</v>
       </c>
       <c r="B447" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B448" t="s">
         <v>745</v>
@@ -9533,12 +9539,12 @@
         <v>752</v>
       </c>
       <c r="B452" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B453" t="s">
         <v>754</v>
@@ -9557,20 +9563,20 @@
         <v>757</v>
       </c>
       <c r="B455" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B456" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B457" t="s">
         <v>760</v>
@@ -9597,12 +9603,12 @@
         <v>765</v>
       </c>
       <c r="B460" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B461" t="s">
         <v>767</v>
@@ -9613,36 +9619,36 @@
         <v>768</v>
       </c>
       <c r="B462" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B463" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B464" t="s">
-        <v>504</v>
+        <v>771</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B465" t="s">
-        <v>771</v>
+        <v>506</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B466" t="s">
         <v>773</v>
@@ -9669,20 +9675,20 @@
         <v>778</v>
       </c>
       <c r="B469" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B470" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B471" t="s">
         <v>781</v>
@@ -9693,20 +9699,20 @@
         <v>782</v>
       </c>
       <c r="B472" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B473" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B474" t="s">
         <v>785</v>
@@ -9717,12 +9723,12 @@
         <v>786</v>
       </c>
       <c r="B475" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B476" t="s">
         <v>788</v>
@@ -9757,20 +9763,20 @@
         <v>795</v>
       </c>
       <c r="B480" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B481" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B482" t="s">
         <v>798</v>
@@ -9781,12 +9787,12 @@
         <v>799</v>
       </c>
       <c r="B483" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B484" t="s">
         <v>801</v>
@@ -9797,36 +9803,36 @@
         <v>802</v>
       </c>
       <c r="B485" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B486" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B487" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B488" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B489" t="s">
         <v>807</v>
@@ -9981,20 +9987,20 @@
         <v>844</v>
       </c>
       <c r="B508" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B509" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B510" t="s">
         <v>847</v>
@@ -10005,12 +10011,12 @@
         <v>848</v>
       </c>
       <c r="B511" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B512" t="s">
         <v>850</v>
@@ -10045,36 +10051,36 @@
         <v>857</v>
       </c>
       <c r="B516" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B517" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B518" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B519" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B520" t="s">
         <v>862</v>
@@ -10101,12 +10107,12 @@
         <v>867</v>
       </c>
       <c r="B523" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B524" t="s">
         <v>869</v>
@@ -10157,12 +10163,12 @@
         <v>880</v>
       </c>
       <c r="B530" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B531" t="s">
         <v>882</v>
@@ -10181,20 +10187,20 @@
         <v>885</v>
       </c>
       <c r="B533" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B534" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B535" t="s">
         <v>888</v>
@@ -10213,76 +10219,76 @@
         <v>891</v>
       </c>
       <c r="B537" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B538" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B539" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B540" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B541" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B542" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B543" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B544" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B545" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B546" t="s">
         <v>901</v>
@@ -10301,20 +10307,20 @@
         <v>904</v>
       </c>
       <c r="B548" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B549" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B550" t="s">
         <v>907</v>
@@ -10341,20 +10347,20 @@
         <v>912</v>
       </c>
       <c r="B553" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B554" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B555" t="s">
         <v>915</v>
@@ -10405,28 +10411,28 @@
         <v>926</v>
       </c>
       <c r="B561" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B562" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B563" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B564" t="s">
         <v>930</v>
@@ -10469,12 +10475,12 @@
         <v>939</v>
       </c>
       <c r="B569" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B570" t="s">
         <v>941</v>
@@ -10501,44 +10507,44 @@
         <v>946</v>
       </c>
       <c r="B573" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B574" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B575" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B576" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B577" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B578" t="s">
         <v>952</v>
@@ -10557,36 +10563,36 @@
         <v>955</v>
       </c>
       <c r="B580" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B581" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B582" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B583" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B584" t="s">
         <v>960</v>
@@ -10605,12 +10611,12 @@
         <v>963</v>
       </c>
       <c r="B586" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B587" t="s">
         <v>965</v>
@@ -10629,12 +10635,12 @@
         <v>968</v>
       </c>
       <c r="B589" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B590" t="s">
         <v>970</v>
@@ -10645,12 +10651,12 @@
         <v>971</v>
       </c>
       <c r="B591" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B592" t="s">
         <v>973</v>
@@ -10717,20 +10723,20 @@
         <v>988</v>
       </c>
       <c r="B600" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B601" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B602" t="s">
         <v>991</v>
@@ -10741,20 +10747,20 @@
         <v>992</v>
       </c>
       <c r="B603" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B604" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B605" t="s">
         <v>995</v>
@@ -10789,28 +10795,28 @@
         <v>1002</v>
       </c>
       <c r="B609" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B610" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B611" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B612" t="s">
         <v>1006</v>
@@ -10821,12 +10827,12 @@
         <v>1007</v>
       </c>
       <c r="B613" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B614" t="s">
         <v>1009</v>
@@ -10869,20 +10875,20 @@
         <v>1018</v>
       </c>
       <c r="B619" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B620" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B621" t="s">
         <v>1021</v>
@@ -10893,20 +10899,20 @@
         <v>1022</v>
       </c>
       <c r="B622" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B623" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B624" t="s">
         <v>1025</v>
@@ -10925,100 +10931,100 @@
         <v>1028</v>
       </c>
       <c r="B626" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B627" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B628" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B629" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B630" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B631" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B632" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B633" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B634" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B635" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B636" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B637" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B638" t="s">
         <v>1041</v>
@@ -11029,12 +11035,12 @@
         <v>1042</v>
       </c>
       <c r="B639" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B640" t="s">
         <v>1044</v>
@@ -11045,20 +11051,20 @@
         <v>1045</v>
       </c>
       <c r="B641" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B642" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B643" t="s">
         <v>1048</v>
@@ -11093,28 +11099,28 @@
         <v>1055</v>
       </c>
       <c r="B647" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B648" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B649" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B650" t="s">
         <v>1059</v>
@@ -11125,20 +11131,20 @@
         <v>1060</v>
       </c>
       <c r="B651" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B652" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B653" t="s">
         <v>1063</v>
@@ -11149,28 +11155,28 @@
         <v>1064</v>
       </c>
       <c r="B654" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B655" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B656" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B657" t="s">
         <v>1068</v>
@@ -11181,12 +11187,12 @@
         <v>1069</v>
       </c>
       <c r="B658" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B659" t="s">
         <v>1071</v>
@@ -11205,44 +11211,44 @@
         <v>1074</v>
       </c>
       <c r="B661" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B662" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B663" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B664" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B665" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B666" t="s">
         <v>1080</v>
@@ -11253,12 +11259,12 @@
         <v>1081</v>
       </c>
       <c r="B667" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B668" t="s">
         <v>1083</v>
@@ -11277,12 +11283,12 @@
         <v>1086</v>
       </c>
       <c r="B670" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B671" t="s">
         <v>1088</v>
@@ -11301,36 +11307,36 @@
         <v>1091</v>
       </c>
       <c r="B673" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B674" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B675" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B676" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B677" t="s">
         <v>1096</v>
@@ -11357,20 +11363,20 @@
         <v>1101</v>
       </c>
       <c r="B680" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B681" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B682" t="s">
         <v>1104</v>
@@ -11429,20 +11435,20 @@
         <v>1117</v>
       </c>
       <c r="B689" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B690" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B691" t="s">
         <v>1120</v>
@@ -11453,12 +11459,12 @@
         <v>1121</v>
       </c>
       <c r="B692" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B693" t="s">
         <v>1123</v>
@@ -11501,36 +11507,36 @@
         <v>1132</v>
       </c>
       <c r="B698" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="B699" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B700" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B701" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="B702" t="s">
         <v>1137</v>
@@ -11541,60 +11547,60 @@
         <v>1138</v>
       </c>
       <c r="B703" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B704" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B705" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B706" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B707" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B708" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B709" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B710" t="s">
         <v>1146</v>
@@ -11629,12 +11635,12 @@
         <v>1153</v>
       </c>
       <c r="B714" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B715" t="s">
         <v>1155</v>
@@ -11645,28 +11651,28 @@
         <v>1156</v>
       </c>
       <c r="B716" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="717" spans="1:2">
       <c r="A717" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B717" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="718" spans="1:2">
       <c r="A718" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B718" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="719" spans="1:2">
       <c r="A719" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="B719" t="s">
         <v>1160</v>
@@ -11677,20 +11683,20 @@
         <v>1161</v>
       </c>
       <c r="B720" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="721" spans="1:2">
       <c r="A721" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B721" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="722" spans="1:2">
       <c r="A722" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B722" t="s">
         <v>1164</v>
@@ -11725,12 +11731,12 @@
         <v>1171</v>
       </c>
       <c r="B726" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B727" t="s">
         <v>1173</v>
@@ -11749,12 +11755,12 @@
         <v>1176</v>
       </c>
       <c r="B729" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B730" t="s">
         <v>1178</v>
@@ -11781,68 +11787,68 @@
         <v>1183</v>
       </c>
       <c r="B733" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B734" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B735" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B736" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B737" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B738" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B739" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B740" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B741" t="s">
         <v>1192</v>
@@ -11853,28 +11859,28 @@
         <v>1193</v>
       </c>
       <c r="B742" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B743" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B744" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B745" t="s">
         <v>1197</v>
@@ -11941,20 +11947,20 @@
         <v>1212</v>
       </c>
       <c r="B753" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="754" spans="1:2">
       <c r="A754" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="B754" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B755" t="s">
         <v>1215</v>
@@ -11973,12 +11979,12 @@
         <v>1218</v>
       </c>
       <c r="B757" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="758" spans="1:2">
       <c r="A758" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="B758" t="s">
         <v>1220</v>
@@ -11989,20 +11995,20 @@
         <v>1221</v>
       </c>
       <c r="B759" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B760" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B761" t="s">
         <v>1224</v>
@@ -12045,12 +12051,12 @@
         <v>1233</v>
       </c>
       <c r="B766" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="767" spans="1:2">
       <c r="A767" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="B767" t="s">
         <v>1235</v>
@@ -12085,20 +12091,20 @@
         <v>1242</v>
       </c>
       <c r="B771" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="772" spans="1:2">
       <c r="A772" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="B772" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B773" t="s">
         <v>1245</v>
@@ -12149,28 +12155,28 @@
         <v>1256</v>
       </c>
       <c r="B779" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="780" spans="1:2">
       <c r="A780" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="B780" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B781" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="B782" t="s">
         <v>1260</v>
@@ -12197,12 +12203,12 @@
         <v>1265</v>
       </c>
       <c r="B785" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="B786" t="s">
         <v>1267</v>
@@ -12213,60 +12219,60 @@
         <v>1268</v>
       </c>
       <c r="B787" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B788" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B789" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B790" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B791" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="B792" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B793" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B794" t="s">
         <v>1276</v>
@@ -12277,12 +12283,12 @@
         <v>1277</v>
       </c>
       <c r="B795" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B796" t="s">
         <v>1279</v>
@@ -12341,36 +12347,36 @@
         <v>1292</v>
       </c>
       <c r="B803" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="804" spans="1:2">
       <c r="A804" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="B804" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="B805" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="B806" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="B807" t="s">
         <v>1297</v>
@@ -12413,20 +12419,20 @@
         <v>1306</v>
       </c>
       <c r="B812" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="813" spans="1:2">
       <c r="A813" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="B813" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="814" spans="1:2">
       <c r="A814" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B814" t="s">
         <v>1309</v>
@@ -12445,28 +12451,28 @@
         <v>1312</v>
       </c>
       <c r="B816" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="817" spans="1:2">
       <c r="A817" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="B817" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="818" spans="1:2">
       <c r="A818" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="B818" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B819" t="s">
         <v>1316</v>
@@ -12493,12 +12499,12 @@
         <v>1321</v>
       </c>
       <c r="B822" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="823" spans="1:2">
       <c r="A823" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="B823" t="s">
         <v>1323</v>
@@ -12541,36 +12547,36 @@
         <v>1332</v>
       </c>
       <c r="B828" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="829" spans="1:2">
       <c r="A829" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="B829" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="B830" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B831" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B832" t="s">
         <v>1337</v>
@@ -12605,12 +12611,12 @@
         <v>1344</v>
       </c>
       <c r="B836" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="837" spans="1:2">
       <c r="A837" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="B837" t="s">
         <v>1346</v>
@@ -12621,116 +12627,116 @@
         <v>1347</v>
       </c>
       <c r="B838" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="839" spans="1:2">
       <c r="A839" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B839" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="840" spans="1:2">
       <c r="A840" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B840" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B841" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B842" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B843" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B844" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B845" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="846" spans="1:2">
       <c r="A846" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B846" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="847" spans="1:2">
       <c r="A847" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="B847" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="848" spans="1:2">
       <c r="A848" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="B848" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="849" spans="1:2">
       <c r="A849" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B849" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="850" spans="1:2">
       <c r="A850" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B850" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="851" spans="1:2">
       <c r="A851" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B851" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="852" spans="1:2">
       <c r="A852" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B852" t="s">
         <v>1362</v>
@@ -12765,60 +12771,60 @@
         <v>1369</v>
       </c>
       <c r="B856" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="857" spans="1:2">
       <c r="A857" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="B857" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="B858" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B859" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="B860" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B861" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="B862" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B863" t="s">
         <v>1377</v>
@@ -12829,12 +12835,12 @@
         <v>1378</v>
       </c>
       <c r="B864" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="B865" t="s">
         <v>1380</v>
@@ -12845,12 +12851,12 @@
         <v>1381</v>
       </c>
       <c r="B866" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="B867" t="s">
         <v>1383</v>
@@ -12917,20 +12923,20 @@
         <v>1398</v>
       </c>
       <c r="B875" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="876" spans="1:2">
       <c r="A876" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="B876" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="B877" t="s">
         <v>1401</v>
@@ -12949,12 +12955,12 @@
         <v>1404</v>
       </c>
       <c r="B879" t="s">
-        <v>1404</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="880" spans="1:2">
       <c r="A880" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="B880" t="s">
         <v>1406</v>
@@ -12965,12 +12971,12 @@
         <v>1407</v>
       </c>
       <c r="B881" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B882" t="s">
         <v>1409</v>
@@ -12981,12 +12987,12 @@
         <v>1410</v>
       </c>
       <c r="B883" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="B884" t="s">
         <v>1412</v>
@@ -12997,12 +13003,12 @@
         <v>1413</v>
       </c>
       <c r="B885" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="B886" t="s">
         <v>1415</v>
@@ -13013,12 +13019,12 @@
         <v>1416</v>
       </c>
       <c r="B887" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="B888" t="s">
         <v>1418</v>
@@ -13029,20 +13035,20 @@
         <v>1419</v>
       </c>
       <c r="B889" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="B890" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="891" spans="1:2">
       <c r="A891" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="B891" t="s">
         <v>1422</v>
@@ -13061,28 +13067,28 @@
         <v>1425</v>
       </c>
       <c r="B893" t="s">
-        <v>1425</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="894" spans="1:2">
       <c r="A894" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="B894" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="895" spans="1:2">
       <c r="A895" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B895" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="B896" t="s">
         <v>1429</v>
@@ -13125,60 +13131,60 @@
         <v>1438</v>
       </c>
       <c r="B901" t="s">
-        <v>1438</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="902" spans="1:2">
       <c r="A902" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="B902" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="903" spans="1:2">
       <c r="A903" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B903" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="B904" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B905" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="B906" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B907" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="B908" t="s">
         <v>1446</v>
@@ -13213,20 +13219,20 @@
         <v>1453</v>
       </c>
       <c r="B912" t="s">
-        <v>1453</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
       <c r="B913" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B914" t="s">
         <v>1456</v>
@@ -13269,20 +13275,20 @@
         <v>1465</v>
       </c>
       <c r="B919" t="s">
-        <v>1465</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="920" spans="1:2">
       <c r="A920" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="B920" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B921" t="s">
         <v>1468</v>
@@ -13317,12 +13323,12 @@
         <v>1475</v>
       </c>
       <c r="B925" t="s">
-        <v>1475</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="926" spans="1:2">
       <c r="A926" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
       <c r="B926" t="s">
         <v>1477</v>
@@ -13341,20 +13347,20 @@
         <v>1480</v>
       </c>
       <c r="B928" t="s">
-        <v>1480</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="929" spans="1:2">
       <c r="A929" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
       <c r="B929" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B930" t="s">
         <v>1483</v>
@@ -13365,20 +13371,20 @@
         <v>1484</v>
       </c>
       <c r="B931" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="932" spans="1:2">
       <c r="A932" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="B932" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="933" spans="1:2">
       <c r="A933" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="B933" t="s">
         <v>1487</v>
@@ -13413,28 +13419,28 @@
         <v>1494</v>
       </c>
       <c r="B937" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="938" spans="1:2">
       <c r="A938" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="B938" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="939" spans="1:2">
       <c r="A939" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="B939" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="B940" t="s">
         <v>1498</v>
@@ -13453,44 +13459,44 @@
         <v>1501</v>
       </c>
       <c r="B942" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="B943" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="944" spans="1:2">
       <c r="A944" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
       <c r="B944" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B945" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="B946" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="B947" t="s">
         <v>1507</v>
@@ -13533,20 +13539,20 @@
         <v>1516</v>
       </c>
       <c r="B952" t="s">
-        <v>1516</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="953" spans="1:2">
       <c r="A953" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
       <c r="B953" t="s">
-        <v>1517</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="954" spans="1:2">
       <c r="A954" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="B954" t="s">
         <v>1519</v>
@@ -13597,36 +13603,36 @@
         <v>1530</v>
       </c>
       <c r="B960" t="s">
-        <v>1530</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="961" spans="1:2">
       <c r="A961" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="B961" t="s">
-        <v>1531</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
       <c r="B962" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B963" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="B964" t="s">
         <v>1535</v>
@@ -13677,28 +13683,28 @@
         <v>1546</v>
       </c>
       <c r="B970" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="971" spans="1:2">
       <c r="A971" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
       <c r="B971" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="972" spans="1:2">
       <c r="A972" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="B972" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="973" spans="1:2">
       <c r="A973" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="B973" t="s">
         <v>1550</v>
@@ -13709,28 +13715,28 @@
         <v>1551</v>
       </c>
       <c r="B974" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="975" spans="1:2">
       <c r="A975" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="B975" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="976" spans="1:2">
       <c r="A976" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="B976" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="B977" t="s">
         <v>1555</v>
@@ -13741,36 +13747,36 @@
         <v>1556</v>
       </c>
       <c r="B978" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B979" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B980" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="B981" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="B982" t="s">
         <v>1561</v>
@@ -13797,12 +13803,12 @@
         <v>1566</v>
       </c>
       <c r="B985" t="s">
-        <v>1566</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="B986" t="s">
         <v>1568</v>
@@ -13829,20 +13835,20 @@
         <v>1573</v>
       </c>
       <c r="B989" t="s">
-        <v>1573</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="990" spans="1:2">
       <c r="A990" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="B990" t="s">
-        <v>1574</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="991" spans="1:2">
       <c r="A991" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="B991" t="s">
         <v>1576</v>
@@ -13853,28 +13859,28 @@
         <v>1577</v>
       </c>
       <c r="B992" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="B993" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="B994" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="B995" t="s">
         <v>1581</v>
@@ -13909,28 +13915,28 @@
         <v>1588</v>
       </c>
       <c r="B999" t="s">
-        <v>1588</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
       <c r="A1000" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
       <c r="B1000" t="s">
-        <v>1589</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
       <c r="B1001" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="B1002" t="s">
         <v>1592</v>
@@ -13949,36 +13955,36 @@
         <v>1595</v>
       </c>
       <c r="B1004" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
       <c r="B1005" t="s">
-        <v>1596</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="1006" spans="1:2">
       <c r="A1006" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
       <c r="B1006" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="B1007" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="B1008" t="s">
         <v>1600</v>
@@ -13997,36 +14003,36 @@
         <v>1603</v>
       </c>
       <c r="B1010" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
       <c r="B1011" t="s">
-        <v>1604</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="1012" spans="1:2">
       <c r="A1012" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
       <c r="B1012" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B1013" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="B1014" t="s">
         <v>1608</v>
@@ -14045,20 +14051,20 @@
         <v>1611</v>
       </c>
       <c r="B1016" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
       <c r="B1017" t="s">
-        <v>1612</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="1018" spans="1:2">
       <c r="A1018" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="B1018" t="s">
         <v>1614</v>
@@ -14077,12 +14083,12 @@
         <v>1617</v>
       </c>
       <c r="B1020" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
       <c r="A1021" t="s">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="B1021" t="s">
         <v>1619</v>
@@ -14093,20 +14099,20 @@
         <v>1620</v>
       </c>
       <c r="B1022" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
       <c r="B1023" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="B1024" t="s">
         <v>1623</v>
@@ -14117,20 +14123,20 @@
         <v>1624</v>
       </c>
       <c r="B1025" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="B1026" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="B1027" t="s">
         <v>1627</v>
@@ -14141,28 +14147,28 @@
         <v>1628</v>
       </c>
       <c r="B1028" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B1029" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="B1030" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="B1031" t="s">
         <v>1632</v>
@@ -14181,12 +14187,12 @@
         <v>1635</v>
       </c>
       <c r="B1033" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1636</v>
+        <v>1637</v>
       </c>
       <c r="B1034" t="s">
         <v>1637</v>
@@ -14213,12 +14219,12 @@
         <v>1642</v>
       </c>
       <c r="B1037" t="s">
-        <v>1642</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
       <c r="A1038" t="s">
-        <v>1643</v>
+        <v>1644</v>
       </c>
       <c r="B1038" t="s">
         <v>1644</v>
@@ -14237,20 +14243,20 @@
         <v>1647</v>
       </c>
       <c r="B1040" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
       <c r="B1041" t="s">
-        <v>1648</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="1042" spans="1:2">
       <c r="A1042" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
       <c r="B1042" t="s">
         <v>1650</v>
@@ -14261,12 +14267,12 @@
         <v>1651</v>
       </c>
       <c r="B1043" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="B1044" t="s">
         <v>1653</v>
@@ -14277,12 +14283,12 @@
         <v>1654</v>
       </c>
       <c r="B1045" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="B1046" t="s">
         <v>1656</v>
@@ -14349,28 +14355,28 @@
         <v>1671</v>
       </c>
       <c r="B1054" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
       <c r="A1055" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="B1055" t="s">
-        <v>1672</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
       <c r="A1056" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="B1056" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="1057" spans="1:2">
       <c r="A1057" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="B1057" t="s">
         <v>1675</v>
@@ -14381,20 +14387,20 @@
         <v>1676</v>
       </c>
       <c r="B1058" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="B1059" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="B1060" t="s">
         <v>1679</v>
@@ -14437,36 +14443,36 @@
         <v>1688</v>
       </c>
       <c r="B1065" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
       <c r="A1066" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="B1066" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
       <c r="A1067" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="B1067" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="1068" spans="1:2">
       <c r="A1068" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
       <c r="B1068" t="s">
-        <v>1691</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="B1069" t="s">
         <v>1693</v>
@@ -14477,28 +14483,28 @@
         <v>1694</v>
       </c>
       <c r="B1070" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="B1071" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="B1072" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="B1073" t="s">
         <v>1698</v>
@@ -14509,12 +14515,12 @@
         <v>1699</v>
       </c>
       <c r="B1074" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="B1075" t="s">
         <v>1701</v>
@@ -14533,20 +14539,20 @@
         <v>1704</v>
       </c>
       <c r="B1077" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="B1078" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="B1079" t="s">
         <v>1707</v>
@@ -14565,12 +14571,12 @@
         <v>1710</v>
       </c>
       <c r="B1081" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B1082" t="s">
         <v>1712</v>
@@ -14605,20 +14611,20 @@
         <v>1719</v>
       </c>
       <c r="B1086" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
       <c r="A1087" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="B1087" t="s">
-        <v>1720</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" t="s">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="B1088" t="s">
         <v>1722</v>
@@ -14645,12 +14651,12 @@
         <v>1727</v>
       </c>
       <c r="B1091" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="B1092" t="s">
         <v>1729</v>
@@ -14661,12 +14667,12 @@
         <v>1730</v>
       </c>
       <c r="B1093" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
       <c r="A1094" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="B1094" t="s">
         <v>1732</v>
@@ -14677,52 +14683,52 @@
         <v>1733</v>
       </c>
       <c r="B1095" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
       <c r="A1096" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="B1096" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="B1097" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
       <c r="B1098" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B1099" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="B1100" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="B1101" t="s">
         <v>1740</v>
@@ -14765,12 +14771,12 @@
         <v>1749</v>
       </c>
       <c r="B1106" t="s">
-        <v>1749</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="B1107" t="s">
         <v>1751</v>
@@ -14781,20 +14787,20 @@
         <v>1752</v>
       </c>
       <c r="B1108" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="B1109" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="B1110" t="s">
         <v>1755</v>
@@ -14805,28 +14811,28 @@
         <v>1756</v>
       </c>
       <c r="B1111" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="B1112" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="B1113" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
       <c r="A1114" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="B1114" t="s">
         <v>1760</v>
@@ -14925,44 +14931,44 @@
         <v>1783</v>
       </c>
       <c r="B1126" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="B1127" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="B1128" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="B1129" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="B1130" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="B1131" t="s">
         <v>1789</v>
@@ -14981,28 +14987,28 @@
         <v>1792</v>
       </c>
       <c r="B1133" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="B1134" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="B1135" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="B1136" t="s">
         <v>1796</v>
@@ -15013,20 +15019,20 @@
         <v>1797</v>
       </c>
       <c r="B1137" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="B1138" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="B1139" t="s">
         <v>1800</v>
@@ -15125,44 +15131,44 @@
         <v>1823</v>
       </c>
       <c r="B1151" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="B1152" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="B1153" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="B1154" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="B1155" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="B1156" t="s">
         <v>1829</v>
@@ -15181,20 +15187,20 @@
         <v>1832</v>
       </c>
       <c r="B1158" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="B1159" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="B1160" t="s">
         <v>1835</v>
@@ -15213,36 +15219,36 @@
         <v>1838</v>
       </c>
       <c r="B1162" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="B1163" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="B1164" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="B1165" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="B1166" t="s">
         <v>1843</v>
@@ -15253,12 +15259,12 @@
         <v>1844</v>
       </c>
       <c r="B1167" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="B1168" t="s">
         <v>1846</v>
@@ -15269,11 +15275,19 @@
         <v>1847</v>
       </c>
       <c r="B1169" t="s">
-        <v>1847</v>
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:2">
+      <c r="A1170" t="s">
+        <v>1849</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>1849</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1169"/>
+  <autoFilter ref="A1:B1170"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/pl/headTags.xlsx
+++ b/lang/pl/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1171</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1851">
   <si>
     <t>en</t>
   </si>
@@ -4493,6 +4493,9 @@
   </si>
   <si>
     <t>Siedem grzechów głównych</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
   </si>
   <si>
     <t>Shadows of Mordor</t>
@@ -5913,7 +5916,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1170"/>
+  <dimension ref="A1:B1171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -13411,20 +13414,20 @@
         <v>1492</v>
       </c>
       <c r="B936" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="937" spans="1:2">
       <c r="A937" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B937" t="s">
         <v>1494</v>
-      </c>
-      <c r="B937" t="s">
-        <v>1495</v>
       </c>
     </row>
     <row r="938" spans="1:2">
       <c r="A938" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="B938" t="s">
         <v>1496</v>
@@ -13451,20 +13454,20 @@
         <v>1499</v>
       </c>
       <c r="B941" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B942" t="s">
         <v>1501</v>
-      </c>
-      <c r="B942" t="s">
-        <v>1502</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="B943" t="s">
         <v>1503</v>
@@ -13507,44 +13510,44 @@
         <v>1508</v>
       </c>
       <c r="B948" t="s">
-        <v>1509</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B949" t="s">
         <v>1510</v>
-      </c>
-      <c r="B949" t="s">
-        <v>1511</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B950" t="s">
         <v>1512</v>
-      </c>
-      <c r="B950" t="s">
-        <v>1513</v>
       </c>
     </row>
     <row r="951" spans="1:2">
       <c r="A951" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B951" t="s">
         <v>1514</v>
-      </c>
-      <c r="B951" t="s">
-        <v>1515</v>
       </c>
     </row>
     <row r="952" spans="1:2">
       <c r="A952" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B952" t="s">
         <v>1516</v>
-      </c>
-      <c r="B952" t="s">
-        <v>1517</v>
       </c>
     </row>
     <row r="953" spans="1:2">
       <c r="A953" t="s">
-        <v>1518</v>
+        <v>1517</v>
       </c>
       <c r="B953" t="s">
         <v>1518</v>
@@ -13563,52 +13566,52 @@
         <v>1520</v>
       </c>
       <c r="B955" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B956" t="s">
         <v>1522</v>
-      </c>
-      <c r="B956" t="s">
-        <v>1523</v>
       </c>
     </row>
     <row r="957" spans="1:2">
       <c r="A957" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B957" t="s">
         <v>1524</v>
-      </c>
-      <c r="B957" t="s">
-        <v>1525</v>
       </c>
     </row>
     <row r="958" spans="1:2">
       <c r="A958" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B958" t="s">
         <v>1526</v>
-      </c>
-      <c r="B958" t="s">
-        <v>1527</v>
       </c>
     </row>
     <row r="959" spans="1:2">
       <c r="A959" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B959" t="s">
         <v>1528</v>
-      </c>
-      <c r="B959" t="s">
-        <v>1529</v>
       </c>
     </row>
     <row r="960" spans="1:2">
       <c r="A960" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B960" t="s">
         <v>1530</v>
-      </c>
-      <c r="B960" t="s">
-        <v>1531</v>
       </c>
     </row>
     <row r="961" spans="1:2">
       <c r="A961" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="B961" t="s">
         <v>1532</v>
@@ -13643,52 +13646,52 @@
         <v>1536</v>
       </c>
       <c r="B965" t="s">
-        <v>1537</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B966" t="s">
         <v>1538</v>
-      </c>
-      <c r="B966" t="s">
-        <v>1539</v>
       </c>
     </row>
     <row r="967" spans="1:2">
       <c r="A967" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B967" t="s">
         <v>1540</v>
-      </c>
-      <c r="B967" t="s">
-        <v>1541</v>
       </c>
     </row>
     <row r="968" spans="1:2">
       <c r="A968" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B968" t="s">
         <v>1542</v>
-      </c>
-      <c r="B968" t="s">
-        <v>1543</v>
       </c>
     </row>
     <row r="969" spans="1:2">
       <c r="A969" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B969" t="s">
         <v>1544</v>
-      </c>
-      <c r="B969" t="s">
-        <v>1545</v>
       </c>
     </row>
     <row r="970" spans="1:2">
       <c r="A970" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B970" t="s">
         <v>1546</v>
-      </c>
-      <c r="B970" t="s">
-        <v>1547</v>
       </c>
     </row>
     <row r="971" spans="1:2">
       <c r="A971" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="B971" t="s">
         <v>1548</v>
@@ -13715,12 +13718,12 @@
         <v>1551</v>
       </c>
       <c r="B974" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="975" spans="1:2">
       <c r="A975" t="s">
-        <v>1553</v>
+        <v>1552</v>
       </c>
       <c r="B975" t="s">
         <v>1553</v>
@@ -13747,12 +13750,12 @@
         <v>1556</v>
       </c>
       <c r="B978" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1558</v>
+        <v>1557</v>
       </c>
       <c r="B979" t="s">
         <v>1558</v>
@@ -13787,28 +13790,28 @@
         <v>1562</v>
       </c>
       <c r="B983" t="s">
-        <v>1563</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B984" t="s">
         <v>1564</v>
-      </c>
-      <c r="B984" t="s">
-        <v>1565</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B985" t="s">
         <v>1566</v>
-      </c>
-      <c r="B985" t="s">
-        <v>1567</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
-        <v>1568</v>
+        <v>1567</v>
       </c>
       <c r="B986" t="s">
         <v>1568</v>
@@ -13819,28 +13822,28 @@
         <v>1569</v>
       </c>
       <c r="B987" t="s">
-        <v>1570</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B988" t="s">
         <v>1571</v>
-      </c>
-      <c r="B988" t="s">
-        <v>1572</v>
       </c>
     </row>
     <row r="989" spans="1:2">
       <c r="A989" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B989" t="s">
         <v>1573</v>
-      </c>
-      <c r="B989" t="s">
-        <v>1574</v>
       </c>
     </row>
     <row r="990" spans="1:2">
       <c r="A990" t="s">
-        <v>1575</v>
+        <v>1574</v>
       </c>
       <c r="B990" t="s">
         <v>1575</v>
@@ -13859,12 +13862,12 @@
         <v>1577</v>
       </c>
       <c r="B992" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1579</v>
+        <v>1578</v>
       </c>
       <c r="B993" t="s">
         <v>1579</v>
@@ -13891,36 +13894,36 @@
         <v>1582</v>
       </c>
       <c r="B996" t="s">
-        <v>1583</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B997" t="s">
         <v>1584</v>
-      </c>
-      <c r="B997" t="s">
-        <v>1585</v>
       </c>
     </row>
     <row r="998" spans="1:2">
       <c r="A998" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B998" t="s">
         <v>1586</v>
-      </c>
-      <c r="B998" t="s">
-        <v>1587</v>
       </c>
     </row>
     <row r="999" spans="1:2">
       <c r="A999" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B999" t="s">
         <v>1588</v>
-      </c>
-      <c r="B999" t="s">
-        <v>1589</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
       <c r="A1000" t="s">
-        <v>1590</v>
+        <v>1589</v>
       </c>
       <c r="B1000" t="s">
         <v>1590</v>
@@ -13947,20 +13950,20 @@
         <v>1593</v>
       </c>
       <c r="B1003" t="s">
-        <v>1594</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B1004" t="s">
         <v>1595</v>
-      </c>
-      <c r="B1004" t="s">
-        <v>1596</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="B1005" t="s">
         <v>1597</v>
@@ -13995,20 +13998,20 @@
         <v>1601</v>
       </c>
       <c r="B1009" t="s">
-        <v>1602</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B1010" t="s">
         <v>1603</v>
-      </c>
-      <c r="B1010" t="s">
-        <v>1604</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
-        <v>1605</v>
+        <v>1604</v>
       </c>
       <c r="B1011" t="s">
         <v>1605</v>
@@ -14043,20 +14046,20 @@
         <v>1609</v>
       </c>
       <c r="B1015" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B1016" t="s">
         <v>1611</v>
-      </c>
-      <c r="B1016" t="s">
-        <v>1612</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1613</v>
+        <v>1612</v>
       </c>
       <c r="B1017" t="s">
         <v>1613</v>
@@ -14075,20 +14078,20 @@
         <v>1615</v>
       </c>
       <c r="B1019" t="s">
-        <v>1616</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
       <c r="A1020" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B1020" t="s">
         <v>1617</v>
-      </c>
-      <c r="B1020" t="s">
-        <v>1618</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
       <c r="A1021" t="s">
-        <v>1619</v>
+        <v>1618</v>
       </c>
       <c r="B1021" t="s">
         <v>1619</v>
@@ -14099,12 +14102,12 @@
         <v>1620</v>
       </c>
       <c r="B1022" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="B1023" t="s">
         <v>1622</v>
@@ -14123,12 +14126,12 @@
         <v>1624</v>
       </c>
       <c r="B1025" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
       <c r="B1026" t="s">
         <v>1626</v>
@@ -14147,12 +14150,12 @@
         <v>1628</v>
       </c>
       <c r="B1028" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="B1029" t="s">
         <v>1630</v>
@@ -14179,20 +14182,20 @@
         <v>1633</v>
       </c>
       <c r="B1032" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B1033" t="s">
         <v>1635</v>
-      </c>
-      <c r="B1033" t="s">
-        <v>1636</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="B1034" t="s">
         <v>1637</v>
@@ -14203,28 +14206,28 @@
         <v>1638</v>
       </c>
       <c r="B1035" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B1036" t="s">
         <v>1640</v>
-      </c>
-      <c r="B1036" t="s">
-        <v>1641</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B1037" t="s">
         <v>1642</v>
-      </c>
-      <c r="B1037" t="s">
-        <v>1643</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
       <c r="A1038" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="B1038" t="s">
         <v>1644</v>
@@ -14235,20 +14238,20 @@
         <v>1645</v>
       </c>
       <c r="B1039" t="s">
-        <v>1646</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
       <c r="A1040" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B1040" t="s">
         <v>1647</v>
-      </c>
-      <c r="B1040" t="s">
-        <v>1648</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="B1041" t="s">
         <v>1649</v>
@@ -14267,12 +14270,12 @@
         <v>1651</v>
       </c>
       <c r="B1043" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="B1044" t="s">
         <v>1653</v>
@@ -14283,12 +14286,12 @@
         <v>1654</v>
       </c>
       <c r="B1045" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="B1046" t="s">
         <v>1656</v>
@@ -14299,68 +14302,68 @@
         <v>1657</v>
       </c>
       <c r="B1047" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B1048" t="s">
         <v>1659</v>
-      </c>
-      <c r="B1048" t="s">
-        <v>1660</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
       <c r="A1049" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B1049" t="s">
         <v>1661</v>
-      </c>
-      <c r="B1049" t="s">
-        <v>1662</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
       <c r="A1050" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B1050" t="s">
         <v>1663</v>
-      </c>
-      <c r="B1050" t="s">
-        <v>1664</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
       <c r="A1051" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B1051" t="s">
         <v>1665</v>
-      </c>
-      <c r="B1051" t="s">
-        <v>1666</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
       <c r="A1052" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B1052" t="s">
         <v>1667</v>
-      </c>
-      <c r="B1052" t="s">
-        <v>1668</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
       <c r="A1053" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B1053" t="s">
         <v>1669</v>
-      </c>
-      <c r="B1053" t="s">
-        <v>1670</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
       <c r="A1054" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B1054" t="s">
         <v>1671</v>
-      </c>
-      <c r="B1054" t="s">
-        <v>1672</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
       <c r="A1055" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="B1055" t="s">
         <v>1673</v>
@@ -14387,12 +14390,12 @@
         <v>1676</v>
       </c>
       <c r="B1058" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="B1059" t="s">
         <v>1678</v>
@@ -14411,44 +14414,44 @@
         <v>1680</v>
       </c>
       <c r="B1061" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
       <c r="A1062" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B1062" t="s">
         <v>1682</v>
-      </c>
-      <c r="B1062" t="s">
-        <v>1683</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
       <c r="A1063" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B1063" t="s">
         <v>1684</v>
-      </c>
-      <c r="B1063" t="s">
-        <v>1685</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
       <c r="A1064" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B1064" t="s">
         <v>1686</v>
-      </c>
-      <c r="B1064" t="s">
-        <v>1687</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
       <c r="A1065" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B1065" t="s">
         <v>1688</v>
-      </c>
-      <c r="B1065" t="s">
-        <v>1689</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
       <c r="A1066" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="B1066" t="s">
         <v>1690</v>
@@ -14483,12 +14486,12 @@
         <v>1694</v>
       </c>
       <c r="B1070" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="B1071" t="s">
         <v>1696</v>
@@ -14515,12 +14518,12 @@
         <v>1699</v>
       </c>
       <c r="B1074" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="B1075" t="s">
         <v>1701</v>
@@ -14531,20 +14534,20 @@
         <v>1702</v>
       </c>
       <c r="B1076" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B1077" t="s">
         <v>1704</v>
-      </c>
-      <c r="B1077" t="s">
-        <v>1705</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="B1078" t="s">
         <v>1706</v>
@@ -14563,20 +14566,20 @@
         <v>1708</v>
       </c>
       <c r="B1080" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B1081" t="s">
         <v>1710</v>
-      </c>
-      <c r="B1081" t="s">
-        <v>1711</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="B1082" t="s">
         <v>1712</v>
@@ -14587,36 +14590,36 @@
         <v>1713</v>
       </c>
       <c r="B1083" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="1084" spans="1:2">
       <c r="A1084" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B1084" t="s">
         <v>1715</v>
-      </c>
-      <c r="B1084" t="s">
-        <v>1716</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
       <c r="A1085" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B1085" t="s">
         <v>1717</v>
-      </c>
-      <c r="B1085" t="s">
-        <v>1718</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
       <c r="A1086" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B1086" t="s">
         <v>1719</v>
-      </c>
-      <c r="B1086" t="s">
-        <v>1720</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
       <c r="A1087" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="B1087" t="s">
         <v>1721</v>
@@ -14635,28 +14638,28 @@
         <v>1723</v>
       </c>
       <c r="B1089" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
       <c r="A1090" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B1090" t="s">
         <v>1725</v>
-      </c>
-      <c r="B1090" t="s">
-        <v>1726</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B1091" t="s">
         <v>1727</v>
-      </c>
-      <c r="B1091" t="s">
-        <v>1728</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="B1092" t="s">
         <v>1729</v>
@@ -14667,12 +14670,12 @@
         <v>1730</v>
       </c>
       <c r="B1093" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="1094" spans="1:2">
       <c r="A1094" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="B1094" t="s">
         <v>1732</v>
@@ -14683,12 +14686,12 @@
         <v>1733</v>
       </c>
       <c r="B1095" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
       <c r="A1096" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="B1096" t="s">
         <v>1735</v>
@@ -14739,44 +14742,44 @@
         <v>1741</v>
       </c>
       <c r="B1102" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
+        <v>1742</v>
+      </c>
+      <c r="B1103" t="s">
         <v>1743</v>
-      </c>
-      <c r="B1103" t="s">
-        <v>1744</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
+        <v>1744</v>
+      </c>
+      <c r="B1104" t="s">
         <v>1745</v>
-      </c>
-      <c r="B1104" t="s">
-        <v>1746</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B1105" t="s">
         <v>1747</v>
-      </c>
-      <c r="B1105" t="s">
-        <v>1748</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B1106" t="s">
         <v>1749</v>
-      </c>
-      <c r="B1106" t="s">
-        <v>1750</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="B1107" t="s">
         <v>1751</v>
@@ -14787,12 +14790,12 @@
         <v>1752</v>
       </c>
       <c r="B1108" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="B1109" t="s">
         <v>1754</v>
@@ -14811,12 +14814,12 @@
         <v>1756</v>
       </c>
       <c r="B1111" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="B1112" t="s">
         <v>1758</v>
@@ -14843,100 +14846,100 @@
         <v>1761</v>
       </c>
       <c r="B1115" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B1116" t="s">
         <v>1763</v>
-      </c>
-      <c r="B1116" t="s">
-        <v>1764</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
       <c r="A1117" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B1117" t="s">
         <v>1765</v>
-      </c>
-      <c r="B1117" t="s">
-        <v>1766</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
       <c r="A1118" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B1118" t="s">
         <v>1767</v>
-      </c>
-      <c r="B1118" t="s">
-        <v>1768</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
       <c r="A1119" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B1119" t="s">
         <v>1769</v>
-      </c>
-      <c r="B1119" t="s">
-        <v>1770</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
       <c r="A1120" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B1120" t="s">
         <v>1771</v>
-      </c>
-      <c r="B1120" t="s">
-        <v>1772</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
       <c r="A1121" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B1121" t="s">
         <v>1773</v>
-      </c>
-      <c r="B1121" t="s">
-        <v>1774</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
       <c r="A1122" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B1122" t="s">
         <v>1775</v>
-      </c>
-      <c r="B1122" t="s">
-        <v>1776</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
       <c r="A1123" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B1123" t="s">
         <v>1777</v>
-      </c>
-      <c r="B1123" t="s">
-        <v>1778</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
       <c r="A1124" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1124" t="s">
         <v>1779</v>
-      </c>
-      <c r="B1124" t="s">
-        <v>1780</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
       <c r="A1125" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B1125" t="s">
         <v>1781</v>
-      </c>
-      <c r="B1125" t="s">
-        <v>1782</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
       <c r="A1126" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B1126" t="s">
         <v>1783</v>
-      </c>
-      <c r="B1126" t="s">
-        <v>1784</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="B1127" t="s">
         <v>1785</v>
@@ -14979,20 +14982,20 @@
         <v>1790</v>
       </c>
       <c r="B1132" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
+        <v>1791</v>
+      </c>
+      <c r="B1133" t="s">
         <v>1792</v>
-      </c>
-      <c r="B1133" t="s">
-        <v>1793</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="B1134" t="s">
         <v>1794</v>
@@ -15019,12 +15022,12 @@
         <v>1797</v>
       </c>
       <c r="B1137" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="B1138" t="s">
         <v>1799</v>
@@ -15043,100 +15046,100 @@
         <v>1801</v>
       </c>
       <c r="B1140" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B1141" t="s">
         <v>1803</v>
-      </c>
-      <c r="B1141" t="s">
-        <v>1804</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B1142" t="s">
         <v>1805</v>
-      </c>
-      <c r="B1142" t="s">
-        <v>1806</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
       <c r="A1143" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B1143" t="s">
         <v>1807</v>
-      </c>
-      <c r="B1143" t="s">
-        <v>1808</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B1144" t="s">
         <v>1809</v>
-      </c>
-      <c r="B1144" t="s">
-        <v>1810</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B1145" t="s">
         <v>1811</v>
-      </c>
-      <c r="B1145" t="s">
-        <v>1812</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
       <c r="A1146" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B1146" t="s">
         <v>1813</v>
-      </c>
-      <c r="B1146" t="s">
-        <v>1814</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B1147" t="s">
         <v>1815</v>
-      </c>
-      <c r="B1147" t="s">
-        <v>1816</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B1148" t="s">
         <v>1817</v>
-      </c>
-      <c r="B1148" t="s">
-        <v>1818</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B1149" t="s">
         <v>1819</v>
-      </c>
-      <c r="B1149" t="s">
-        <v>1820</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B1150" t="s">
         <v>1821</v>
-      </c>
-      <c r="B1150" t="s">
-        <v>1822</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
       <c r="A1151" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B1151" t="s">
         <v>1823</v>
-      </c>
-      <c r="B1151" t="s">
-        <v>1824</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="B1152" t="s">
         <v>1825</v>
@@ -15179,20 +15182,20 @@
         <v>1830</v>
       </c>
       <c r="B1157" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B1158" t="s">
         <v>1832</v>
-      </c>
-      <c r="B1158" t="s">
-        <v>1833</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="B1159" t="s">
         <v>1834</v>
@@ -15211,20 +15214,20 @@
         <v>1836</v>
       </c>
       <c r="B1161" t="s">
-        <v>1837</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B1162" t="s">
         <v>1838</v>
-      </c>
-      <c r="B1162" t="s">
-        <v>1839</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="B1163" t="s">
         <v>1840</v>
@@ -15259,12 +15262,12 @@
         <v>1844</v>
       </c>
       <c r="B1167" t="s">
-        <v>1845</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
       <c r="B1168" t="s">
         <v>1846</v>
@@ -15275,19 +15278,27 @@
         <v>1847</v>
       </c>
       <c r="B1169" t="s">
-        <v>1848</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
       <c r="B1170" t="s">
         <v>1849</v>
       </c>
     </row>
+    <row r="1171" spans="1:2">
+      <c r="A1171" t="s">
+        <v>1850</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>1850</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1170"/>
+  <autoFilter ref="A1:B1171"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/pl/headTags.xlsx
+++ b/lang/pl/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1172</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1173</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1854">
   <si>
     <t>en</t>
   </si>
@@ -3590,6 +3590,9 @@
   </si>
   <si>
     <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>Mounts of Mayhem</t>
   </si>
   <si>
     <t>Mouthwashing</t>
@@ -5922,7 +5925,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1172"/>
+  <dimension ref="A1:B1173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -11860,12 +11863,12 @@
         <v>1191</v>
       </c>
       <c r="B741" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="B742" t="s">
         <v>1193</v>
@@ -11892,68 +11895,68 @@
         <v>1196</v>
       </c>
       <c r="B745" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B746" t="s">
         <v>1198</v>
-      </c>
-      <c r="B746" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B747" t="s">
         <v>1200</v>
-      </c>
-      <c r="B747" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="748" spans="1:2">
       <c r="A748" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B748" t="s">
         <v>1202</v>
-      </c>
-      <c r="B748" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="749" spans="1:2">
       <c r="A749" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B749" t="s">
         <v>1204</v>
-      </c>
-      <c r="B749" t="s">
-        <v>1205</v>
       </c>
     </row>
     <row r="750" spans="1:2">
       <c r="A750" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B750" t="s">
         <v>1206</v>
-      </c>
-      <c r="B750" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="751" spans="1:2">
       <c r="A751" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B751" t="s">
         <v>1208</v>
-      </c>
-      <c r="B751" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="752" spans="1:2">
       <c r="A752" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B752" t="s">
         <v>1210</v>
-      </c>
-      <c r="B752" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="753" spans="1:2">
       <c r="A753" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="B753" t="s">
         <v>1212</v>
@@ -11972,20 +11975,20 @@
         <v>1214</v>
       </c>
       <c r="B755" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B756" t="s">
         <v>1216</v>
-      </c>
-      <c r="B756" t="s">
-        <v>1217</v>
       </c>
     </row>
     <row r="757" spans="1:2">
       <c r="A757" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="B757" t="s">
         <v>1218</v>
@@ -11996,12 +11999,12 @@
         <v>1219</v>
       </c>
       <c r="B758" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="B759" t="s">
         <v>1221</v>
@@ -12020,44 +12023,44 @@
         <v>1223</v>
       </c>
       <c r="B761" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B762" t="s">
         <v>1225</v>
-      </c>
-      <c r="B762" t="s">
-        <v>1226</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B763" t="s">
         <v>1227</v>
-      </c>
-      <c r="B763" t="s">
-        <v>1228</v>
       </c>
     </row>
     <row r="764" spans="1:2">
       <c r="A764" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B764" t="s">
         <v>1229</v>
-      </c>
-      <c r="B764" t="s">
-        <v>1230</v>
       </c>
     </row>
     <row r="765" spans="1:2">
       <c r="A765" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B765" t="s">
         <v>1231</v>
-      </c>
-      <c r="B765" t="s">
-        <v>1232</v>
       </c>
     </row>
     <row r="766" spans="1:2">
       <c r="A766" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="B766" t="s">
         <v>1233</v>
@@ -12068,36 +12071,36 @@
         <v>1234</v>
       </c>
       <c r="B767" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B768" t="s">
         <v>1236</v>
-      </c>
-      <c r="B768" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B769" t="s">
         <v>1238</v>
-      </c>
-      <c r="B769" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="770" spans="1:2">
       <c r="A770" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B770" t="s">
         <v>1240</v>
-      </c>
-      <c r="B770" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="771" spans="1:2">
       <c r="A771" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="B771" t="s">
         <v>1242</v>
@@ -12116,52 +12119,52 @@
         <v>1244</v>
       </c>
       <c r="B773" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B774" t="s">
         <v>1246</v>
-      </c>
-      <c r="B774" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="775" spans="1:2">
       <c r="A775" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B775" t="s">
         <v>1248</v>
-      </c>
-      <c r="B775" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="776" spans="1:2">
       <c r="A776" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B776" t="s">
         <v>1250</v>
-      </c>
-      <c r="B776" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="777" spans="1:2">
       <c r="A777" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B777" t="s">
         <v>1252</v>
-      </c>
-      <c r="B777" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="778" spans="1:2">
       <c r="A778" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B778" t="s">
         <v>1254</v>
-      </c>
-      <c r="B778" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="779" spans="1:2">
       <c r="A779" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="B779" t="s">
         <v>1256</v>
@@ -12188,28 +12191,28 @@
         <v>1259</v>
       </c>
       <c r="B782" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B783" t="s">
         <v>1261</v>
-      </c>
-      <c r="B783" t="s">
-        <v>1262</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B784" t="s">
         <v>1263</v>
-      </c>
-      <c r="B784" t="s">
-        <v>1264</v>
       </c>
     </row>
     <row r="785" spans="1:2">
       <c r="A785" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="B785" t="s">
         <v>1265</v>
@@ -12220,12 +12223,12 @@
         <v>1266</v>
       </c>
       <c r="B786" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="B787" t="s">
         <v>1268</v>
@@ -12284,12 +12287,12 @@
         <v>1275</v>
       </c>
       <c r="B794" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="B795" t="s">
         <v>1277</v>
@@ -12300,60 +12303,60 @@
         <v>1278</v>
       </c>
       <c r="B796" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B797" t="s">
         <v>1280</v>
-      </c>
-      <c r="B797" t="s">
-        <v>1281</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B798" t="s">
         <v>1282</v>
-      </c>
-      <c r="B798" t="s">
-        <v>1283</v>
       </c>
     </row>
     <row r="799" spans="1:2">
       <c r="A799" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B799" t="s">
         <v>1284</v>
-      </c>
-      <c r="B799" t="s">
-        <v>1285</v>
       </c>
     </row>
     <row r="800" spans="1:2">
       <c r="A800" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B800" t="s">
         <v>1286</v>
-      </c>
-      <c r="B800" t="s">
-        <v>1287</v>
       </c>
     </row>
     <row r="801" spans="1:2">
       <c r="A801" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B801" t="s">
         <v>1288</v>
-      </c>
-      <c r="B801" t="s">
-        <v>1289</v>
       </c>
     </row>
     <row r="802" spans="1:2">
       <c r="A802" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B802" t="s">
         <v>1290</v>
-      </c>
-      <c r="B802" t="s">
-        <v>1291</v>
       </c>
     </row>
     <row r="803" spans="1:2">
       <c r="A803" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="B803" t="s">
         <v>1292</v>
@@ -12388,44 +12391,44 @@
         <v>1296</v>
       </c>
       <c r="B807" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B808" t="s">
         <v>1298</v>
-      </c>
-      <c r="B808" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="809" spans="1:2">
       <c r="A809" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B809" t="s">
         <v>1300</v>
-      </c>
-      <c r="B809" t="s">
-        <v>1301</v>
       </c>
     </row>
     <row r="810" spans="1:2">
       <c r="A810" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B810" t="s">
         <v>1302</v>
-      </c>
-      <c r="B810" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="811" spans="1:2">
       <c r="A811" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B811" t="s">
         <v>1304</v>
-      </c>
-      <c r="B811" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="812" spans="1:2">
       <c r="A812" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B812" t="s">
         <v>1306</v>
@@ -12444,20 +12447,20 @@
         <v>1308</v>
       </c>
       <c r="B814" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="815" spans="1:2">
       <c r="A815" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B815" t="s">
         <v>1310</v>
-      </c>
-      <c r="B815" t="s">
-        <v>1311</v>
       </c>
     </row>
     <row r="816" spans="1:2">
       <c r="A816" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="B816" t="s">
         <v>1312</v>
@@ -12484,28 +12487,28 @@
         <v>1315</v>
       </c>
       <c r="B819" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="820" spans="1:2">
       <c r="A820" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B820" t="s">
         <v>1317</v>
-      </c>
-      <c r="B820" t="s">
-        <v>1318</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B821" t="s">
         <v>1319</v>
-      </c>
-      <c r="B821" t="s">
-        <v>1320</v>
       </c>
     </row>
     <row r="822" spans="1:2">
       <c r="A822" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="B822" t="s">
         <v>1321</v>
@@ -12516,44 +12519,44 @@
         <v>1322</v>
       </c>
       <c r="B823" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="824" spans="1:2">
       <c r="A824" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B824" t="s">
         <v>1324</v>
-      </c>
-      <c r="B824" t="s">
-        <v>1325</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B825" t="s">
         <v>1326</v>
-      </c>
-      <c r="B825" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="826" spans="1:2">
       <c r="A826" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B826" t="s">
         <v>1328</v>
-      </c>
-      <c r="B826" t="s">
-        <v>1329</v>
       </c>
     </row>
     <row r="827" spans="1:2">
       <c r="A827" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B827" t="s">
         <v>1330</v>
-      </c>
-      <c r="B827" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="828" spans="1:2">
       <c r="A828" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B828" t="s">
         <v>1332</v>
@@ -12588,36 +12591,36 @@
         <v>1336</v>
       </c>
       <c r="B832" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B833" t="s">
         <v>1338</v>
-      </c>
-      <c r="B833" t="s">
-        <v>1339</v>
       </c>
     </row>
     <row r="834" spans="1:2">
       <c r="A834" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B834" t="s">
         <v>1340</v>
-      </c>
-      <c r="B834" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="835" spans="1:2">
       <c r="A835" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B835" t="s">
         <v>1342</v>
-      </c>
-      <c r="B835" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="836" spans="1:2">
       <c r="A836" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="B836" t="s">
         <v>1344</v>
@@ -12628,12 +12631,12 @@
         <v>1345</v>
       </c>
       <c r="B837" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="838" spans="1:2">
       <c r="A838" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="B838" t="s">
         <v>1347</v>
@@ -12748,36 +12751,36 @@
         <v>1361</v>
       </c>
       <c r="B852" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="853" spans="1:2">
       <c r="A853" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B853" t="s">
         <v>1363</v>
-      </c>
-      <c r="B853" t="s">
-        <v>1364</v>
       </c>
     </row>
     <row r="854" spans="1:2">
       <c r="A854" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B854" t="s">
         <v>1365</v>
-      </c>
-      <c r="B854" t="s">
-        <v>1366</v>
       </c>
     </row>
     <row r="855" spans="1:2">
       <c r="A855" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B855" t="s">
         <v>1367</v>
-      </c>
-      <c r="B855" t="s">
-        <v>1368</v>
       </c>
     </row>
     <row r="856" spans="1:2">
       <c r="A856" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="B856" t="s">
         <v>1369</v>
@@ -12836,12 +12839,12 @@
         <v>1376</v>
       </c>
       <c r="B863" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="B864" t="s">
         <v>1378</v>
@@ -12852,12 +12855,12 @@
         <v>1379</v>
       </c>
       <c r="B865" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="B866" t="s">
         <v>1381</v>
@@ -12868,68 +12871,68 @@
         <v>1382</v>
       </c>
       <c r="B867" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="868" spans="1:2">
       <c r="A868" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B868" t="s">
         <v>1384</v>
-      </c>
-      <c r="B868" t="s">
-        <v>1385</v>
       </c>
     </row>
     <row r="869" spans="1:2">
       <c r="A869" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B869" t="s">
         <v>1386</v>
-      </c>
-      <c r="B869" t="s">
-        <v>1387</v>
       </c>
     </row>
     <row r="870" spans="1:2">
       <c r="A870" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B870" t="s">
         <v>1388</v>
-      </c>
-      <c r="B870" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="871" spans="1:2">
       <c r="A871" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B871" t="s">
         <v>1390</v>
-      </c>
-      <c r="B871" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="872" spans="1:2">
       <c r="A872" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B872" t="s">
         <v>1392</v>
-      </c>
-      <c r="B872" t="s">
-        <v>1393</v>
       </c>
     </row>
     <row r="873" spans="1:2">
       <c r="A873" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B873" t="s">
         <v>1394</v>
-      </c>
-      <c r="B873" t="s">
-        <v>1395</v>
       </c>
     </row>
     <row r="874" spans="1:2">
       <c r="A874" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B874" t="s">
         <v>1396</v>
-      </c>
-      <c r="B874" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="875" spans="1:2">
       <c r="A875" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="B875" t="s">
         <v>1398</v>
@@ -12948,20 +12951,20 @@
         <v>1400</v>
       </c>
       <c r="B877" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B878" t="s">
         <v>1402</v>
-      </c>
-      <c r="B878" t="s">
-        <v>1403</v>
       </c>
     </row>
     <row r="879" spans="1:2">
       <c r="A879" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="B879" t="s">
         <v>1404</v>
@@ -12972,12 +12975,12 @@
         <v>1405</v>
       </c>
       <c r="B880" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="881" spans="1:2">
       <c r="A881" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="B881" t="s">
         <v>1407</v>
@@ -12988,12 +12991,12 @@
         <v>1408</v>
       </c>
       <c r="B882" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="B883" t="s">
         <v>1410</v>
@@ -13004,12 +13007,12 @@
         <v>1411</v>
       </c>
       <c r="B884" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="885" spans="1:2">
       <c r="A885" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="B885" t="s">
         <v>1413</v>
@@ -13020,12 +13023,12 @@
         <v>1414</v>
       </c>
       <c r="B886" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="887" spans="1:2">
       <c r="A887" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="B887" t="s">
         <v>1416</v>
@@ -13036,12 +13039,12 @@
         <v>1417</v>
       </c>
       <c r="B888" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="889" spans="1:2">
       <c r="A889" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="B889" t="s">
         <v>1419</v>
@@ -13060,20 +13063,20 @@
         <v>1421</v>
       </c>
       <c r="B891" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="892" spans="1:2">
       <c r="A892" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B892" t="s">
         <v>1423</v>
-      </c>
-      <c r="B892" t="s">
-        <v>1424</v>
       </c>
     </row>
     <row r="893" spans="1:2">
       <c r="A893" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="B893" t="s">
         <v>1425</v>
@@ -13100,44 +13103,44 @@
         <v>1428</v>
       </c>
       <c r="B896" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="897" spans="1:2">
       <c r="A897" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B897" t="s">
         <v>1430</v>
-      </c>
-      <c r="B897" t="s">
-        <v>1431</v>
       </c>
     </row>
     <row r="898" spans="1:2">
       <c r="A898" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B898" t="s">
         <v>1432</v>
-      </c>
-      <c r="B898" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="899" spans="1:2">
       <c r="A899" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B899" t="s">
         <v>1434</v>
-      </c>
-      <c r="B899" t="s">
-        <v>1435</v>
       </c>
     </row>
     <row r="900" spans="1:2">
       <c r="A900" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B900" t="s">
         <v>1436</v>
-      </c>
-      <c r="B900" t="s">
-        <v>1437</v>
       </c>
     </row>
     <row r="901" spans="1:2">
       <c r="A901" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="B901" t="s">
         <v>1438</v>
@@ -13196,36 +13199,36 @@
         <v>1445</v>
       </c>
       <c r="B908" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B909" t="s">
         <v>1447</v>
-      </c>
-      <c r="B909" t="s">
-        <v>1448</v>
       </c>
     </row>
     <row r="910" spans="1:2">
       <c r="A910" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B910" t="s">
         <v>1449</v>
-      </c>
-      <c r="B910" t="s">
-        <v>1450</v>
       </c>
     </row>
     <row r="911" spans="1:2">
       <c r="A911" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B911" t="s">
         <v>1451</v>
-      </c>
-      <c r="B911" t="s">
-        <v>1452</v>
       </c>
     </row>
     <row r="912" spans="1:2">
       <c r="A912" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="B912" t="s">
         <v>1453</v>
@@ -13244,44 +13247,44 @@
         <v>1455</v>
       </c>
       <c r="B914" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B915" t="s">
         <v>1457</v>
-      </c>
-      <c r="B915" t="s">
-        <v>1458</v>
       </c>
     </row>
     <row r="916" spans="1:2">
       <c r="A916" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B916" t="s">
         <v>1459</v>
-      </c>
-      <c r="B916" t="s">
-        <v>1460</v>
       </c>
     </row>
     <row r="917" spans="1:2">
       <c r="A917" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B917" t="s">
         <v>1461</v>
-      </c>
-      <c r="B917" t="s">
-        <v>1462</v>
       </c>
     </row>
     <row r="918" spans="1:2">
       <c r="A918" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B918" t="s">
         <v>1463</v>
-      </c>
-      <c r="B918" t="s">
-        <v>1464</v>
       </c>
     </row>
     <row r="919" spans="1:2">
       <c r="A919" t="s">
-        <v>1465</v>
+        <v>1464</v>
       </c>
       <c r="B919" t="s">
         <v>1465</v>
@@ -13300,36 +13303,36 @@
         <v>1467</v>
       </c>
       <c r="B921" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B922" t="s">
         <v>1469</v>
-      </c>
-      <c r="B922" t="s">
-        <v>1470</v>
       </c>
     </row>
     <row r="923" spans="1:2">
       <c r="A923" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B923" t="s">
         <v>1471</v>
-      </c>
-      <c r="B923" t="s">
-        <v>1472</v>
       </c>
     </row>
     <row r="924" spans="1:2">
       <c r="A924" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B924" t="s">
         <v>1473</v>
-      </c>
-      <c r="B924" t="s">
-        <v>1474</v>
       </c>
     </row>
     <row r="925" spans="1:2">
       <c r="A925" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="B925" t="s">
         <v>1475</v>
@@ -13340,20 +13343,20 @@
         <v>1476</v>
       </c>
       <c r="B926" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="927" spans="1:2">
       <c r="A927" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B927" t="s">
         <v>1478</v>
-      </c>
-      <c r="B927" t="s">
-        <v>1479</v>
       </c>
     </row>
     <row r="928" spans="1:2">
       <c r="A928" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="B928" t="s">
         <v>1480</v>
@@ -13372,12 +13375,12 @@
         <v>1482</v>
       </c>
       <c r="B930" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="931" spans="1:2">
       <c r="A931" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="B931" t="s">
         <v>1484</v>
@@ -13396,20 +13399,20 @@
         <v>1486</v>
       </c>
       <c r="B933" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="934" spans="1:2">
       <c r="A934" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B934" t="s">
         <v>1488</v>
-      </c>
-      <c r="B934" t="s">
-        <v>1489</v>
       </c>
     </row>
     <row r="935" spans="1:2">
       <c r="A935" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="B935" t="s">
         <v>1490</v>
@@ -13420,20 +13423,20 @@
         <v>1491</v>
       </c>
       <c r="B936" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="937" spans="1:2">
       <c r="A937" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B937" t="s">
         <v>1493</v>
-      </c>
-      <c r="B937" t="s">
-        <v>1494</v>
       </c>
     </row>
     <row r="938" spans="1:2">
       <c r="A938" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="B938" t="s">
         <v>1495</v>
@@ -13460,20 +13463,20 @@
         <v>1498</v>
       </c>
       <c r="B941" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B942" t="s">
         <v>1500</v>
-      </c>
-      <c r="B942" t="s">
-        <v>1501</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="B943" t="s">
         <v>1502</v>
@@ -13516,44 +13519,44 @@
         <v>1507</v>
       </c>
       <c r="B948" t="s">
-        <v>1508</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B949" t="s">
         <v>1509</v>
-      </c>
-      <c r="B949" t="s">
-        <v>1510</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B950" t="s">
         <v>1511</v>
-      </c>
-      <c r="B950" t="s">
-        <v>1512</v>
       </c>
     </row>
     <row r="951" spans="1:2">
       <c r="A951" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B951" t="s">
         <v>1513</v>
-      </c>
-      <c r="B951" t="s">
-        <v>1514</v>
       </c>
     </row>
     <row r="952" spans="1:2">
       <c r="A952" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B952" t="s">
         <v>1515</v>
-      </c>
-      <c r="B952" t="s">
-        <v>1516</v>
       </c>
     </row>
     <row r="953" spans="1:2">
       <c r="A953" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="B953" t="s">
         <v>1517</v>
@@ -13572,52 +13575,52 @@
         <v>1519</v>
       </c>
       <c r="B955" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B956" t="s">
         <v>1521</v>
-      </c>
-      <c r="B956" t="s">
-        <v>1522</v>
       </c>
     </row>
     <row r="957" spans="1:2">
       <c r="A957" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B957" t="s">
         <v>1523</v>
-      </c>
-      <c r="B957" t="s">
-        <v>1524</v>
       </c>
     </row>
     <row r="958" spans="1:2">
       <c r="A958" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B958" t="s">
         <v>1525</v>
-      </c>
-      <c r="B958" t="s">
-        <v>1526</v>
       </c>
     </row>
     <row r="959" spans="1:2">
       <c r="A959" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B959" t="s">
         <v>1527</v>
-      </c>
-      <c r="B959" t="s">
-        <v>1528</v>
       </c>
     </row>
     <row r="960" spans="1:2">
       <c r="A960" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B960" t="s">
         <v>1529</v>
-      </c>
-      <c r="B960" t="s">
-        <v>1530</v>
       </c>
     </row>
     <row r="961" spans="1:2">
       <c r="A961" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="B961" t="s">
         <v>1531</v>
@@ -13652,52 +13655,52 @@
         <v>1535</v>
       </c>
       <c r="B965" t="s">
-        <v>1536</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B966" t="s">
         <v>1537</v>
-      </c>
-      <c r="B966" t="s">
-        <v>1538</v>
       </c>
     </row>
     <row r="967" spans="1:2">
       <c r="A967" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B967" t="s">
         <v>1539</v>
-      </c>
-      <c r="B967" t="s">
-        <v>1540</v>
       </c>
     </row>
     <row r="968" spans="1:2">
       <c r="A968" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B968" t="s">
         <v>1541</v>
-      </c>
-      <c r="B968" t="s">
-        <v>1542</v>
       </c>
     </row>
     <row r="969" spans="1:2">
       <c r="A969" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B969" t="s">
         <v>1543</v>
-      </c>
-      <c r="B969" t="s">
-        <v>1544</v>
       </c>
     </row>
     <row r="970" spans="1:2">
       <c r="A970" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B970" t="s">
         <v>1545</v>
-      </c>
-      <c r="B970" t="s">
-        <v>1546</v>
       </c>
     </row>
     <row r="971" spans="1:2">
       <c r="A971" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="B971" t="s">
         <v>1547</v>
@@ -13724,12 +13727,12 @@
         <v>1550</v>
       </c>
       <c r="B974" t="s">
-        <v>1551</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="975" spans="1:2">
       <c r="A975" t="s">
-        <v>1552</v>
+        <v>1551</v>
       </c>
       <c r="B975" t="s">
         <v>1552</v>
@@ -13756,12 +13759,12 @@
         <v>1555</v>
       </c>
       <c r="B978" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1557</v>
+        <v>1556</v>
       </c>
       <c r="B979" t="s">
         <v>1557</v>
@@ -13796,28 +13799,28 @@
         <v>1561</v>
       </c>
       <c r="B983" t="s">
-        <v>1562</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B984" t="s">
         <v>1563</v>
-      </c>
-      <c r="B984" t="s">
-        <v>1564</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B985" t="s">
         <v>1565</v>
-      </c>
-      <c r="B985" t="s">
-        <v>1566</v>
       </c>
     </row>
     <row r="986" spans="1:2">
       <c r="A986" t="s">
-        <v>1567</v>
+        <v>1566</v>
       </c>
       <c r="B986" t="s">
         <v>1567</v>
@@ -13828,28 +13831,28 @@
         <v>1568</v>
       </c>
       <c r="B987" t="s">
-        <v>1569</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B988" t="s">
         <v>1570</v>
-      </c>
-      <c r="B988" t="s">
-        <v>1571</v>
       </c>
     </row>
     <row r="989" spans="1:2">
       <c r="A989" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B989" t="s">
         <v>1572</v>
-      </c>
-      <c r="B989" t="s">
-        <v>1573</v>
       </c>
     </row>
     <row r="990" spans="1:2">
       <c r="A990" t="s">
-        <v>1574</v>
+        <v>1573</v>
       </c>
       <c r="B990" t="s">
         <v>1574</v>
@@ -13868,12 +13871,12 @@
         <v>1576</v>
       </c>
       <c r="B992" t="s">
-        <v>1577</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1578</v>
+        <v>1577</v>
       </c>
       <c r="B993" t="s">
         <v>1578</v>
@@ -13900,36 +13903,36 @@
         <v>1581</v>
       </c>
       <c r="B996" t="s">
-        <v>1582</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B997" t="s">
         <v>1583</v>
-      </c>
-      <c r="B997" t="s">
-        <v>1584</v>
       </c>
     </row>
     <row r="998" spans="1:2">
       <c r="A998" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B998" t="s">
         <v>1585</v>
-      </c>
-      <c r="B998" t="s">
-        <v>1586</v>
       </c>
     </row>
     <row r="999" spans="1:2">
       <c r="A999" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B999" t="s">
         <v>1587</v>
-      </c>
-      <c r="B999" t="s">
-        <v>1588</v>
       </c>
     </row>
     <row r="1000" spans="1:2">
       <c r="A1000" t="s">
-        <v>1589</v>
+        <v>1588</v>
       </c>
       <c r="B1000" t="s">
         <v>1589</v>
@@ -13956,20 +13959,20 @@
         <v>1592</v>
       </c>
       <c r="B1003" t="s">
-        <v>1593</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B1004" t="s">
         <v>1594</v>
-      </c>
-      <c r="B1004" t="s">
-        <v>1595</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1596</v>
+        <v>1595</v>
       </c>
       <c r="B1005" t="s">
         <v>1596</v>
@@ -14004,20 +14007,20 @@
         <v>1600</v>
       </c>
       <c r="B1009" t="s">
-        <v>1601</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B1010" t="s">
         <v>1602</v>
-      </c>
-      <c r="B1010" t="s">
-        <v>1603</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
-        <v>1604</v>
+        <v>1603</v>
       </c>
       <c r="B1011" t="s">
         <v>1604</v>
@@ -14052,20 +14055,20 @@
         <v>1608</v>
       </c>
       <c r="B1015" t="s">
-        <v>1609</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B1016" t="s">
         <v>1610</v>
-      </c>
-      <c r="B1016" t="s">
-        <v>1611</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1612</v>
+        <v>1611</v>
       </c>
       <c r="B1017" t="s">
         <v>1612</v>
@@ -14084,20 +14087,20 @@
         <v>1614</v>
       </c>
       <c r="B1019" t="s">
-        <v>1615</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
       <c r="A1020" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B1020" t="s">
         <v>1616</v>
-      </c>
-      <c r="B1020" t="s">
-        <v>1617</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
       <c r="A1021" t="s">
-        <v>1618</v>
+        <v>1617</v>
       </c>
       <c r="B1021" t="s">
         <v>1618</v>
@@ -14108,12 +14111,12 @@
         <v>1619</v>
       </c>
       <c r="B1022" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
       <c r="B1023" t="s">
         <v>1621</v>
@@ -14132,12 +14135,12 @@
         <v>1623</v>
       </c>
       <c r="B1025" t="s">
-        <v>1624</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
       <c r="B1026" t="s">
         <v>1625</v>
@@ -14156,12 +14159,12 @@
         <v>1627</v>
       </c>
       <c r="B1028" t="s">
-        <v>1628</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
       <c r="B1029" t="s">
         <v>1629</v>
@@ -14188,20 +14191,20 @@
         <v>1632</v>
       </c>
       <c r="B1032" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B1033" t="s">
         <v>1634</v>
-      </c>
-      <c r="B1033" t="s">
-        <v>1635</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="B1034" t="s">
         <v>1636</v>
@@ -14212,28 +14215,28 @@
         <v>1637</v>
       </c>
       <c r="B1035" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B1036" t="s">
         <v>1639</v>
-      </c>
-      <c r="B1036" t="s">
-        <v>1640</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B1037" t="s">
         <v>1641</v>
-      </c>
-      <c r="B1037" t="s">
-        <v>1642</v>
       </c>
     </row>
     <row r="1038" spans="1:2">
       <c r="A1038" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="B1038" t="s">
         <v>1643</v>
@@ -14244,20 +14247,20 @@
         <v>1644</v>
       </c>
       <c r="B1039" t="s">
-        <v>1645</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
       <c r="A1040" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B1040" t="s">
         <v>1646</v>
-      </c>
-      <c r="B1040" t="s">
-        <v>1647</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="B1041" t="s">
         <v>1648</v>
@@ -14268,12 +14271,12 @@
         <v>1649</v>
       </c>
       <c r="B1042" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
       <c r="A1043" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="B1043" t="s">
         <v>1651</v>
@@ -14284,12 +14287,12 @@
         <v>1652</v>
       </c>
       <c r="B1044" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
       <c r="A1045" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="B1045" t="s">
         <v>1654</v>
@@ -14300,12 +14303,12 @@
         <v>1655</v>
       </c>
       <c r="B1046" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
       <c r="A1047" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="B1047" t="s">
         <v>1657</v>
@@ -14316,68 +14319,68 @@
         <v>1658</v>
       </c>
       <c r="B1048" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
       <c r="A1049" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B1049" t="s">
         <v>1660</v>
-      </c>
-      <c r="B1049" t="s">
-        <v>1661</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
       <c r="A1050" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B1050" t="s">
         <v>1662</v>
-      </c>
-      <c r="B1050" t="s">
-        <v>1663</v>
       </c>
     </row>
     <row r="1051" spans="1:2">
       <c r="A1051" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B1051" t="s">
         <v>1664</v>
-      </c>
-      <c r="B1051" t="s">
-        <v>1665</v>
       </c>
     </row>
     <row r="1052" spans="1:2">
       <c r="A1052" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B1052" t="s">
         <v>1666</v>
-      </c>
-      <c r="B1052" t="s">
-        <v>1667</v>
       </c>
     </row>
     <row r="1053" spans="1:2">
       <c r="A1053" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B1053" t="s">
         <v>1668</v>
-      </c>
-      <c r="B1053" t="s">
-        <v>1669</v>
       </c>
     </row>
     <row r="1054" spans="1:2">
       <c r="A1054" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B1054" t="s">
         <v>1670</v>
-      </c>
-      <c r="B1054" t="s">
-        <v>1671</v>
       </c>
     </row>
     <row r="1055" spans="1:2">
       <c r="A1055" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B1055" t="s">
         <v>1672</v>
-      </c>
-      <c r="B1055" t="s">
-        <v>1673</v>
       </c>
     </row>
     <row r="1056" spans="1:2">
       <c r="A1056" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="B1056" t="s">
         <v>1674</v>
@@ -14404,12 +14407,12 @@
         <v>1677</v>
       </c>
       <c r="B1059" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="B1060" t="s">
         <v>1679</v>
@@ -14428,44 +14431,44 @@
         <v>1681</v>
       </c>
       <c r="B1062" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
       <c r="A1063" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B1063" t="s">
         <v>1683</v>
-      </c>
-      <c r="B1063" t="s">
-        <v>1684</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
       <c r="A1064" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B1064" t="s">
         <v>1685</v>
-      </c>
-      <c r="B1064" t="s">
-        <v>1686</v>
       </c>
     </row>
     <row r="1065" spans="1:2">
       <c r="A1065" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B1065" t="s">
         <v>1687</v>
-      </c>
-      <c r="B1065" t="s">
-        <v>1688</v>
       </c>
     </row>
     <row r="1066" spans="1:2">
       <c r="A1066" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B1066" t="s">
         <v>1689</v>
-      </c>
-      <c r="B1066" t="s">
-        <v>1690</v>
       </c>
     </row>
     <row r="1067" spans="1:2">
       <c r="A1067" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="B1067" t="s">
         <v>1691</v>
@@ -14500,12 +14503,12 @@
         <v>1695</v>
       </c>
       <c r="B1071" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="B1072" t="s">
         <v>1697</v>
@@ -14532,12 +14535,12 @@
         <v>1700</v>
       </c>
       <c r="B1075" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="B1076" t="s">
         <v>1702</v>
@@ -14548,20 +14551,20 @@
         <v>1703</v>
       </c>
       <c r="B1077" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B1078" t="s">
         <v>1705</v>
-      </c>
-      <c r="B1078" t="s">
-        <v>1706</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="B1079" t="s">
         <v>1707</v>
@@ -14580,20 +14583,20 @@
         <v>1709</v>
       </c>
       <c r="B1081" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B1082" t="s">
         <v>1711</v>
-      </c>
-      <c r="B1082" t="s">
-        <v>1712</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
       <c r="A1083" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B1083" t="s">
         <v>1713</v>
@@ -14604,36 +14607,36 @@
         <v>1714</v>
       </c>
       <c r="B1084" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
       <c r="A1085" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B1085" t="s">
         <v>1716</v>
-      </c>
-      <c r="B1085" t="s">
-        <v>1717</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
       <c r="A1086" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B1086" t="s">
         <v>1718</v>
-      </c>
-      <c r="B1086" t="s">
-        <v>1719</v>
       </c>
     </row>
     <row r="1087" spans="1:2">
       <c r="A1087" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B1087" t="s">
         <v>1720</v>
-      </c>
-      <c r="B1087" t="s">
-        <v>1721</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="B1088" t="s">
         <v>1722</v>
@@ -14652,28 +14655,28 @@
         <v>1724</v>
       </c>
       <c r="B1090" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B1091" t="s">
         <v>1726</v>
-      </c>
-      <c r="B1091" t="s">
-        <v>1727</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B1092" t="s">
         <v>1728</v>
-      </c>
-      <c r="B1092" t="s">
-        <v>1729</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
       <c r="A1093" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="B1093" t="s">
         <v>1730</v>
@@ -14684,12 +14687,12 @@
         <v>1731</v>
       </c>
       <c r="B1094" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
       <c r="A1095" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="B1095" t="s">
         <v>1733</v>
@@ -14700,12 +14703,12 @@
         <v>1734</v>
       </c>
       <c r="B1096" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="B1097" t="s">
         <v>1736</v>
@@ -14756,44 +14759,44 @@
         <v>1742</v>
       </c>
       <c r="B1103" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B1104" t="s">
         <v>1744</v>
-      </c>
-      <c r="B1104" t="s">
-        <v>1745</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B1105" t="s">
         <v>1746</v>
-      </c>
-      <c r="B1105" t="s">
-        <v>1747</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B1106" t="s">
         <v>1748</v>
-      </c>
-      <c r="B1106" t="s">
-        <v>1749</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B1107" t="s">
         <v>1750</v>
-      </c>
-      <c r="B1107" t="s">
-        <v>1751</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="B1108" t="s">
         <v>1752</v>
@@ -14804,12 +14807,12 @@
         <v>1753</v>
       </c>
       <c r="B1109" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B1110" t="s">
         <v>1755</v>
@@ -14828,12 +14831,12 @@
         <v>1757</v>
       </c>
       <c r="B1112" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113" t="s">
-        <v>1759</v>
+        <v>1758</v>
       </c>
       <c r="B1113" t="s">
         <v>1759</v>
@@ -14860,100 +14863,100 @@
         <v>1762</v>
       </c>
       <c r="B1116" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
       <c r="A1117" t="s">
+        <v>1763</v>
+      </c>
+      <c r="B1117" t="s">
         <v>1764</v>
-      </c>
-      <c r="B1117" t="s">
-        <v>1765</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
       <c r="A1118" t="s">
+        <v>1765</v>
+      </c>
+      <c r="B1118" t="s">
         <v>1766</v>
-      </c>
-      <c r="B1118" t="s">
-        <v>1767</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
       <c r="A1119" t="s">
+        <v>1767</v>
+      </c>
+      <c r="B1119" t="s">
         <v>1768</v>
-      </c>
-      <c r="B1119" t="s">
-        <v>1769</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
       <c r="A1120" t="s">
+        <v>1769</v>
+      </c>
+      <c r="B1120" t="s">
         <v>1770</v>
-      </c>
-      <c r="B1120" t="s">
-        <v>1771</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
       <c r="A1121" t="s">
+        <v>1771</v>
+      </c>
+      <c r="B1121" t="s">
         <v>1772</v>
-      </c>
-      <c r="B1121" t="s">
-        <v>1773</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
       <c r="A1122" t="s">
+        <v>1773</v>
+      </c>
+      <c r="B1122" t="s">
         <v>1774</v>
-      </c>
-      <c r="B1122" t="s">
-        <v>1775</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
       <c r="A1123" t="s">
+        <v>1775</v>
+      </c>
+      <c r="B1123" t="s">
         <v>1776</v>
-      </c>
-      <c r="B1123" t="s">
-        <v>1777</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
       <c r="A1124" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B1124" t="s">
         <v>1778</v>
-      </c>
-      <c r="B1124" t="s">
-        <v>1779</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
       <c r="A1125" t="s">
+        <v>1779</v>
+      </c>
+      <c r="B1125" t="s">
         <v>1780</v>
-      </c>
-      <c r="B1125" t="s">
-        <v>1781</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
       <c r="A1126" t="s">
+        <v>1781</v>
+      </c>
+      <c r="B1126" t="s">
         <v>1782</v>
-      </c>
-      <c r="B1126" t="s">
-        <v>1783</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" t="s">
+        <v>1783</v>
+      </c>
+      <c r="B1127" t="s">
         <v>1784</v>
-      </c>
-      <c r="B1127" t="s">
-        <v>1785</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="B1128" t="s">
         <v>1786</v>
@@ -14996,20 +14999,20 @@
         <v>1791</v>
       </c>
       <c r="B1133" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B1134" t="s">
         <v>1793</v>
-      </c>
-      <c r="B1134" t="s">
-        <v>1794</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="B1135" t="s">
         <v>1795</v>
@@ -15036,12 +15039,12 @@
         <v>1798</v>
       </c>
       <c r="B1138" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1800</v>
+        <v>1799</v>
       </c>
       <c r="B1139" t="s">
         <v>1800</v>
@@ -15060,100 +15063,100 @@
         <v>1802</v>
       </c>
       <c r="B1141" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B1142" t="s">
         <v>1804</v>
-      </c>
-      <c r="B1142" t="s">
-        <v>1805</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
       <c r="A1143" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B1143" t="s">
         <v>1806</v>
-      </c>
-      <c r="B1143" t="s">
-        <v>1807</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" t="s">
+        <v>1807</v>
+      </c>
+      <c r="B1144" t="s">
         <v>1808</v>
-      </c>
-      <c r="B1144" t="s">
-        <v>1809</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" t="s">
+        <v>1809</v>
+      </c>
+      <c r="B1145" t="s">
         <v>1810</v>
-      </c>
-      <c r="B1145" t="s">
-        <v>1811</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
       <c r="A1146" t="s">
+        <v>1811</v>
+      </c>
+      <c r="B1146" t="s">
         <v>1812</v>
-      </c>
-      <c r="B1146" t="s">
-        <v>1813</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
+        <v>1813</v>
+      </c>
+      <c r="B1147" t="s">
         <v>1814</v>
-      </c>
-      <c r="B1147" t="s">
-        <v>1815</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" t="s">
+        <v>1815</v>
+      </c>
+      <c r="B1148" t="s">
         <v>1816</v>
-      </c>
-      <c r="B1148" t="s">
-        <v>1817</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B1149" t="s">
         <v>1818</v>
-      </c>
-      <c r="B1149" t="s">
-        <v>1819</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
+        <v>1819</v>
+      </c>
+      <c r="B1150" t="s">
         <v>1820</v>
-      </c>
-      <c r="B1150" t="s">
-        <v>1821</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
       <c r="A1151" t="s">
+        <v>1821</v>
+      </c>
+      <c r="B1151" t="s">
         <v>1822</v>
-      </c>
-      <c r="B1151" t="s">
-        <v>1823</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
+        <v>1823</v>
+      </c>
+      <c r="B1152" t="s">
         <v>1824</v>
-      </c>
-      <c r="B1152" t="s">
-        <v>1825</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="B1153" t="s">
         <v>1826</v>
@@ -15196,20 +15199,20 @@
         <v>1831</v>
       </c>
       <c r="B1158" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B1159" t="s">
         <v>1833</v>
-      </c>
-      <c r="B1159" t="s">
-        <v>1834</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="B1160" t="s">
         <v>1835</v>
@@ -15228,20 +15231,20 @@
         <v>1837</v>
       </c>
       <c r="B1162" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
+        <v>1838</v>
+      </c>
+      <c r="B1163" t="s">
         <v>1839</v>
-      </c>
-      <c r="B1163" t="s">
-        <v>1840</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
       <c r="B1164" t="s">
         <v>1841</v>
@@ -15276,12 +15279,12 @@
         <v>1845</v>
       </c>
       <c r="B1168" t="s">
-        <v>1846</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1847</v>
+        <v>1846</v>
       </c>
       <c r="B1169" t="s">
         <v>1847</v>
@@ -15292,12 +15295,12 @@
         <v>1848</v>
       </c>
       <c r="B1170" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="B1171" t="s">
         <v>1850</v>
@@ -15308,11 +15311,19 @@
         <v>1851</v>
       </c>
       <c r="B1172" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:2">
+      <c r="A1173" t="s">
         <v>1852</v>
       </c>
+      <c r="B1173" t="s">
+        <v>1853</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1172"/>
+  <autoFilter ref="A1:B1173"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/pl/headTags.xlsx
+++ b/lang/pl/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1174</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1856">
   <si>
     <t>en</t>
   </si>
@@ -2078,6 +2078,12 @@
   </si>
   <si>
     <t>Czcionka (Rainbow)</t>
+  </si>
+  <si>
+    <t>Font (Red Chiseled Sandstone)</t>
+  </si>
+  <si>
+    <t>Czcionka (czerwony cyzelowany piaskowiec)</t>
   </si>
   <si>
     <t>Font (Red)</t>
@@ -5925,7 +5931,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1173"/>
+  <dimension ref="A1:B1174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -9375,12 +9381,12 @@
         <v>715</v>
       </c>
       <c r="B430" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="431" spans="1:2">
       <c r="A431" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B431" t="s">
         <v>717</v>
@@ -9399,12 +9405,12 @@
         <v>720</v>
       </c>
       <c r="B433" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="434" spans="1:2">
       <c r="A434" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B434" t="s">
         <v>722</v>
@@ -9415,12 +9421,12 @@
         <v>723</v>
       </c>
       <c r="B435" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="436" spans="1:2">
       <c r="A436" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B436" t="s">
         <v>725</v>
@@ -9431,12 +9437,12 @@
         <v>726</v>
       </c>
       <c r="B437" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="438" spans="1:2">
       <c r="A438" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B438" t="s">
         <v>728</v>
@@ -9479,12 +9485,12 @@
         <v>737</v>
       </c>
       <c r="B443" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="444" spans="1:2">
       <c r="A444" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B444" t="s">
         <v>739</v>
@@ -9495,12 +9501,12 @@
         <v>740</v>
       </c>
       <c r="B445" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="446" spans="1:2">
       <c r="A446" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B446" t="s">
         <v>742</v>
@@ -9511,12 +9517,12 @@
         <v>743</v>
       </c>
       <c r="B447" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="448" spans="1:2">
       <c r="A448" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B448" t="s">
         <v>745</v>
@@ -9551,12 +9557,12 @@
         <v>752</v>
       </c>
       <c r="B452" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="453" spans="1:2">
       <c r="A453" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B453" t="s">
         <v>754</v>
@@ -9575,20 +9581,20 @@
         <v>757</v>
       </c>
       <c r="B455" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="456" spans="1:2">
       <c r="A456" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B456" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="457" spans="1:2">
       <c r="A457" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B457" t="s">
         <v>760</v>
@@ -9615,12 +9621,12 @@
         <v>765</v>
       </c>
       <c r="B460" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="461" spans="1:2">
       <c r="A461" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B461" t="s">
         <v>767</v>
@@ -9631,36 +9637,36 @@
         <v>768</v>
       </c>
       <c r="B462" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="463" spans="1:2">
       <c r="A463" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B463" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="464" spans="1:2">
       <c r="A464" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B464" t="s">
-        <v>506</v>
+        <v>771</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B465" t="s">
-        <v>771</v>
+        <v>506</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B466" t="s">
         <v>773</v>
@@ -9687,20 +9693,20 @@
         <v>778</v>
       </c>
       <c r="B469" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="470" spans="1:2">
       <c r="A470" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="B470" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="471" spans="1:2">
       <c r="A471" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B471" t="s">
         <v>781</v>
@@ -9711,20 +9717,20 @@
         <v>782</v>
       </c>
       <c r="B472" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="473" spans="1:2">
       <c r="A473" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B473" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="474" spans="1:2">
       <c r="A474" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="B474" t="s">
         <v>785</v>
@@ -9735,12 +9741,12 @@
         <v>786</v>
       </c>
       <c r="B475" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="476" spans="1:2">
       <c r="A476" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B476" t="s">
         <v>788</v>
@@ -9775,20 +9781,20 @@
         <v>795</v>
       </c>
       <c r="B480" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="481" spans="1:2">
       <c r="A481" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B481" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="482" spans="1:2">
       <c r="A482" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B482" t="s">
         <v>798</v>
@@ -9799,12 +9805,12 @@
         <v>799</v>
       </c>
       <c r="B483" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="484" spans="1:2">
       <c r="A484" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B484" t="s">
         <v>801</v>
@@ -9815,36 +9821,36 @@
         <v>802</v>
       </c>
       <c r="B485" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="486" spans="1:2">
       <c r="A486" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B486" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="487" spans="1:2">
       <c r="A487" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="B487" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="488" spans="1:2">
       <c r="A488" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B488" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="489" spans="1:2">
       <c r="A489" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B489" t="s">
         <v>807</v>
@@ -9999,20 +10005,20 @@
         <v>844</v>
       </c>
       <c r="B508" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="509" spans="1:2">
       <c r="A509" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B509" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="510" spans="1:2">
       <c r="A510" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B510" t="s">
         <v>847</v>
@@ -10023,12 +10029,12 @@
         <v>848</v>
       </c>
       <c r="B511" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="512" spans="1:2">
       <c r="A512" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B512" t="s">
         <v>850</v>
@@ -10063,36 +10069,36 @@
         <v>857</v>
       </c>
       <c r="B516" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="517" spans="1:2">
       <c r="A517" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B517" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="518" spans="1:2">
       <c r="A518" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="B518" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="519" spans="1:2">
       <c r="A519" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="B519" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="520" spans="1:2">
       <c r="A520" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B520" t="s">
         <v>862</v>
@@ -10119,12 +10125,12 @@
         <v>867</v>
       </c>
       <c r="B523" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="524" spans="1:2">
       <c r="A524" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B524" t="s">
         <v>869</v>
@@ -10175,12 +10181,12 @@
         <v>880</v>
       </c>
       <c r="B530" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="531" spans="1:2">
       <c r="A531" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B531" t="s">
         <v>882</v>
@@ -10199,20 +10205,20 @@
         <v>885</v>
       </c>
       <c r="B533" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="534" spans="1:2">
       <c r="A534" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B534" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="535" spans="1:2">
       <c r="A535" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="B535" t="s">
         <v>888</v>
@@ -10231,76 +10237,76 @@
         <v>891</v>
       </c>
       <c r="B537" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="538" spans="1:2">
       <c r="A538" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="B538" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="539" spans="1:2">
       <c r="A539" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B539" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="540" spans="1:2">
       <c r="A540" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="B540" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="541" spans="1:2">
       <c r="A541" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B541" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="542" spans="1:2">
       <c r="A542" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="B542" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="543" spans="1:2">
       <c r="A543" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B543" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="544" spans="1:2">
       <c r="A544" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="B544" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="545" spans="1:2">
       <c r="A545" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B545" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="546" spans="1:2">
       <c r="A546" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="B546" t="s">
         <v>901</v>
@@ -10319,20 +10325,20 @@
         <v>904</v>
       </c>
       <c r="B548" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="549" spans="1:2">
       <c r="A549" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B549" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="B550" t="s">
         <v>907</v>
@@ -10359,20 +10365,20 @@
         <v>912</v>
       </c>
       <c r="B553" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B554" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="555" spans="1:2">
       <c r="A555" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B555" t="s">
         <v>915</v>
@@ -10423,28 +10429,28 @@
         <v>926</v>
       </c>
       <c r="B561" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="562" spans="1:2">
       <c r="A562" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="B562" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="563" spans="1:2">
       <c r="A563" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B563" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="564" spans="1:2">
       <c r="A564" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="B564" t="s">
         <v>930</v>
@@ -10487,12 +10493,12 @@
         <v>939</v>
       </c>
       <c r="B569" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="570" spans="1:2">
       <c r="A570" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="B570" t="s">
         <v>941</v>
@@ -10519,44 +10525,44 @@
         <v>946</v>
       </c>
       <c r="B573" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="574" spans="1:2">
       <c r="A574" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B574" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="575" spans="1:2">
       <c r="A575" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B575" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="576" spans="1:2">
       <c r="A576" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B576" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="577" spans="1:2">
       <c r="A577" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B577" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="578" spans="1:2">
       <c r="A578" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B578" t="s">
         <v>952</v>
@@ -10575,36 +10581,36 @@
         <v>955</v>
       </c>
       <c r="B580" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="581" spans="1:2">
       <c r="A581" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B581" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="582" spans="1:2">
       <c r="A582" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B582" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="583" spans="1:2">
       <c r="A583" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B583" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="584" spans="1:2">
       <c r="A584" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B584" t="s">
         <v>960</v>
@@ -10623,12 +10629,12 @@
         <v>963</v>
       </c>
       <c r="B586" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="587" spans="1:2">
       <c r="A587" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="B587" t="s">
         <v>965</v>
@@ -10647,12 +10653,12 @@
         <v>968</v>
       </c>
       <c r="B589" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="590" spans="1:2">
       <c r="A590" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B590" t="s">
         <v>970</v>
@@ -10663,12 +10669,12 @@
         <v>971</v>
       </c>
       <c r="B591" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="B592" t="s">
         <v>973</v>
@@ -10735,20 +10741,20 @@
         <v>988</v>
       </c>
       <c r="B600" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="601" spans="1:2">
       <c r="A601" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B601" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="B602" t="s">
         <v>991</v>
@@ -10759,20 +10765,20 @@
         <v>992</v>
       </c>
       <c r="B603" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="604" spans="1:2">
       <c r="A604" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="B604" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B605" t="s">
         <v>995</v>
@@ -10807,28 +10813,28 @@
         <v>1002</v>
       </c>
       <c r="B609" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="610" spans="1:2">
       <c r="A610" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B610" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="B611" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B612" t="s">
         <v>1006</v>
@@ -10839,12 +10845,12 @@
         <v>1007</v>
       </c>
       <c r="B613" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="614" spans="1:2">
       <c r="A614" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="B614" t="s">
         <v>1009</v>
@@ -10887,20 +10893,20 @@
         <v>1018</v>
       </c>
       <c r="B619" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="620" spans="1:2">
       <c r="A620" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B620" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B621" t="s">
         <v>1021</v>
@@ -10911,20 +10917,20 @@
         <v>1022</v>
       </c>
       <c r="B622" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="623" spans="1:2">
       <c r="A623" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="B623" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B624" t="s">
         <v>1025</v>
@@ -10943,100 +10949,100 @@
         <v>1028</v>
       </c>
       <c r="B626" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="627" spans="1:2">
       <c r="A627" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="B627" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="B628" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B629" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B630" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B631" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B632" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B633" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B634" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B635" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B636" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B637" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B638" t="s">
         <v>1041</v>
@@ -11047,12 +11053,12 @@
         <v>1042</v>
       </c>
       <c r="B639" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="640" spans="1:2">
       <c r="A640" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="B640" t="s">
         <v>1044</v>
@@ -11063,20 +11069,20 @@
         <v>1045</v>
       </c>
       <c r="B641" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="642" spans="1:2">
       <c r="A642" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="B642" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B643" t="s">
         <v>1048</v>
@@ -11111,28 +11117,28 @@
         <v>1055</v>
       </c>
       <c r="B647" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="648" spans="1:2">
       <c r="A648" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="B648" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B649" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B650" t="s">
         <v>1059</v>
@@ -11143,20 +11149,20 @@
         <v>1060</v>
       </c>
       <c r="B651" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="652" spans="1:2">
       <c r="A652" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="B652" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B653" t="s">
         <v>1063</v>
@@ -11167,28 +11173,28 @@
         <v>1064</v>
       </c>
       <c r="B654" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="655" spans="1:2">
       <c r="A655" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B655" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="B656" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B657" t="s">
         <v>1068</v>
@@ -11199,12 +11205,12 @@
         <v>1069</v>
       </c>
       <c r="B658" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="659" spans="1:2">
       <c r="A659" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="B659" t="s">
         <v>1071</v>
@@ -11223,44 +11229,44 @@
         <v>1074</v>
       </c>
       <c r="B661" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="662" spans="1:2">
       <c r="A662" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="B662" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B663" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B664" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B665" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B666" t="s">
         <v>1080</v>
@@ -11271,12 +11277,12 @@
         <v>1081</v>
       </c>
       <c r="B667" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="668" spans="1:2">
       <c r="A668" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B668" t="s">
         <v>1083</v>
@@ -11295,12 +11301,12 @@
         <v>1086</v>
       </c>
       <c r="B670" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="671" spans="1:2">
       <c r="A671" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="B671" t="s">
         <v>1088</v>
@@ -11319,36 +11325,36 @@
         <v>1091</v>
       </c>
       <c r="B673" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="674" spans="1:2">
       <c r="A674" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="B674" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="B675" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B676" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B677" t="s">
         <v>1096</v>
@@ -11375,20 +11381,20 @@
         <v>1101</v>
       </c>
       <c r="B680" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="681" spans="1:2">
       <c r="A681" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="B681" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="B682" t="s">
         <v>1104</v>
@@ -11447,20 +11453,20 @@
         <v>1117</v>
       </c>
       <c r="B689" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="690" spans="1:2">
       <c r="A690" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B690" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="B691" t="s">
         <v>1120</v>
@@ -11471,12 +11477,12 @@
         <v>1121</v>
       </c>
       <c r="B692" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="693" spans="1:2">
       <c r="A693" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B693" t="s">
         <v>1123</v>
@@ -11519,36 +11525,36 @@
         <v>1132</v>
       </c>
       <c r="B698" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="699" spans="1:2">
       <c r="A699" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="B699" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="B700" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B701" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="B702" t="s">
         <v>1137</v>
@@ -11559,60 +11565,60 @@
         <v>1138</v>
       </c>
       <c r="B703" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="704" spans="1:2">
       <c r="A704" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="B704" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="B705" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B706" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B707" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B708" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B709" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B710" t="s">
         <v>1146</v>
@@ -11647,12 +11653,12 @@
         <v>1153</v>
       </c>
       <c r="B714" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="715" spans="1:2">
       <c r="A715" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="B715" t="s">
         <v>1155</v>
@@ -11663,28 +11669,28 @@
         <v>1156</v>
       </c>
       <c r="B716" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="717" spans="1:2">
       <c r="A717" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B717" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="718" spans="1:2">
       <c r="A718" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B718" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="719" spans="1:2">
       <c r="A719" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="B719" t="s">
         <v>1160</v>
@@ -11695,20 +11701,20 @@
         <v>1161</v>
       </c>
       <c r="B720" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="721" spans="1:2">
       <c r="A721" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="B721" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="722" spans="1:2">
       <c r="A722" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="B722" t="s">
         <v>1164</v>
@@ -11743,12 +11749,12 @@
         <v>1171</v>
       </c>
       <c r="B726" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="727" spans="1:2">
       <c r="A727" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="B727" t="s">
         <v>1173</v>
@@ -11767,12 +11773,12 @@
         <v>1176</v>
       </c>
       <c r="B729" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="730" spans="1:2">
       <c r="A730" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="B730" t="s">
         <v>1178</v>
@@ -11799,76 +11805,76 @@
         <v>1183</v>
       </c>
       <c r="B733" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="734" spans="1:2">
       <c r="A734" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="B734" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="B735" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B736" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B737" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B738" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B739" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B740" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B741" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B742" t="s">
         <v>1193</v>
@@ -11879,28 +11885,28 @@
         <v>1194</v>
       </c>
       <c r="B743" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="744" spans="1:2">
       <c r="A744" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="B744" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="B745" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B746" t="s">
         <v>1198</v>
@@ -11967,20 +11973,20 @@
         <v>1213</v>
       </c>
       <c r="B754" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="755" spans="1:2">
       <c r="A755" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="B755" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="B756" t="s">
         <v>1216</v>
@@ -11999,12 +12005,12 @@
         <v>1219</v>
       </c>
       <c r="B758" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="759" spans="1:2">
       <c r="A759" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="B759" t="s">
         <v>1221</v>
@@ -12015,20 +12021,20 @@
         <v>1222</v>
       </c>
       <c r="B760" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="761" spans="1:2">
       <c r="A761" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B761" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B762" t="s">
         <v>1225</v>
@@ -12071,12 +12077,12 @@
         <v>1234</v>
       </c>
       <c r="B767" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="768" spans="1:2">
       <c r="A768" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="B768" t="s">
         <v>1236</v>
@@ -12111,20 +12117,20 @@
         <v>1243</v>
       </c>
       <c r="B772" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="773" spans="1:2">
       <c r="A773" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="B773" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="B774" t="s">
         <v>1246</v>
@@ -12175,28 +12181,28 @@
         <v>1257</v>
       </c>
       <c r="B780" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="781" spans="1:2">
       <c r="A781" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B781" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="B782" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="B783" t="s">
         <v>1261</v>
@@ -12223,12 +12229,12 @@
         <v>1266</v>
       </c>
       <c r="B786" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="B787" t="s">
         <v>1268</v>
@@ -12239,60 +12245,60 @@
         <v>1269</v>
       </c>
       <c r="B788" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="789" spans="1:2">
       <c r="A789" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="B789" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="B790" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B791" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="B792" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B793" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B794" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B795" t="s">
         <v>1277</v>
@@ -12303,12 +12309,12 @@
         <v>1278</v>
       </c>
       <c r="B796" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="B797" t="s">
         <v>1280</v>
@@ -12367,36 +12373,36 @@
         <v>1293</v>
       </c>
       <c r="B804" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="805" spans="1:2">
       <c r="A805" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="B805" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="B806" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="B807" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="B808" t="s">
         <v>1298</v>
@@ -12439,20 +12445,20 @@
         <v>1307</v>
       </c>
       <c r="B813" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="814" spans="1:2">
       <c r="A814" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B814" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="815" spans="1:2">
       <c r="A815" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="B815" t="s">
         <v>1310</v>
@@ -12471,28 +12477,28 @@
         <v>1313</v>
       </c>
       <c r="B817" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="818" spans="1:2">
       <c r="A818" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="B818" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="B819" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="820" spans="1:2">
       <c r="A820" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="B820" t="s">
         <v>1317</v>
@@ -12519,12 +12525,12 @@
         <v>1322</v>
       </c>
       <c r="B823" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="824" spans="1:2">
       <c r="A824" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="B824" t="s">
         <v>1324</v>
@@ -12567,36 +12573,36 @@
         <v>1333</v>
       </c>
       <c r="B829" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="830" spans="1:2">
       <c r="A830" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="B830" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="B831" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B832" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B833" t="s">
         <v>1338</v>
@@ -12631,12 +12637,12 @@
         <v>1345</v>
       </c>
       <c r="B837" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="838" spans="1:2">
       <c r="A838" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="B838" t="s">
         <v>1347</v>
@@ -12647,116 +12653,116 @@
         <v>1348</v>
       </c>
       <c r="B839" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="840" spans="1:2">
       <c r="A840" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="B840" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="B841" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B842" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B843" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B844" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B845" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="846" spans="1:2">
       <c r="A846" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B846" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="847" spans="1:2">
       <c r="A847" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="B847" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="848" spans="1:2">
       <c r="A848" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="B848" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="849" spans="1:2">
       <c r="A849" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B849" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="850" spans="1:2">
       <c r="A850" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B850" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="851" spans="1:2">
       <c r="A851" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B851" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="852" spans="1:2">
       <c r="A852" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B852" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="853" spans="1:2">
       <c r="A853" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B853" t="s">
         <v>1363</v>
@@ -12791,60 +12797,60 @@
         <v>1370</v>
       </c>
       <c r="B857" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="858" spans="1:2">
       <c r="A858" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="B858" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="B859" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="B860" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B861" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="B862" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B863" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B864" t="s">
         <v>1378</v>
@@ -12855,12 +12861,12 @@
         <v>1379</v>
       </c>
       <c r="B865" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="866" spans="1:2">
       <c r="A866" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="B866" t="s">
         <v>1381</v>
@@ -12871,12 +12877,12 @@
         <v>1382</v>
       </c>
       <c r="B867" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="868" spans="1:2">
       <c r="A868" t="s">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="B868" t="s">
         <v>1384</v>
@@ -12943,20 +12949,20 @@
         <v>1399</v>
       </c>
       <c r="B876" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="B877" t="s">
-        <v>1400</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
       <c r="B878" t="s">
         <v>1402</v>
@@ -12975,12 +12981,12 @@
         <v>1405</v>
       </c>
       <c r="B880" t="s">
-        <v>1405</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="881" spans="1:2">
       <c r="A881" t="s">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="B881" t="s">
         <v>1407</v>
@@ -12991,12 +12997,12 @@
         <v>1408</v>
       </c>
       <c r="B882" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="B883" t="s">
         <v>1410</v>
@@ -13007,12 +13013,12 @@
         <v>1411</v>
       </c>
       <c r="B884" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="885" spans="1:2">
       <c r="A885" t="s">
-        <v>1412</v>
+        <v>1413</v>
       </c>
       <c r="B885" t="s">
         <v>1413</v>
@@ -13023,12 +13029,12 @@
         <v>1414</v>
       </c>
       <c r="B886" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="887" spans="1:2">
       <c r="A887" t="s">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="B887" t="s">
         <v>1416</v>
@@ -13039,12 +13045,12 @@
         <v>1417</v>
       </c>
       <c r="B888" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="889" spans="1:2">
       <c r="A889" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="B889" t="s">
         <v>1419</v>
@@ -13055,20 +13061,20 @@
         <v>1420</v>
       </c>
       <c r="B890" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="891" spans="1:2">
       <c r="A891" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="B891" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="892" spans="1:2">
       <c r="A892" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="B892" t="s">
         <v>1423</v>
@@ -13087,28 +13093,28 @@
         <v>1426</v>
       </c>
       <c r="B894" t="s">
-        <v>1426</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="895" spans="1:2">
       <c r="A895" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="B895" t="s">
-        <v>1427</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
       <c r="B896" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="897" spans="1:2">
       <c r="A897" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="B897" t="s">
         <v>1430</v>
@@ -13151,60 +13157,60 @@
         <v>1439</v>
       </c>
       <c r="B902" t="s">
-        <v>1439</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="903" spans="1:2">
       <c r="A903" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="B903" t="s">
-        <v>1440</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="B904" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B905" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="B906" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B907" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="B908" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="B909" t="s">
         <v>1447</v>
@@ -13239,20 +13245,20 @@
         <v>1454</v>
       </c>
       <c r="B913" t="s">
-        <v>1454</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="B914" t="s">
-        <v>1455</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="B915" t="s">
         <v>1457</v>
@@ -13295,20 +13301,20 @@
         <v>1466</v>
       </c>
       <c r="B920" t="s">
-        <v>1466</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="921" spans="1:2">
       <c r="A921" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
       <c r="B921" t="s">
-        <v>1467</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="B922" t="s">
         <v>1469</v>
@@ -13343,12 +13349,12 @@
         <v>1476</v>
       </c>
       <c r="B926" t="s">
-        <v>1476</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="927" spans="1:2">
       <c r="A927" t="s">
-        <v>1477</v>
+        <v>1478</v>
       </c>
       <c r="B927" t="s">
         <v>1478</v>
@@ -13367,20 +13373,20 @@
         <v>1481</v>
       </c>
       <c r="B929" t="s">
-        <v>1481</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="B930" t="s">
-        <v>1482</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="931" spans="1:2">
       <c r="A931" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
       <c r="B931" t="s">
         <v>1484</v>
@@ -13391,20 +13397,20 @@
         <v>1485</v>
       </c>
       <c r="B932" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="933" spans="1:2">
       <c r="A933" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
       <c r="B933" t="s">
-        <v>1486</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="934" spans="1:2">
       <c r="A934" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="B934" t="s">
         <v>1488</v>
@@ -13423,12 +13429,12 @@
         <v>1491</v>
       </c>
       <c r="B936" t="s">
-        <v>1491</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="937" spans="1:2">
       <c r="A937" t="s">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="B937" t="s">
         <v>1493</v>
@@ -13447,28 +13453,28 @@
         <v>1496</v>
       </c>
       <c r="B939" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="940" spans="1:2">
       <c r="A940" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="B940" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="B941" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="B942" t="s">
         <v>1500</v>
@@ -13487,44 +13493,44 @@
         <v>1503</v>
       </c>
       <c r="B944" t="s">
-        <v>1503</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="945" spans="1:2">
       <c r="A945" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="B945" t="s">
-        <v>1504</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="B946" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="B947" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="B948" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B949" t="s">
         <v>1509</v>
@@ -13567,20 +13573,20 @@
         <v>1518</v>
       </c>
       <c r="B954" t="s">
-        <v>1518</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="955" spans="1:2">
       <c r="A955" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
       <c r="B955" t="s">
-        <v>1519</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="B956" t="s">
         <v>1521</v>
@@ -13631,36 +13637,36 @@
         <v>1532</v>
       </c>
       <c r="B962" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="B963" t="s">
-        <v>1533</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="B964" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="B965" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B966" t="s">
         <v>1537</v>
@@ -13711,28 +13717,28 @@
         <v>1548</v>
       </c>
       <c r="B972" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="973" spans="1:2">
       <c r="A973" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
       <c r="B973" t="s">
-        <v>1549</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="974" spans="1:2">
       <c r="A974" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
       <c r="B974" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="975" spans="1:2">
       <c r="A975" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="B975" t="s">
         <v>1552</v>
@@ -13743,28 +13749,28 @@
         <v>1553</v>
       </c>
       <c r="B976" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="977" spans="1:2">
       <c r="A977" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="B977" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B978" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="B979" t="s">
         <v>1557</v>
@@ -13775,36 +13781,36 @@
         <v>1558</v>
       </c>
       <c r="B980" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="B981" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="B982" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="B983" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="B984" t="s">
         <v>1563</v>
@@ -13831,12 +13837,12 @@
         <v>1568</v>
       </c>
       <c r="B987" t="s">
-        <v>1568</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="988" spans="1:2">
       <c r="A988" t="s">
-        <v>1569</v>
+        <v>1570</v>
       </c>
       <c r="B988" t="s">
         <v>1570</v>
@@ -13863,20 +13869,20 @@
         <v>1575</v>
       </c>
       <c r="B991" t="s">
-        <v>1575</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="992" spans="1:2">
       <c r="A992" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
       <c r="B992" t="s">
-        <v>1576</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
       <c r="B993" t="s">
         <v>1578</v>
@@ -13887,28 +13893,28 @@
         <v>1579</v>
       </c>
       <c r="B994" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
       <c r="B995" t="s">
-        <v>1580</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
       <c r="B996" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="B997" t="s">
         <v>1583</v>
@@ -13943,28 +13949,28 @@
         <v>1590</v>
       </c>
       <c r="B1001" t="s">
-        <v>1590</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
       <c r="B1002" t="s">
-        <v>1591</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
       <c r="B1003" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B1004" t="s">
         <v>1594</v>
@@ -13983,36 +13989,36 @@
         <v>1597</v>
       </c>
       <c r="B1006" t="s">
-        <v>1597</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="1007" spans="1:2">
       <c r="A1007" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
       <c r="B1007" t="s">
-        <v>1598</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="B1008" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="B1009" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B1010" t="s">
         <v>1602</v>
@@ -14031,36 +14037,36 @@
         <v>1605</v>
       </c>
       <c r="B1012" t="s">
-        <v>1605</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="1013" spans="1:2">
       <c r="A1013" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="B1013" t="s">
-        <v>1606</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="B1014" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="B1015" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="B1016" t="s">
         <v>1610</v>
@@ -14079,20 +14085,20 @@
         <v>1613</v>
       </c>
       <c r="B1018" t="s">
-        <v>1613</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="1019" spans="1:2">
       <c r="A1019" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
       <c r="B1019" t="s">
-        <v>1614</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
       <c r="A1020" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
       <c r="B1020" t="s">
         <v>1616</v>
@@ -14111,12 +14117,12 @@
         <v>1619</v>
       </c>
       <c r="B1022" t="s">
-        <v>1619</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="1023" spans="1:2">
       <c r="A1023" t="s">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="B1023" t="s">
         <v>1621</v>
@@ -14127,20 +14133,20 @@
         <v>1622</v>
       </c>
       <c r="B1024" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="B1025" t="s">
-        <v>1623</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="B1026" t="s">
         <v>1625</v>
@@ -14151,20 +14157,20 @@
         <v>1626</v>
       </c>
       <c r="B1027" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="1028" spans="1:2">
       <c r="A1028" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="B1028" t="s">
-        <v>1627</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="B1029" t="s">
         <v>1629</v>
@@ -14175,28 +14181,28 @@
         <v>1630</v>
       </c>
       <c r="B1030" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="1031" spans="1:2">
       <c r="A1031" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="B1031" t="s">
-        <v>1631</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="B1032" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="B1033" t="s">
         <v>1634</v>
@@ -14215,12 +14221,12 @@
         <v>1637</v>
       </c>
       <c r="B1035" t="s">
-        <v>1637</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="1036" spans="1:2">
       <c r="A1036" t="s">
-        <v>1638</v>
+        <v>1639</v>
       </c>
       <c r="B1036" t="s">
         <v>1639</v>
@@ -14247,12 +14253,12 @@
         <v>1644</v>
       </c>
       <c r="B1039" t="s">
-        <v>1644</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="1040" spans="1:2">
       <c r="A1040" t="s">
-        <v>1645</v>
+        <v>1646</v>
       </c>
       <c r="B1040" t="s">
         <v>1646</v>
@@ -14271,12 +14277,12 @@
         <v>1649</v>
       </c>
       <c r="B1042" t="s">
-        <v>1649</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="1043" spans="1:2">
       <c r="A1043" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="B1043" t="s">
         <v>1651</v>
@@ -14287,12 +14293,12 @@
         <v>1652</v>
       </c>
       <c r="B1044" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="1045" spans="1:2">
       <c r="A1045" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B1045" t="s">
         <v>1654</v>
@@ -14303,12 +14309,12 @@
         <v>1655</v>
       </c>
       <c r="B1046" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="1047" spans="1:2">
       <c r="A1047" t="s">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="B1047" t="s">
         <v>1657</v>
@@ -14319,12 +14325,12 @@
         <v>1658</v>
       </c>
       <c r="B1048" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="1049" spans="1:2">
       <c r="A1049" t="s">
-        <v>1659</v>
+        <v>1660</v>
       </c>
       <c r="B1049" t="s">
         <v>1660</v>
@@ -14391,28 +14397,28 @@
         <v>1675</v>
       </c>
       <c r="B1057" t="s">
-        <v>1675</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="1058" spans="1:2">
       <c r="A1058" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="B1058" t="s">
-        <v>1676</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
       <c r="B1059" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="B1060" t="s">
         <v>1679</v>
@@ -14423,20 +14429,20 @@
         <v>1680</v>
       </c>
       <c r="B1061" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="1062" spans="1:2">
       <c r="A1062" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="B1062" t="s">
-        <v>1681</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
       <c r="A1063" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="B1063" t="s">
         <v>1683</v>
@@ -14479,36 +14485,36 @@
         <v>1692</v>
       </c>
       <c r="B1068" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="1069" spans="1:2">
       <c r="A1069" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="B1069" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="B1070" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="B1071" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="B1072" t="s">
         <v>1697</v>
@@ -14519,28 +14525,28 @@
         <v>1698</v>
       </c>
       <c r="B1073" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="1074" spans="1:2">
       <c r="A1074" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="B1074" t="s">
-        <v>1699</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="B1075" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B1076" t="s">
         <v>1702</v>
@@ -14551,12 +14557,12 @@
         <v>1703</v>
       </c>
       <c r="B1077" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="B1078" t="s">
         <v>1705</v>
@@ -14575,20 +14581,20 @@
         <v>1708</v>
       </c>
       <c r="B1080" t="s">
-        <v>1708</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="B1081" t="s">
-        <v>1709</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="B1082" t="s">
         <v>1711</v>
@@ -14607,12 +14613,12 @@
         <v>1714</v>
       </c>
       <c r="B1084" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="1085" spans="1:2">
       <c r="A1085" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="B1085" t="s">
         <v>1716</v>
@@ -14647,20 +14653,20 @@
         <v>1723</v>
       </c>
       <c r="B1089" t="s">
-        <v>1723</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
       <c r="A1090" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="B1090" t="s">
-        <v>1724</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
       <c r="B1091" t="s">
         <v>1726</v>
@@ -14687,12 +14693,12 @@
         <v>1731</v>
       </c>
       <c r="B1094" t="s">
-        <v>1731</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="1095" spans="1:2">
       <c r="A1095" t="s">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="B1095" t="s">
         <v>1733</v>
@@ -14703,12 +14709,12 @@
         <v>1734</v>
       </c>
       <c r="B1096" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="1097" spans="1:2">
       <c r="A1097" t="s">
-        <v>1735</v>
+        <v>1736</v>
       </c>
       <c r="B1097" t="s">
         <v>1736</v>
@@ -14719,52 +14725,52 @@
         <v>1737</v>
       </c>
       <c r="B1098" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="1099" spans="1:2">
       <c r="A1099" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="B1099" t="s">
-        <v>1738</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="B1100" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="B1101" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="B1102" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="B1103" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="B1104" t="s">
         <v>1744</v>
@@ -14807,12 +14813,12 @@
         <v>1753</v>
       </c>
       <c r="B1109" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="B1110" t="s">
         <v>1755</v>
@@ -14823,20 +14829,20 @@
         <v>1756</v>
       </c>
       <c r="B1111" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="B1112" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="1113" spans="1:2">
       <c r="A1113" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="B1113" t="s">
         <v>1759</v>
@@ -14847,28 +14853,28 @@
         <v>1760</v>
       </c>
       <c r="B1114" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
       <c r="A1115" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B1115" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="1116" spans="1:2">
       <c r="A1116" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="B1116" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
       <c r="A1117" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="B1117" t="s">
         <v>1764</v>
@@ -14967,44 +14973,44 @@
         <v>1787</v>
       </c>
       <c r="B1129" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="B1130" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="1131" spans="1:2">
       <c r="A1131" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="B1131" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="B1132" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="B1133" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="B1134" t="s">
         <v>1793</v>
@@ -15023,28 +15029,28 @@
         <v>1796</v>
       </c>
       <c r="B1136" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="B1137" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="B1138" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="B1139" t="s">
         <v>1800</v>
@@ -15055,20 +15061,20 @@
         <v>1801</v>
       </c>
       <c r="B1140" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="B1141" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="1142" spans="1:2">
       <c r="A1142" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="B1142" t="s">
         <v>1804</v>
@@ -15167,44 +15173,44 @@
         <v>1827</v>
       </c>
       <c r="B1154" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="B1155" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="B1156" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="B1157" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="B1158" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="B1159" t="s">
         <v>1833</v>
@@ -15223,20 +15229,20 @@
         <v>1836</v>
       </c>
       <c r="B1161" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="B1162" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="B1163" t="s">
         <v>1839</v>
@@ -15255,36 +15261,36 @@
         <v>1842</v>
       </c>
       <c r="B1165" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="B1166" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="B1167" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="B1168" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="B1169" t="s">
         <v>1847</v>
@@ -15295,12 +15301,12 @@
         <v>1848</v>
       </c>
       <c r="B1170" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="B1171" t="s">
         <v>1850</v>
@@ -15311,19 +15317,27 @@
         <v>1851</v>
       </c>
       <c r="B1172" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="B1173" t="s">
         <v>1853</v>
       </c>
     </row>
+    <row r="1174" spans="1:2">
+      <c r="A1174" t="s">
+        <v>1854</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>1855</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1173"/>
+  <autoFilter ref="A1:B1174"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/pl/headTags.xlsx
+++ b/lang/pl/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1174</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1175</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1856">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1857">
   <si>
     <t>en</t>
   </si>
@@ -5237,6 +5237,9 @@
   </si>
   <si>
     <t>Twilight Forest</t>
+  </si>
+  <si>
+    <t>Twisted Wonderland</t>
   </si>
   <si>
     <t>Ultrakill</t>
@@ -5931,7 +5934,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1174"/>
+  <dimension ref="A1:B1175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -14781,44 +14784,44 @@
         <v>1745</v>
       </c>
       <c r="B1105" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
+        <v>1746</v>
+      </c>
+      <c r="B1106" t="s">
         <v>1747</v>
-      </c>
-      <c r="B1106" t="s">
-        <v>1748</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
+        <v>1748</v>
+      </c>
+      <c r="B1107" t="s">
         <v>1749</v>
-      </c>
-      <c r="B1107" t="s">
-        <v>1750</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
+        <v>1750</v>
+      </c>
+      <c r="B1108" t="s">
         <v>1751</v>
-      </c>
-      <c r="B1108" t="s">
-        <v>1752</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B1109" t="s">
         <v>1753</v>
-      </c>
-      <c r="B1109" t="s">
-        <v>1754</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>1755</v>
+        <v>1754</v>
       </c>
       <c r="B1110" t="s">
         <v>1755</v>
@@ -14829,12 +14832,12 @@
         <v>1756</v>
       </c>
       <c r="B1111" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" t="s">
-        <v>1758</v>
+        <v>1757</v>
       </c>
       <c r="B1112" t="s">
         <v>1758</v>
@@ -14853,12 +14856,12 @@
         <v>1760</v>
       </c>
       <c r="B1114" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
       <c r="A1115" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="B1115" t="s">
         <v>1762</v>
@@ -14885,100 +14888,100 @@
         <v>1765</v>
       </c>
       <c r="B1118" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
       <c r="A1119" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B1119" t="s">
         <v>1767</v>
-      </c>
-      <c r="B1119" t="s">
-        <v>1768</v>
       </c>
     </row>
     <row r="1120" spans="1:2">
       <c r="A1120" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B1120" t="s">
         <v>1769</v>
-      </c>
-      <c r="B1120" t="s">
-        <v>1770</v>
       </c>
     </row>
     <row r="1121" spans="1:2">
       <c r="A1121" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B1121" t="s">
         <v>1771</v>
-      </c>
-      <c r="B1121" t="s">
-        <v>1772</v>
       </c>
     </row>
     <row r="1122" spans="1:2">
       <c r="A1122" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B1122" t="s">
         <v>1773</v>
-      </c>
-      <c r="B1122" t="s">
-        <v>1774</v>
       </c>
     </row>
     <row r="1123" spans="1:2">
       <c r="A1123" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B1123" t="s">
         <v>1775</v>
-      </c>
-      <c r="B1123" t="s">
-        <v>1776</v>
       </c>
     </row>
     <row r="1124" spans="1:2">
       <c r="A1124" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B1124" t="s">
         <v>1777</v>
-      </c>
-      <c r="B1124" t="s">
-        <v>1778</v>
       </c>
     </row>
     <row r="1125" spans="1:2">
       <c r="A1125" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B1125" t="s">
         <v>1779</v>
-      </c>
-      <c r="B1125" t="s">
-        <v>1780</v>
       </c>
     </row>
     <row r="1126" spans="1:2">
       <c r="A1126" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B1126" t="s">
         <v>1781</v>
-      </c>
-      <c r="B1126" t="s">
-        <v>1782</v>
       </c>
     </row>
     <row r="1127" spans="1:2">
       <c r="A1127" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B1127" t="s">
         <v>1783</v>
-      </c>
-      <c r="B1127" t="s">
-        <v>1784</v>
       </c>
     </row>
     <row r="1128" spans="1:2">
       <c r="A1128" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B1128" t="s">
         <v>1785</v>
-      </c>
-      <c r="B1128" t="s">
-        <v>1786</v>
       </c>
     </row>
     <row r="1129" spans="1:2">
       <c r="A1129" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B1129" t="s">
         <v>1787</v>
-      </c>
-      <c r="B1129" t="s">
-        <v>1788</v>
       </c>
     </row>
     <row r="1130" spans="1:2">
       <c r="A1130" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="B1130" t="s">
         <v>1789</v>
@@ -15021,20 +15024,20 @@
         <v>1794</v>
       </c>
       <c r="B1135" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B1136" t="s">
         <v>1796</v>
-      </c>
-      <c r="B1136" t="s">
-        <v>1797</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="B1137" t="s">
         <v>1798</v>
@@ -15061,12 +15064,12 @@
         <v>1801</v>
       </c>
       <c r="B1140" t="s">
-        <v>1802</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
-        <v>1803</v>
+        <v>1802</v>
       </c>
       <c r="B1141" t="s">
         <v>1803</v>
@@ -15085,100 +15088,100 @@
         <v>1805</v>
       </c>
       <c r="B1143" t="s">
-        <v>1806</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" t="s">
+        <v>1806</v>
+      </c>
+      <c r="B1144" t="s">
         <v>1807</v>
-      </c>
-      <c r="B1144" t="s">
-        <v>1808</v>
       </c>
     </row>
     <row r="1145" spans="1:2">
       <c r="A1145" t="s">
+        <v>1808</v>
+      </c>
+      <c r="B1145" t="s">
         <v>1809</v>
-      </c>
-      <c r="B1145" t="s">
-        <v>1810</v>
       </c>
     </row>
     <row r="1146" spans="1:2">
       <c r="A1146" t="s">
+        <v>1810</v>
+      </c>
+      <c r="B1146" t="s">
         <v>1811</v>
-      </c>
-      <c r="B1146" t="s">
-        <v>1812</v>
       </c>
     </row>
     <row r="1147" spans="1:2">
       <c r="A1147" t="s">
+        <v>1812</v>
+      </c>
+      <c r="B1147" t="s">
         <v>1813</v>
-      </c>
-      <c r="B1147" t="s">
-        <v>1814</v>
       </c>
     </row>
     <row r="1148" spans="1:2">
       <c r="A1148" t="s">
+        <v>1814</v>
+      </c>
+      <c r="B1148" t="s">
         <v>1815</v>
-      </c>
-      <c r="B1148" t="s">
-        <v>1816</v>
       </c>
     </row>
     <row r="1149" spans="1:2">
       <c r="A1149" t="s">
+        <v>1816</v>
+      </c>
+      <c r="B1149" t="s">
         <v>1817</v>
-      </c>
-      <c r="B1149" t="s">
-        <v>1818</v>
       </c>
     </row>
     <row r="1150" spans="1:2">
       <c r="A1150" t="s">
+        <v>1818</v>
+      </c>
+      <c r="B1150" t="s">
         <v>1819</v>
-      </c>
-      <c r="B1150" t="s">
-        <v>1820</v>
       </c>
     </row>
     <row r="1151" spans="1:2">
       <c r="A1151" t="s">
+        <v>1820</v>
+      </c>
+      <c r="B1151" t="s">
         <v>1821</v>
-      </c>
-      <c r="B1151" t="s">
-        <v>1822</v>
       </c>
     </row>
     <row r="1152" spans="1:2">
       <c r="A1152" t="s">
+        <v>1822</v>
+      </c>
+      <c r="B1152" t="s">
         <v>1823</v>
-      </c>
-      <c r="B1152" t="s">
-        <v>1824</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
+        <v>1824</v>
+      </c>
+      <c r="B1153" t="s">
         <v>1825</v>
-      </c>
-      <c r="B1153" t="s">
-        <v>1826</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
+        <v>1826</v>
+      </c>
+      <c r="B1154" t="s">
         <v>1827</v>
-      </c>
-      <c r="B1154" t="s">
-        <v>1828</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="B1155" t="s">
         <v>1829</v>
@@ -15221,20 +15224,20 @@
         <v>1834</v>
       </c>
       <c r="B1160" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B1161" t="s">
         <v>1836</v>
-      </c>
-      <c r="B1161" t="s">
-        <v>1837</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>1838</v>
+        <v>1837</v>
       </c>
       <c r="B1162" t="s">
         <v>1838</v>
@@ -15253,20 +15256,20 @@
         <v>1840</v>
       </c>
       <c r="B1164" t="s">
-        <v>1841</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
+        <v>1841</v>
+      </c>
+      <c r="B1165" t="s">
         <v>1842</v>
-      </c>
-      <c r="B1165" t="s">
-        <v>1843</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>1844</v>
+        <v>1843</v>
       </c>
       <c r="B1166" t="s">
         <v>1844</v>
@@ -15301,12 +15304,12 @@
         <v>1848</v>
       </c>
       <c r="B1170" t="s">
-        <v>1849</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" t="s">
-        <v>1850</v>
+        <v>1849</v>
       </c>
       <c r="B1171" t="s">
         <v>1850</v>
@@ -15317,12 +15320,12 @@
         <v>1851</v>
       </c>
       <c r="B1172" t="s">
-        <v>1852</v>
+        <v>1851</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
-        <v>1853</v>
+        <v>1852</v>
       </c>
       <c r="B1173" t="s">
         <v>1853</v>
@@ -15333,11 +15336,19 @@
         <v>1854</v>
       </c>
       <c r="B1174" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:2">
+      <c r="A1175" t="s">
         <v>1855</v>
       </c>
+      <c r="B1175" t="s">
+        <v>1856</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1174"/>
+  <autoFilter ref="A1:B1175"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/pl/headTags.xlsx
+++ b/lang/pl/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1176</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1859">
   <si>
     <t>en</t>
   </si>
@@ -2897,6 +2897,12 @@
   </si>
   <si>
     <t>Hypixel (Minion)</t>
+  </si>
+  <si>
+    <t>Hypixel (Mutations) Tag</t>
+  </si>
+  <si>
+    <t>Znacznik Hypixel (Mutacje)</t>
   </si>
   <si>
     <t>Hypixel (NPC)</t>
@@ -5934,7 +5940,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1175"/>
+  <dimension ref="A1:B1176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -10616,12 +10622,12 @@
         <v>960</v>
       </c>
       <c r="B584" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="585" spans="1:2">
       <c r="A585" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B585" t="s">
         <v>962</v>
@@ -10640,12 +10646,12 @@
         <v>965</v>
       </c>
       <c r="B587" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="588" spans="1:2">
       <c r="A588" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="B588" t="s">
         <v>967</v>
@@ -10664,12 +10670,12 @@
         <v>970</v>
       </c>
       <c r="B590" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="591" spans="1:2">
       <c r="A591" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B591" t="s">
         <v>972</v>
@@ -10680,12 +10686,12 @@
         <v>973</v>
       </c>
       <c r="B592" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="B593" t="s">
         <v>975</v>
@@ -10752,20 +10758,20 @@
         <v>990</v>
       </c>
       <c r="B601" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="602" spans="1:2">
       <c r="A602" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="B602" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="603" spans="1:2">
       <c r="A603" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="B603" t="s">
         <v>993</v>
@@ -10776,20 +10782,20 @@
         <v>994</v>
       </c>
       <c r="B604" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="605" spans="1:2">
       <c r="A605" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="B605" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="606" spans="1:2">
       <c r="A606" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="B606" t="s">
         <v>997</v>
@@ -10824,28 +10830,28 @@
         <v>1004</v>
       </c>
       <c r="B610" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="611" spans="1:2">
       <c r="A611" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="B611" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="612" spans="1:2">
       <c r="A612" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B612" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="613" spans="1:2">
       <c r="A613" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="B613" t="s">
         <v>1008</v>
@@ -10856,12 +10862,12 @@
         <v>1009</v>
       </c>
       <c r="B614" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="615" spans="1:2">
       <c r="A615" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="B615" t="s">
         <v>1011</v>
@@ -10904,20 +10910,20 @@
         <v>1020</v>
       </c>
       <c r="B620" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="621" spans="1:2">
       <c r="A621" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="B621" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="622" spans="1:2">
       <c r="A622" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B622" t="s">
         <v>1023</v>
@@ -10928,20 +10934,20 @@
         <v>1024</v>
       </c>
       <c r="B623" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="624" spans="1:2">
       <c r="A624" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="B624" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="625" spans="1:2">
       <c r="A625" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B625" t="s">
         <v>1027</v>
@@ -10960,100 +10966,100 @@
         <v>1030</v>
       </c>
       <c r="B627" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="628" spans="1:2">
       <c r="A628" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="B628" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="629" spans="1:2">
       <c r="A629" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="B629" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="630" spans="1:2">
       <c r="A630" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B630" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="631" spans="1:2">
       <c r="A631" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B631" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="632" spans="1:2">
       <c r="A632" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="B632" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="B633" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="B634" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="635" spans="1:2">
       <c r="A635" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B635" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="636" spans="1:2">
       <c r="A636" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B636" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="637" spans="1:2">
       <c r="A637" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B637" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="638" spans="1:2">
       <c r="A638" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B638" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="639" spans="1:2">
       <c r="A639" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="B639" t="s">
         <v>1043</v>
@@ -11064,12 +11070,12 @@
         <v>1044</v>
       </c>
       <c r="B640" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="641" spans="1:2">
       <c r="A641" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="B641" t="s">
         <v>1046</v>
@@ -11080,20 +11086,20 @@
         <v>1047</v>
       </c>
       <c r="B642" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="643" spans="1:2">
       <c r="A643" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B643" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="644" spans="1:2">
       <c r="A644" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B644" t="s">
         <v>1050</v>
@@ -11128,28 +11134,28 @@
         <v>1057</v>
       </c>
       <c r="B648" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="649" spans="1:2">
       <c r="A649" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="B649" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="650" spans="1:2">
       <c r="A650" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="B650" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="651" spans="1:2">
       <c r="A651" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="B651" t="s">
         <v>1061</v>
@@ -11160,20 +11166,20 @@
         <v>1062</v>
       </c>
       <c r="B652" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="653" spans="1:2">
       <c r="A653" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="B653" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="654" spans="1:2">
       <c r="A654" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="B654" t="s">
         <v>1065</v>
@@ -11184,28 +11190,28 @@
         <v>1066</v>
       </c>
       <c r="B655" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="656" spans="1:2">
       <c r="A656" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B656" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="657" spans="1:2">
       <c r="A657" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B657" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="658" spans="1:2">
       <c r="A658" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="B658" t="s">
         <v>1070</v>
@@ -11216,12 +11222,12 @@
         <v>1071</v>
       </c>
       <c r="B659" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="660" spans="1:2">
       <c r="A660" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B660" t="s">
         <v>1073</v>
@@ -11240,44 +11246,44 @@
         <v>1076</v>
       </c>
       <c r="B662" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="663" spans="1:2">
       <c r="A663" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B663" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="664" spans="1:2">
       <c r="A664" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B664" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="665" spans="1:2">
       <c r="A665" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B665" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="666" spans="1:2">
       <c r="A666" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B666" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="667" spans="1:2">
       <c r="A667" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B667" t="s">
         <v>1082</v>
@@ -11288,12 +11294,12 @@
         <v>1083</v>
       </c>
       <c r="B668" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="669" spans="1:2">
       <c r="A669" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B669" t="s">
         <v>1085</v>
@@ -11312,12 +11318,12 @@
         <v>1088</v>
       </c>
       <c r="B671" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="672" spans="1:2">
       <c r="A672" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B672" t="s">
         <v>1090</v>
@@ -11336,36 +11342,36 @@
         <v>1093</v>
       </c>
       <c r="B674" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="675" spans="1:2">
       <c r="A675" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="B675" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="676" spans="1:2">
       <c r="A676" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B676" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="677" spans="1:2">
       <c r="A677" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="B677" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="678" spans="1:2">
       <c r="A678" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B678" t="s">
         <v>1098</v>
@@ -11392,20 +11398,20 @@
         <v>1103</v>
       </c>
       <c r="B681" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="682" spans="1:2">
       <c r="A682" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B682" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="683" spans="1:2">
       <c r="A683" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="B683" t="s">
         <v>1106</v>
@@ -11464,20 +11470,20 @@
         <v>1119</v>
       </c>
       <c r="B690" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="691" spans="1:2">
       <c r="A691" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="B691" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="692" spans="1:2">
       <c r="A692" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="B692" t="s">
         <v>1122</v>
@@ -11488,12 +11494,12 @@
         <v>1123</v>
       </c>
       <c r="B693" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="694" spans="1:2">
       <c r="A694" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="B694" t="s">
         <v>1125</v>
@@ -11536,36 +11542,36 @@
         <v>1134</v>
       </c>
       <c r="B699" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="700" spans="1:2">
       <c r="A700" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="B700" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="701" spans="1:2">
       <c r="A701" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="B701" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="702" spans="1:2">
       <c r="A702" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="B702" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="703" spans="1:2">
       <c r="A703" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="B703" t="s">
         <v>1139</v>
@@ -11576,60 +11582,60 @@
         <v>1140</v>
       </c>
       <c r="B704" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="705" spans="1:2">
       <c r="A705" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="B705" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="706" spans="1:2">
       <c r="A706" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B706" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="707" spans="1:2">
       <c r="A707" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="B707" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="708" spans="1:2">
       <c r="A708" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="B708" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="709" spans="1:2">
       <c r="A709" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="B709" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="710" spans="1:2">
       <c r="A710" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B710" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="711" spans="1:2">
       <c r="A711" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="B711" t="s">
         <v>1148</v>
@@ -11664,12 +11670,12 @@
         <v>1155</v>
       </c>
       <c r="B715" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="716" spans="1:2">
       <c r="A716" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B716" t="s">
         <v>1157</v>
@@ -11680,28 +11686,28 @@
         <v>1158</v>
       </c>
       <c r="B717" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="718" spans="1:2">
       <c r="A718" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="B718" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="719" spans="1:2">
       <c r="A719" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B719" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="720" spans="1:2">
       <c r="A720" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="B720" t="s">
         <v>1162</v>
@@ -11712,20 +11718,20 @@
         <v>1163</v>
       </c>
       <c r="B721" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="722" spans="1:2">
       <c r="A722" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B722" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="723" spans="1:2">
       <c r="A723" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="B723" t="s">
         <v>1166</v>
@@ -11760,12 +11766,12 @@
         <v>1173</v>
       </c>
       <c r="B727" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="728" spans="1:2">
       <c r="A728" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="B728" t="s">
         <v>1175</v>
@@ -11784,12 +11790,12 @@
         <v>1178</v>
       </c>
       <c r="B730" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="731" spans="1:2">
       <c r="A731" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="B731" t="s">
         <v>1180</v>
@@ -11816,76 +11822,76 @@
         <v>1185</v>
       </c>
       <c r="B734" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="735" spans="1:2">
       <c r="A735" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="B735" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="736" spans="1:2">
       <c r="A736" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="B736" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="737" spans="1:2">
       <c r="A737" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B737" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="738" spans="1:2">
       <c r="A738" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="B738" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="739" spans="1:2">
       <c r="A739" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="B739" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="740" spans="1:2">
       <c r="A740" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="B740" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="741" spans="1:2">
       <c r="A741" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="B741" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="742" spans="1:2">
       <c r="A742" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="B742" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="743" spans="1:2">
       <c r="A743" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="B743" t="s">
         <v>1195</v>
@@ -11896,28 +11902,28 @@
         <v>1196</v>
       </c>
       <c r="B744" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="745" spans="1:2">
       <c r="A745" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="B745" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="746" spans="1:2">
       <c r="A746" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="B746" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="747" spans="1:2">
       <c r="A747" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="B747" t="s">
         <v>1200</v>
@@ -11984,20 +11990,20 @@
         <v>1215</v>
       </c>
       <c r="B755" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="756" spans="1:2">
       <c r="A756" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B756" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="757" spans="1:2">
       <c r="A757" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="B757" t="s">
         <v>1218</v>
@@ -12016,12 +12022,12 @@
         <v>1221</v>
       </c>
       <c r="B759" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="760" spans="1:2">
       <c r="A760" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="B760" t="s">
         <v>1223</v>
@@ -12032,20 +12038,20 @@
         <v>1224</v>
       </c>
       <c r="B761" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="762" spans="1:2">
       <c r="A762" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="B762" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="763" spans="1:2">
       <c r="A763" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="B763" t="s">
         <v>1227</v>
@@ -12088,12 +12094,12 @@
         <v>1236</v>
       </c>
       <c r="B768" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="769" spans="1:2">
       <c r="A769" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="B769" t="s">
         <v>1238</v>
@@ -12128,20 +12134,20 @@
         <v>1245</v>
       </c>
       <c r="B773" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="774" spans="1:2">
       <c r="A774" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="B774" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="775" spans="1:2">
       <c r="A775" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="B775" t="s">
         <v>1248</v>
@@ -12192,28 +12198,28 @@
         <v>1259</v>
       </c>
       <c r="B781" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="782" spans="1:2">
       <c r="A782" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="B782" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="783" spans="1:2">
       <c r="A783" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="B783" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="784" spans="1:2">
       <c r="A784" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="B784" t="s">
         <v>1263</v>
@@ -12240,12 +12246,12 @@
         <v>1268</v>
       </c>
       <c r="B787" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="B788" t="s">
         <v>1270</v>
@@ -12256,60 +12262,60 @@
         <v>1271</v>
       </c>
       <c r="B789" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="B790" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="B791" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="B792" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="B793" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B794" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="B795" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="B796" t="s">
         <v>1279</v>
@@ -12320,12 +12326,12 @@
         <v>1280</v>
       </c>
       <c r="B797" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="B798" t="s">
         <v>1282</v>
@@ -12384,36 +12390,36 @@
         <v>1295</v>
       </c>
       <c r="B805" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="806" spans="1:2">
       <c r="A806" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="B806" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="807" spans="1:2">
       <c r="A807" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="B807" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="808" spans="1:2">
       <c r="A808" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="B808" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="809" spans="1:2">
       <c r="A809" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="B809" t="s">
         <v>1300</v>
@@ -12456,20 +12462,20 @@
         <v>1309</v>
       </c>
       <c r="B814" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="815" spans="1:2">
       <c r="A815" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="B815" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="816" spans="1:2">
       <c r="A816" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="B816" t="s">
         <v>1312</v>
@@ -12488,28 +12494,28 @@
         <v>1315</v>
       </c>
       <c r="B818" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="819" spans="1:2">
       <c r="A819" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="B819" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="820" spans="1:2">
       <c r="A820" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="B820" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="821" spans="1:2">
       <c r="A821" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="B821" t="s">
         <v>1319</v>
@@ -12536,12 +12542,12 @@
         <v>1324</v>
       </c>
       <c r="B824" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="825" spans="1:2">
       <c r="A825" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="B825" t="s">
         <v>1326</v>
@@ -12584,36 +12590,36 @@
         <v>1335</v>
       </c>
       <c r="B830" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="831" spans="1:2">
       <c r="A831" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="B831" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="832" spans="1:2">
       <c r="A832" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="B832" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="833" spans="1:2">
       <c r="A833" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="B833" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="834" spans="1:2">
       <c r="A834" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="B834" t="s">
         <v>1340</v>
@@ -12648,12 +12654,12 @@
         <v>1347</v>
       </c>
       <c r="B838" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="839" spans="1:2">
       <c r="A839" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="B839" t="s">
         <v>1349</v>
@@ -12664,116 +12670,116 @@
         <v>1350</v>
       </c>
       <c r="B840" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="841" spans="1:2">
       <c r="A841" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="B841" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="B842" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="B843" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="B844" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="B845" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="846" spans="1:2">
       <c r="A846" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="B846" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="847" spans="1:2">
       <c r="A847" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="B847" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="848" spans="1:2">
       <c r="A848" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="B848" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="849" spans="1:2">
       <c r="A849" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="B849" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="850" spans="1:2">
       <c r="A850" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="B850" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="851" spans="1:2">
       <c r="A851" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="B851" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="852" spans="1:2">
       <c r="A852" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="B852" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="853" spans="1:2">
       <c r="A853" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="B853" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="854" spans="1:2">
       <c r="A854" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="B854" t="s">
         <v>1365</v>
@@ -12808,60 +12814,60 @@
         <v>1372</v>
       </c>
       <c r="B858" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="859" spans="1:2">
       <c r="A859" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="B859" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="B860" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="B861" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="B862" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="B863" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="B864" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="865" spans="1:2">
       <c r="A865" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="B865" t="s">
         <v>1380</v>
@@ -12872,12 +12878,12 @@
         <v>1381</v>
       </c>
       <c r="B866" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="867" spans="1:2">
       <c r="A867" t="s">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="B867" t="s">
         <v>1383</v>
@@ -12888,12 +12894,12 @@
         <v>1384</v>
       </c>
       <c r="B868" t="s">
-        <v>1384</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="869" spans="1:2">
       <c r="A869" t="s">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="B869" t="s">
         <v>1386</v>
@@ -12960,20 +12966,20 @@
         <v>1401</v>
       </c>
       <c r="B877" t="s">
-        <v>1401</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
       <c r="B878" t="s">
-        <v>1402</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="879" spans="1:2">
       <c r="A879" t="s">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="B879" t="s">
         <v>1404</v>
@@ -12992,12 +12998,12 @@
         <v>1407</v>
       </c>
       <c r="B881" t="s">
-        <v>1407</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="882" spans="1:2">
       <c r="A882" t="s">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="B882" t="s">
         <v>1409</v>
@@ -13008,12 +13014,12 @@
         <v>1410</v>
       </c>
       <c r="B883" t="s">
-        <v>1410</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="B884" t="s">
         <v>1412</v>
@@ -13024,12 +13030,12 @@
         <v>1413</v>
       </c>
       <c r="B885" t="s">
-        <v>1413</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="886" spans="1:2">
       <c r="A886" t="s">
-        <v>1414</v>
+        <v>1415</v>
       </c>
       <c r="B886" t="s">
         <v>1415</v>
@@ -13040,12 +13046,12 @@
         <v>1416</v>
       </c>
       <c r="B887" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="888" spans="1:2">
       <c r="A888" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="B888" t="s">
         <v>1418</v>
@@ -13056,12 +13062,12 @@
         <v>1419</v>
       </c>
       <c r="B889" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="890" spans="1:2">
       <c r="A890" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="B890" t="s">
         <v>1421</v>
@@ -13072,20 +13078,20 @@
         <v>1422</v>
       </c>
       <c r="B891" t="s">
-        <v>1422</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="892" spans="1:2">
       <c r="A892" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="B892" t="s">
-        <v>1423</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="893" spans="1:2">
       <c r="A893" t="s">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="B893" t="s">
         <v>1425</v>
@@ -13104,28 +13110,28 @@
         <v>1428</v>
       </c>
       <c r="B895" t="s">
-        <v>1428</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="896" spans="1:2">
       <c r="A896" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
       <c r="B896" t="s">
-        <v>1429</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="897" spans="1:2">
       <c r="A897" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="B897" t="s">
-        <v>1430</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="898" spans="1:2">
       <c r="A898" t="s">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="B898" t="s">
         <v>1432</v>
@@ -13168,60 +13174,60 @@
         <v>1441</v>
       </c>
       <c r="B903" t="s">
-        <v>1441</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="904" spans="1:2">
       <c r="A904" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="B904" t="s">
-        <v>1442</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="905" spans="1:2">
       <c r="A905" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="B905" t="s">
-        <v>1443</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="906" spans="1:2">
       <c r="A906" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
       <c r="B906" t="s">
-        <v>1444</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="907" spans="1:2">
       <c r="A907" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="B907" t="s">
-        <v>1445</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="908" spans="1:2">
       <c r="A908" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="B908" t="s">
-        <v>1446</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="909" spans="1:2">
       <c r="A909" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
       <c r="B909" t="s">
-        <v>1447</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="910" spans="1:2">
       <c r="A910" t="s">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="B910" t="s">
         <v>1449</v>
@@ -13256,20 +13262,20 @@
         <v>1456</v>
       </c>
       <c r="B914" t="s">
-        <v>1456</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
       <c r="B915" t="s">
-        <v>1457</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="916" spans="1:2">
       <c r="A916" t="s">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="B916" t="s">
         <v>1459</v>
@@ -13312,20 +13318,20 @@
         <v>1468</v>
       </c>
       <c r="B921" t="s">
-        <v>1468</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="922" spans="1:2">
       <c r="A922" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="B922" t="s">
-        <v>1469</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="923" spans="1:2">
       <c r="A923" t="s">
-        <v>1470</v>
+        <v>1471</v>
       </c>
       <c r="B923" t="s">
         <v>1471</v>
@@ -13360,12 +13366,12 @@
         <v>1478</v>
       </c>
       <c r="B927" t="s">
-        <v>1478</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="928" spans="1:2">
       <c r="A928" t="s">
-        <v>1479</v>
+        <v>1480</v>
       </c>
       <c r="B928" t="s">
         <v>1480</v>
@@ -13384,20 +13390,20 @@
         <v>1483</v>
       </c>
       <c r="B930" t="s">
-        <v>1483</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="931" spans="1:2">
       <c r="A931" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
       <c r="B931" t="s">
-        <v>1484</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="932" spans="1:2">
       <c r="A932" t="s">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="B932" t="s">
         <v>1486</v>
@@ -13408,20 +13414,20 @@
         <v>1487</v>
       </c>
       <c r="B933" t="s">
-        <v>1487</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="934" spans="1:2">
       <c r="A934" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
       <c r="B934" t="s">
-        <v>1488</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="935" spans="1:2">
       <c r="A935" t="s">
-        <v>1489</v>
+        <v>1490</v>
       </c>
       <c r="B935" t="s">
         <v>1490</v>
@@ -13440,12 +13446,12 @@
         <v>1493</v>
       </c>
       <c r="B937" t="s">
-        <v>1493</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="938" spans="1:2">
       <c r="A938" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="B938" t="s">
         <v>1495</v>
@@ -13464,28 +13470,28 @@
         <v>1498</v>
       </c>
       <c r="B940" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="941" spans="1:2">
       <c r="A941" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="B941" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="942" spans="1:2">
       <c r="A942" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="B942" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="943" spans="1:2">
       <c r="A943" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="B943" t="s">
         <v>1502</v>
@@ -13504,44 +13510,44 @@
         <v>1505</v>
       </c>
       <c r="B945" t="s">
-        <v>1505</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="946" spans="1:2">
       <c r="A946" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
       <c r="B946" t="s">
-        <v>1506</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="947" spans="1:2">
       <c r="A947" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
       <c r="B947" t="s">
-        <v>1507</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="948" spans="1:2">
       <c r="A948" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
       <c r="B948" t="s">
-        <v>1508</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="949" spans="1:2">
       <c r="A949" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
       <c r="B949" t="s">
-        <v>1509</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="950" spans="1:2">
       <c r="A950" t="s">
-        <v>1510</v>
+        <v>1511</v>
       </c>
       <c r="B950" t="s">
         <v>1511</v>
@@ -13584,20 +13590,20 @@
         <v>1520</v>
       </c>
       <c r="B955" t="s">
-        <v>1520</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="956" spans="1:2">
       <c r="A956" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
       <c r="B956" t="s">
-        <v>1521</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="957" spans="1:2">
       <c r="A957" t="s">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="B957" t="s">
         <v>1523</v>
@@ -13648,36 +13654,36 @@
         <v>1534</v>
       </c>
       <c r="B963" t="s">
-        <v>1534</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="B964" t="s">
-        <v>1535</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
       <c r="B965" t="s">
-        <v>1536</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="B966" t="s">
-        <v>1537</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="967" spans="1:2">
       <c r="A967" t="s">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="B967" t="s">
         <v>1539</v>
@@ -13728,28 +13734,28 @@
         <v>1550</v>
       </c>
       <c r="B973" t="s">
-        <v>1550</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="974" spans="1:2">
       <c r="A974" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="B974" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="975" spans="1:2">
       <c r="A975" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="B975" t="s">
-        <v>1552</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="976" spans="1:2">
       <c r="A976" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="B976" t="s">
         <v>1554</v>
@@ -13760,28 +13766,28 @@
         <v>1555</v>
       </c>
       <c r="B977" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="978" spans="1:2">
       <c r="A978" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="B978" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="979" spans="1:2">
       <c r="A979" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B979" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B980" t="s">
         <v>1559</v>
@@ -13792,36 +13798,36 @@
         <v>1560</v>
       </c>
       <c r="B981" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
       <c r="B982" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="B983" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="984" spans="1:2">
       <c r="A984" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
       <c r="B984" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="985" spans="1:2">
       <c r="A985" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="B985" t="s">
         <v>1565</v>
@@ -13848,12 +13854,12 @@
         <v>1570</v>
       </c>
       <c r="B988" t="s">
-        <v>1570</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="989" spans="1:2">
       <c r="A989" t="s">
-        <v>1571</v>
+        <v>1572</v>
       </c>
       <c r="B989" t="s">
         <v>1572</v>
@@ -13880,20 +13886,20 @@
         <v>1577</v>
       </c>
       <c r="B992" t="s">
-        <v>1577</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="993" spans="1:2">
       <c r="A993" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
       <c r="B993" t="s">
-        <v>1578</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="994" spans="1:2">
       <c r="A994" t="s">
-        <v>1579</v>
+        <v>1580</v>
       </c>
       <c r="B994" t="s">
         <v>1580</v>
@@ -13904,28 +13910,28 @@
         <v>1581</v>
       </c>
       <c r="B995" t="s">
-        <v>1581</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
       <c r="B996" t="s">
-        <v>1582</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
       <c r="B997" t="s">
-        <v>1583</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="998" spans="1:2">
       <c r="A998" t="s">
-        <v>1584</v>
+        <v>1585</v>
       </c>
       <c r="B998" t="s">
         <v>1585</v>
@@ -13960,28 +13966,28 @@
         <v>1592</v>
       </c>
       <c r="B1002" t="s">
-        <v>1592</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="B1003" t="s">
-        <v>1593</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="B1004" t="s">
-        <v>1594</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
       <c r="A1005" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="B1005" t="s">
         <v>1596</v>
@@ -14000,36 +14006,36 @@
         <v>1599</v>
       </c>
       <c r="B1007" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="1008" spans="1:2">
       <c r="A1008" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
       <c r="B1008" t="s">
-        <v>1600</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="1009" spans="1:2">
       <c r="A1009" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
       <c r="B1009" t="s">
-        <v>1601</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="1010" spans="1:2">
       <c r="A1010" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
       <c r="B1010" t="s">
-        <v>1602</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="1011" spans="1:2">
       <c r="A1011" t="s">
-        <v>1603</v>
+        <v>1604</v>
       </c>
       <c r="B1011" t="s">
         <v>1604</v>
@@ -14048,36 +14054,36 @@
         <v>1607</v>
       </c>
       <c r="B1013" t="s">
-        <v>1607</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="B1014" t="s">
-        <v>1608</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
       <c r="B1015" t="s">
-        <v>1609</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
       <c r="B1016" t="s">
-        <v>1610</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1611</v>
+        <v>1612</v>
       </c>
       <c r="B1017" t="s">
         <v>1612</v>
@@ -14096,20 +14102,20 @@
         <v>1615</v>
       </c>
       <c r="B1019" t="s">
-        <v>1615</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="1020" spans="1:2">
       <c r="A1020" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="B1020" t="s">
-        <v>1616</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="1021" spans="1:2">
       <c r="A1021" t="s">
-        <v>1617</v>
+        <v>1618</v>
       </c>
       <c r="B1021" t="s">
         <v>1618</v>
@@ -14128,12 +14134,12 @@
         <v>1621</v>
       </c>
       <c r="B1023" t="s">
-        <v>1621</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="B1024" t="s">
         <v>1623</v>
@@ -14144,20 +14150,20 @@
         <v>1624</v>
       </c>
       <c r="B1025" t="s">
-        <v>1624</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="B1026" t="s">
-        <v>1625</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>1626</v>
+        <v>1627</v>
       </c>
       <c r="B1027" t="s">
         <v>1627</v>
@@ -14168,20 +14174,20 @@
         <v>1628</v>
       </c>
       <c r="B1028" t="s">
-        <v>1628</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="1029" spans="1:2">
       <c r="A1029" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="B1029" t="s">
-        <v>1629</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="1030" spans="1:2">
       <c r="A1030" t="s">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="B1030" t="s">
         <v>1631</v>
@@ -14192,28 +14198,28 @@
         <v>1632</v>
       </c>
       <c r="B1031" t="s">
-        <v>1632</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="1032" spans="1:2">
       <c r="A1032" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="B1032" t="s">
-        <v>1633</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="1033" spans="1:2">
       <c r="A1033" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
       <c r="B1033" t="s">
-        <v>1634</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="1034" spans="1:2">
       <c r="A1034" t="s">
-        <v>1635</v>
+        <v>1636</v>
       </c>
       <c r="B1034" t="s">
         <v>1636</v>
@@ -14232,12 +14238,12 @@
         <v>1639</v>
       </c>
       <c r="B1036" t="s">
-        <v>1639</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="1037" spans="1:2">
       <c r="A1037" t="s">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="B1037" t="s">
         <v>1641</v>
@@ -14264,12 +14270,12 @@
         <v>1646</v>
       </c>
       <c r="B1040" t="s">
-        <v>1646</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="1041" spans="1:2">
       <c r="A1041" t="s">
-        <v>1647</v>
+        <v>1648</v>
       </c>
       <c r="B1041" t="s">
         <v>1648</v>
@@ -14288,12 +14294,12 @@
         <v>1651</v>
       </c>
       <c r="B1043" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="1044" spans="1:2">
       <c r="A1044" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="B1044" t="s">
         <v>1653</v>
@@ -14304,12 +14310,12 @@
         <v>1654</v>
       </c>
       <c r="B1045" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="1046" spans="1:2">
       <c r="A1046" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="B1046" t="s">
         <v>1656</v>
@@ -14320,12 +14326,12 @@
         <v>1657</v>
       </c>
       <c r="B1047" t="s">
-        <v>1657</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="1048" spans="1:2">
       <c r="A1048" t="s">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="B1048" t="s">
         <v>1659</v>
@@ -14336,12 +14342,12 @@
         <v>1660</v>
       </c>
       <c r="B1049" t="s">
-        <v>1660</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="1050" spans="1:2">
       <c r="A1050" t="s">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="B1050" t="s">
         <v>1662</v>
@@ -14408,28 +14414,28 @@
         <v>1677</v>
       </c>
       <c r="B1058" t="s">
-        <v>1677</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="1059" spans="1:2">
       <c r="A1059" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="B1059" t="s">
-        <v>1678</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="1060" spans="1:2">
       <c r="A1060" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
       <c r="B1060" t="s">
-        <v>1679</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="1061" spans="1:2">
       <c r="A1061" t="s">
-        <v>1680</v>
+        <v>1681</v>
       </c>
       <c r="B1061" t="s">
         <v>1681</v>
@@ -14440,20 +14446,20 @@
         <v>1682</v>
       </c>
       <c r="B1062" t="s">
-        <v>1682</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="1063" spans="1:2">
       <c r="A1063" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="B1063" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="1064" spans="1:2">
       <c r="A1064" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B1064" t="s">
         <v>1685</v>
@@ -14496,36 +14502,36 @@
         <v>1694</v>
       </c>
       <c r="B1069" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
       <c r="A1070" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="B1070" t="s">
-        <v>1695</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="1071" spans="1:2">
       <c r="A1071" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="B1071" t="s">
-        <v>1696</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="1072" spans="1:2">
       <c r="A1072" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
       <c r="B1072" t="s">
-        <v>1697</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="1073" spans="1:2">
       <c r="A1073" t="s">
-        <v>1698</v>
+        <v>1699</v>
       </c>
       <c r="B1073" t="s">
         <v>1699</v>
@@ -14536,28 +14542,28 @@
         <v>1700</v>
       </c>
       <c r="B1074" t="s">
-        <v>1700</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="1075" spans="1:2">
       <c r="A1075" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
       <c r="B1075" t="s">
-        <v>1701</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="1076" spans="1:2">
       <c r="A1076" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="B1076" t="s">
-        <v>1702</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="1077" spans="1:2">
       <c r="A1077" t="s">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="B1077" t="s">
         <v>1704</v>
@@ -14568,12 +14574,12 @@
         <v>1705</v>
       </c>
       <c r="B1078" t="s">
-        <v>1705</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>1706</v>
+        <v>1707</v>
       </c>
       <c r="B1079" t="s">
         <v>1707</v>
@@ -14592,20 +14598,20 @@
         <v>1710</v>
       </c>
       <c r="B1081" t="s">
-        <v>1710</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="B1082" t="s">
-        <v>1711</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
       <c r="A1083" t="s">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="B1083" t="s">
         <v>1713</v>
@@ -14624,12 +14630,12 @@
         <v>1716</v>
       </c>
       <c r="B1085" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="1086" spans="1:2">
       <c r="A1086" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="B1086" t="s">
         <v>1718</v>
@@ -14664,20 +14670,20 @@
         <v>1725</v>
       </c>
       <c r="B1090" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B1091" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
       <c r="B1092" t="s">
         <v>1728</v>
@@ -14704,12 +14710,12 @@
         <v>1733</v>
       </c>
       <c r="B1095" t="s">
-        <v>1733</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="1096" spans="1:2">
       <c r="A1096" t="s">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="B1096" t="s">
         <v>1735</v>
@@ -14720,12 +14726,12 @@
         <v>1736</v>
       </c>
       <c r="B1097" t="s">
-        <v>1736</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="1098" spans="1:2">
       <c r="A1098" t="s">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="B1098" t="s">
         <v>1738</v>
@@ -14736,60 +14742,60 @@
         <v>1739</v>
       </c>
       <c r="B1099" t="s">
-        <v>1739</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="1100" spans="1:2">
       <c r="A1100" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="B1100" t="s">
-        <v>1740</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="1101" spans="1:2">
       <c r="A1101" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="B1101" t="s">
-        <v>1741</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="1102" spans="1:2">
       <c r="A1102" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="B1102" t="s">
-        <v>1742</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="1103" spans="1:2">
       <c r="A1103" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
       <c r="B1103" t="s">
-        <v>1743</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="1104" spans="1:2">
       <c r="A1104" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="B1104" t="s">
-        <v>1744</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
       <c r="B1105" t="s">
-        <v>1745</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="B1106" t="s">
         <v>1747</v>
@@ -14832,12 +14838,12 @@
         <v>1756</v>
       </c>
       <c r="B1111" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="B1112" t="s">
         <v>1758</v>
@@ -14848,20 +14854,20 @@
         <v>1759</v>
       </c>
       <c r="B1113" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="1114" spans="1:2">
       <c r="A1114" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="B1114" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="1115" spans="1:2">
       <c r="A1115" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="B1115" t="s">
         <v>1762</v>
@@ -14872,28 +14878,28 @@
         <v>1763</v>
       </c>
       <c r="B1116" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="1117" spans="1:2">
       <c r="A1117" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="B1117" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="1118" spans="1:2">
       <c r="A1118" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="B1118" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="1119" spans="1:2">
       <c r="A1119" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="B1119" t="s">
         <v>1767</v>
@@ -14992,44 +14998,44 @@
         <v>1790</v>
       </c>
       <c r="B1131" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="B1132" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="B1133" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="B1134" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="B1135" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="B1136" t="s">
         <v>1796</v>
@@ -15048,28 +15054,28 @@
         <v>1799</v>
       </c>
       <c r="B1138" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="B1139" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="B1140" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="1141" spans="1:2">
       <c r="A1141" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="B1141" t="s">
         <v>1803</v>
@@ -15080,20 +15086,20 @@
         <v>1804</v>
       </c>
       <c r="B1142" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="1143" spans="1:2">
       <c r="A1143" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="B1143" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="1144" spans="1:2">
       <c r="A1144" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="B1144" t="s">
         <v>1807</v>
@@ -15192,44 +15198,44 @@
         <v>1830</v>
       </c>
       <c r="B1156" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="B1157" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="B1158" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="B1159" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="B1160" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="B1161" t="s">
         <v>1836</v>
@@ -15248,20 +15254,20 @@
         <v>1839</v>
       </c>
       <c r="B1163" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="B1164" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="B1165" t="s">
         <v>1842</v>
@@ -15280,36 +15286,36 @@
         <v>1845</v>
       </c>
       <c r="B1167" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
     </row>
     <row r="1168" spans="1:2">
       <c r="A1168" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="B1168" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
     </row>
     <row r="1169" spans="1:2">
       <c r="A1169" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="B1169" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B1170" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="B1171" t="s">
         <v>1850</v>
@@ -15320,12 +15326,12 @@
         <v>1851</v>
       </c>
       <c r="B1172" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="B1173" t="s">
         <v>1853</v>
@@ -15336,19 +15342,27 @@
         <v>1854</v>
       </c>
       <c r="B1174" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
       <c r="A1175" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="B1175" t="s">
         <v>1856</v>
       </c>
     </row>
+    <row r="1176" spans="1:2">
+      <c r="A1176" t="s">
+        <v>1857</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>1858</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1175"/>
+  <autoFilter ref="A1:B1176"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/pl/headTags.xlsx
+++ b/lang/pl/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1177</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1861">
   <si>
     <t>en</t>
   </si>
@@ -2899,2695 +2899,2701 @@
     <t>Hypixel (Minion)</t>
   </si>
   <si>
+    <t>Hypixel (Mutations)</t>
+  </si>
+  <si>
+    <t>Hypixel (Mutacje)</t>
+  </si>
+  <si>
+    <t>Hypixel (NPC)</t>
+  </si>
+  <si>
+    <t>Hypixel (Pets)</t>
+  </si>
+  <si>
+    <t>Hypixel (Zwierzęta)</t>
+  </si>
+  <si>
+    <t>Hypixel (Reforge Stone)</t>
+  </si>
+  <si>
+    <t>Hypixel (kamień przekucia)</t>
+  </si>
+  <si>
+    <t>Hypixel (Sacks)</t>
+  </si>
+  <si>
+    <t>Hypixel (Skins)</t>
+  </si>
+  <si>
+    <t>Hypixel (skórki)</t>
+  </si>
+  <si>
+    <t>Hypixel (Talismans)</t>
+  </si>
+  <si>
+    <t>Hypixel (talizmany)</t>
+  </si>
+  <si>
+    <t>Hypixel (Trophy Fish)</t>
+  </si>
+  <si>
+    <t>Hōseki no Kuni (Land of the Lustrous)</t>
+  </si>
+  <si>
+    <t>Hōseki no Kuni (Kraina Lustrous)</t>
+  </si>
+  <si>
+    <t>Ib</t>
+  </si>
+  <si>
+    <t>Ice Age</t>
+  </si>
+  <si>
+    <t>Epoka lodowcowa</t>
+  </si>
+  <si>
+    <t>Ice Climber</t>
+  </si>
+  <si>
+    <t>Wspinacz lodowy</t>
+  </si>
+  <si>
+    <t>Ice Cream</t>
+  </si>
+  <si>
+    <t>Lody</t>
+  </si>
+  <si>
+    <t>Icons (GUI)</t>
+  </si>
+  <si>
+    <t>Ikony (GUI)</t>
+  </si>
+  <si>
+    <t>Icons (Ironblock)</t>
+  </si>
+  <si>
+    <t>Ikony (Ironblock)</t>
+  </si>
+  <si>
+    <t>Icons (Other)</t>
+  </si>
+  <si>
+    <t>Ikony (Inne)</t>
+  </si>
+  <si>
+    <t>Icons (white background)</t>
+  </si>
+  <si>
+    <t>Ikony (białe tło)</t>
+  </si>
+  <si>
+    <t>Identity V</t>
+  </si>
+  <si>
+    <t>Tożsamość V</t>
+  </si>
+  <si>
+    <t>Illager</t>
+  </si>
+  <si>
+    <t>Inazuma Eleven</t>
+  </si>
+  <si>
+    <t>Incredibles</t>
+  </si>
+  <si>
+    <t>Iniemamocni</t>
+  </si>
+  <si>
+    <t>Indiana Jones</t>
+  </si>
+  <si>
+    <t>Indigo Park</t>
+  </si>
+  <si>
+    <t>Injuries</t>
+  </si>
+  <si>
+    <t>Urazy</t>
+  </si>
+  <si>
+    <t>Inner Layer Block</t>
+  </si>
+  <si>
+    <t>Blok warstwy wewnętrznej</t>
+  </si>
+  <si>
+    <t>Inscryption</t>
+  </si>
+  <si>
+    <t>Szyfrowanie</t>
+  </si>
+  <si>
+    <t>Insect</t>
+  </si>
+  <si>
+    <t>Owad</t>
+  </si>
+  <si>
+    <t>Inside Out</t>
+  </si>
+  <si>
+    <t>Inu Yasha</t>
+  </si>
+  <si>
+    <t>Invader Zim</t>
+  </si>
+  <si>
+    <t>Invincible</t>
+  </si>
+  <si>
+    <t>Niezwyciężony</t>
+  </si>
+  <si>
+    <t>Iron Man</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Jak and Daxter</t>
+  </si>
+  <si>
+    <t>Jak i Daxter</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Japonia</t>
+  </si>
+  <si>
+    <t>Jar</t>
+  </si>
+  <si>
+    <t>Słoik</t>
+  </si>
+  <si>
+    <t>Jewelry</t>
+  </si>
+  <si>
+    <t>Biżuteria</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure (Stand)</t>
+  </si>
+  <si>
+    <t>Journey</t>
+  </si>
+  <si>
+    <t>Podróż</t>
+  </si>
+  <si>
+    <t>Jujutsu Kaisen</t>
+  </si>
+  <si>
+    <t>Jump King</t>
+  </si>
+  <si>
+    <t>Jurassic Park</t>
+  </si>
+  <si>
+    <t>Park Jurajski</t>
+  </si>
+  <si>
+    <t>Justice League</t>
+  </si>
+  <si>
+    <t>Liga Sprawiedliwości</t>
+  </si>
+  <si>
+    <t>Kaiju Paradise</t>
+  </si>
+  <si>
+    <t>Kakegurui</t>
+  </si>
+  <si>
+    <t>Karate Kid</t>
+  </si>
+  <si>
+    <t>Katamari Damacy</t>
+  </si>
+  <si>
+    <t>Kid Icarus</t>
+  </si>
+  <si>
+    <t>Kiki's Delivery Service</t>
+  </si>
+  <si>
+    <t>Kill la Kill</t>
+  </si>
+  <si>
+    <t>Killzone</t>
+  </si>
+  <si>
+    <t>Kim Possible</t>
+  </si>
+  <si>
+    <t>Kimetsu no Yaiba</t>
+  </si>
+  <si>
+    <t>Kingdom Hearts</t>
+  </si>
+  <si>
+    <t>Kirby</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>Kuchnia</t>
+  </si>
+  <si>
+    <t>KonoSuba</t>
+  </si>
+  <si>
+    <t>Koopalings</t>
+  </si>
+  <si>
+    <t>Koopalingi</t>
+  </si>
+  <si>
+    <t>Kung Fu Panda</t>
+  </si>
+  <si>
+    <t>Kuroko no Basuke</t>
+  </si>
+  <si>
+    <t>Lamp Shade</t>
+  </si>
+  <si>
+    <t>Klosz lampy</t>
+  </si>
+  <si>
+    <t>Landscape</t>
+  </si>
+  <si>
+    <t>Krajobraz</t>
+  </si>
+  <si>
+    <t>Lantern</t>
+  </si>
+  <si>
+    <t>Latarnia</t>
+  </si>
+  <si>
+    <t>Laputa: Castle in the Sky</t>
+  </si>
+  <si>
+    <t>Laputa: Zamek na niebie</t>
+  </si>
+  <si>
+    <t>LazyTown</t>
+  </si>
+  <si>
+    <t>League of Legends</t>
+  </si>
+  <si>
+    <t>Left 4 Dead</t>
+  </si>
+  <si>
+    <t>Legendary Pokemon</t>
+  </si>
+  <si>
+    <t>Legendarny Pokemon</t>
+  </si>
+  <si>
+    <t>Lego</t>
+  </si>
+  <si>
+    <t>Lethal League</t>
+  </si>
+  <si>
+    <t>Library of Ruina</t>
+  </si>
+  <si>
+    <t>Biblioteka Ruina</t>
+  </si>
+  <si>
+    <t>Life is Strange</t>
+  </si>
+  <si>
+    <t>Lilo &amp; Stitch</t>
+  </si>
+  <si>
+    <t>Limbus Company</t>
+  </si>
+  <si>
+    <t>Lion King</t>
+  </si>
+  <si>
+    <t>Król Lew</t>
+  </si>
+  <si>
+    <t>Little Big Planet</t>
+  </si>
+  <si>
+    <t>Little Mermaid</t>
+  </si>
+  <si>
+    <t>Mała Syrenka</t>
+  </si>
+  <si>
+    <t>Little Nightmares</t>
+  </si>
+  <si>
+    <t>Małe koszmary</t>
+  </si>
+  <si>
+    <t>Little Shop of Horrors</t>
+  </si>
+  <si>
+    <t>Little Witch Academia</t>
+  </si>
+  <si>
+    <t>Llama</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Looney Tunes</t>
+  </si>
+  <si>
+    <t>Lord of the Rings</t>
+  </si>
+  <si>
+    <t>Władca Pierścieni</t>
+  </si>
+  <si>
+    <t>Love Live!</t>
+  </si>
+  <si>
+    <t>Lovestruck Creature</t>
+  </si>
+  <si>
+    <t>Zakochana istota</t>
+  </si>
+  <si>
+    <t>Lovestruck Person</t>
+  </si>
+  <si>
+    <t>Zakochana osoba</t>
+  </si>
+  <si>
+    <t>Lucky Luke</t>
+  </si>
+  <si>
+    <t>Machine Part</t>
+  </si>
+  <si>
+    <t>Część maszynowa</t>
+  </si>
+  <si>
+    <t>Mad Father</t>
+  </si>
+  <si>
+    <t>Szalony ojciec</t>
+  </si>
+  <si>
+    <t>Mad Max</t>
+  </si>
+  <si>
+    <t>Made in Abyss</t>
+  </si>
+  <si>
+    <t>Madness Combat</t>
+  </si>
+  <si>
+    <t>Madoka Magica</t>
+  </si>
+  <si>
+    <t>Makeup</t>
+  </si>
+  <si>
+    <t>Makijaż</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Mężczyzna</t>
+  </si>
+  <si>
+    <t>Mao Mao Heroes of Pure Heart</t>
+  </si>
+  <si>
+    <t>Mao Mao Bohaterowie Czystego Serca</t>
+  </si>
+  <si>
+    <t>MapleStory</t>
+  </si>
+  <si>
+    <t>Marvel</t>
+  </si>
+  <si>
+    <t>Mary and the Witch's Flower</t>
+  </si>
+  <si>
+    <t>Mary i kwiat czarownicy</t>
+  </si>
+  <si>
+    <t>Mascot</t>
+  </si>
+  <si>
+    <t>Maskotka</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>Maska</t>
+  </si>
+  <si>
+    <t>Mask (full)</t>
+  </si>
+  <si>
+    <t>Maska (pełna)</t>
+  </si>
+  <si>
+    <t>Mask (functional)</t>
+  </si>
+  <si>
+    <t>Maska (funkcjonalna)</t>
+  </si>
+  <si>
+    <t>Mask (health)</t>
+  </si>
+  <si>
+    <t>Maska (zdrowie)</t>
+  </si>
+  <si>
+    <t>Mask (Minecraft mob)</t>
+  </si>
+  <si>
+    <t>Maska (mob w grze Minecraft)</t>
+  </si>
+  <si>
+    <t>Mass Effect</t>
+  </si>
+  <si>
+    <t>Masters of the Universe</t>
+  </si>
+  <si>
+    <t>Mathematical Symbol</t>
+  </si>
+  <si>
+    <t>Symbol matematyczny</t>
+  </si>
+  <si>
+    <t>Mc Donalds</t>
+  </si>
+  <si>
+    <t>Meal</t>
+  </si>
+  <si>
+    <t>Posiłek</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>Mięso</t>
+  </si>
+  <si>
+    <t>Medieval</t>
+  </si>
+  <si>
+    <t>Średniowiecze</t>
+  </si>
+  <si>
+    <t>Medieval Tavern</t>
+  </si>
+  <si>
+    <t>Średniowieczna tawerna</t>
+  </si>
+  <si>
+    <t>Medieval Warfare Helmet</t>
+  </si>
+  <si>
+    <t>Średniowieczny hełm wojenny</t>
+  </si>
+  <si>
+    <t>MediEvil</t>
+  </si>
+  <si>
+    <t>Mega Evolution</t>
+  </si>
+  <si>
+    <t>Megaman</t>
+  </si>
+  <si>
+    <t>Megami Tensei</t>
+  </si>
+  <si>
+    <t>Mekakucity Actors</t>
+  </si>
+  <si>
+    <t>Aktorzy Mekakucity</t>
+  </si>
+  <si>
+    <t>Meme</t>
+  </si>
+  <si>
+    <t>Meme (Doge)</t>
+  </si>
+  <si>
+    <t>Meme (Pepe)</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>Metal Gear</t>
+  </si>
+  <si>
+    <t>Metro</t>
+  </si>
+  <si>
+    <t>Metroid</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Meksyk</t>
+  </si>
+  <si>
+    <t>Mickey Mouse</t>
+  </si>
+  <si>
+    <t>Myszka Miki</t>
+  </si>
+  <si>
+    <t>Military Equipment</t>
+  </si>
+  <si>
+    <t>Sprzęt wojskowy</t>
+  </si>
+  <si>
+    <t>Minecraft April Fools</t>
+  </si>
+  <si>
+    <t>Prima aprilis w Minecrafcie</t>
+  </si>
+  <si>
+    <t>Minecraft Bedrock Edition</t>
+  </si>
+  <si>
+    <t>Minecraft Dungeons</t>
+  </si>
+  <si>
+    <t>Lochy Minecraft</t>
+  </si>
+  <si>
+    <t>Minecraft Earth</t>
+  </si>
+  <si>
+    <t>Minecraft Education Edition</t>
+  </si>
+  <si>
+    <t>Minecraft Legends</t>
+  </si>
+  <si>
+    <t>Minecraft Live</t>
+  </si>
+  <si>
+    <t>Minecraft na żywo</t>
+  </si>
+  <si>
+    <t>Minecraft Movie</t>
+  </si>
+  <si>
+    <t>Minecraft Story Mode</t>
+  </si>
+  <si>
+    <t>Miner</t>
+  </si>
+  <si>
+    <t>Górnik</t>
+  </si>
+  <si>
+    <t>Minesweeper</t>
+  </si>
+  <si>
+    <t>Saper</t>
+  </si>
+  <si>
+    <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
+  </si>
+  <si>
+    <t>Miraculous: Opowieści o biedronce i kocie noir</t>
+  </si>
+  <si>
+    <t>Mirai Nikki (Future Diary)</t>
+  </si>
+  <si>
+    <t>Mirai Nikki (Dziennik przyszłości)</t>
+  </si>
+  <si>
+    <t>Mirror's Edge</t>
+  </si>
+  <si>
+    <t>Miss Kobayashi's Dragon Maid</t>
+  </si>
+  <si>
+    <t>Smocza pokojówka panny Kobayashi</t>
+  </si>
+  <si>
+    <t>Mizuno's Resource Pack</t>
+  </si>
+  <si>
+    <t>Pakiet zasobów Mizuno</t>
+  </si>
+  <si>
+    <t>Moana</t>
+  </si>
+  <si>
+    <t>Modern Warfare Helmet</t>
+  </si>
+  <si>
+    <t>Kask Modern Warfare</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Pieniądze</t>
+  </si>
+  <si>
+    <t>Money Heist</t>
+  </si>
+  <si>
+    <t>Napad na pieniądze</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>Monkey Island</t>
+  </si>
+  <si>
+    <t>Monocle</t>
+  </si>
+  <si>
+    <t>Monster High</t>
+  </si>
+  <si>
+    <t>Monster Hunter</t>
+  </si>
+  <si>
+    <t>Monsters Inc</t>
+  </si>
+  <si>
+    <t>Moomin</t>
+  </si>
+  <si>
+    <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>Mounts of Mayhem</t>
+  </si>
+  <si>
+    <t>Mouthwashing</t>
+  </si>
+  <si>
+    <t>Płyn do płukania ust</t>
+  </si>
+  <si>
+    <t>Mr. Bean</t>
+  </si>
+  <si>
+    <t>Mulan</t>
+  </si>
+  <si>
+    <t>Mundo Gaturro</t>
+  </si>
+  <si>
+    <t>Muppets</t>
+  </si>
+  <si>
+    <t>Muppety</t>
+  </si>
+  <si>
+    <t>Murder Drones</t>
+  </si>
+  <si>
+    <t>Mordercze drony</t>
+  </si>
+  <si>
+    <t>Mushroom</t>
+  </si>
+  <si>
+    <t>Grzyb</t>
+  </si>
+  <si>
+    <t>Mushroom (Biome)</t>
+  </si>
+  <si>
+    <t>Grzyb (biom)</t>
+  </si>
+  <si>
+    <t>Mushroom (Headwear)</t>
+  </si>
+  <si>
+    <t>Mushroom (nakrycie głowy)</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>Muzyka</t>
+  </si>
+  <si>
+    <t>Mustache</t>
+  </si>
+  <si>
+    <t>Wąsy</t>
+  </si>
+  <si>
+    <t>My Deer Friend Nokotan</t>
+  </si>
+  <si>
+    <t>Mój przyjaciel jeleń Nokotan</t>
+  </si>
+  <si>
+    <t>My Hero Academia</t>
+  </si>
+  <si>
+    <t>My Little Pony</t>
+  </si>
+  <si>
+    <t>My Neighbor Totoro</t>
+  </si>
+  <si>
+    <t>Mój sąsiad Totoro</t>
+  </si>
+  <si>
+    <t>My Singing Monsters</t>
+  </si>
+  <si>
+    <t>Moje śpiewające potwory</t>
+  </si>
+  <si>
+    <t>Naruto</t>
+  </si>
+  <si>
+    <t>Nausicaä of the Valley of the Wind</t>
+  </si>
+  <si>
+    <t>Nausicaä z Doliny Wiatru</t>
+  </si>
+  <si>
+    <t>Nekopara</t>
+  </si>
+  <si>
+    <t>Neon Genesis Evangelion</t>
+  </si>
+  <si>
+    <t>Nether (inspired)</t>
+  </si>
+  <si>
+    <t>Nether (zainspirowany)</t>
+  </si>
+  <si>
+    <t>Nether (vanilla)</t>
+  </si>
+  <si>
+    <t>Nether (wanilia)</t>
+  </si>
+  <si>
+    <t>Neutral Creature</t>
+  </si>
+  <si>
+    <t>Neutralna istota</t>
+  </si>
+  <si>
+    <t>Neutral Person</t>
+  </si>
+  <si>
+    <t>Osoba neutralna</t>
+  </si>
+  <si>
+    <t>New Year's Eve</t>
+  </si>
+  <si>
+    <t>Sylwester</t>
+  </si>
+  <si>
+    <t>NieR: Automata</t>
+  </si>
+  <si>
+    <t>Night in the Woods</t>
+  </si>
+  <si>
+    <t>Noc w lesie</t>
+  </si>
+  <si>
+    <t>Nightmare Before Christmas</t>
+  </si>
+  <si>
+    <t>Koszmar przed Bożym Narodzeniem</t>
+  </si>
+  <si>
+    <t>Ninja Turtles</t>
+  </si>
+  <si>
+    <t>Żółwie Ninja</t>
+  </si>
+  <si>
+    <t>No Game No Life</t>
+  </si>
+  <si>
+    <t>Bez gry nie ma życia</t>
+  </si>
+  <si>
+    <t>No Man's Sky</t>
+  </si>
+  <si>
+    <t>Noel's House Party</t>
+  </si>
+  <si>
+    <t>Norse Mythology</t>
+  </si>
+  <si>
+    <t>Mitologia nordycka</t>
+  </si>
+  <si>
+    <t>NPC (Education Edition)</t>
+  </si>
+  <si>
+    <t>NPC (edycja edukacyjna)</t>
+  </si>
+  <si>
+    <t>Nuclear Fallout</t>
+  </si>
+  <si>
+    <t>Upadek nuklearny</t>
+  </si>
+  <si>
+    <t>Nuclear Throne</t>
+  </si>
+  <si>
+    <t>Nuklearny tron</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Liczba</t>
+  </si>
+  <si>
+    <t>Nut</t>
+  </si>
+  <si>
+    <t>Orzech</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>Octodad</t>
+  </si>
+  <si>
+    <t>Oddworld</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>WYŁ.</t>
+  </si>
+  <si>
+    <t>Officer Cap</t>
+  </si>
+  <si>
+    <t>Czapka oficerska</t>
+  </si>
+  <si>
+    <t>Oggy and the Cockroaches</t>
+  </si>
+  <si>
+    <t>Oggy i karaluchy</t>
+  </si>
+  <si>
+    <t>Okegom</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>Stary</t>
+  </si>
+  <si>
+    <t>Oliver &amp; Co</t>
+  </si>
+  <si>
+    <t>Omori</t>
+  </si>
+  <si>
+    <t>One Piece</t>
+  </si>
+  <si>
+    <t>One Punch Man</t>
+  </si>
+  <si>
+    <t>OneShot</t>
+  </si>
+  <si>
+    <t>Ongezellig</t>
+  </si>
+  <si>
+    <t>Onii-chan wa Oshimai</t>
+  </si>
+  <si>
+    <t>Open Source Objects</t>
+  </si>
+  <si>
+    <t>Obiekty Open Source</t>
+  </si>
+  <si>
+    <t>Orb</t>
+  </si>
+  <si>
+    <t>Orc</t>
+  </si>
+  <si>
+    <t>Ork</t>
+  </si>
+  <si>
+    <t>Ore</t>
+  </si>
+  <si>
+    <t>Ruda</t>
+  </si>
+  <si>
+    <t>Organs and Bodyparts</t>
+  </si>
+  <si>
+    <t>Narządy i części ciała</t>
+  </si>
+  <si>
+    <t>Other Headgear</t>
+  </si>
+  <si>
+    <t>Inne nakrycia głowy</t>
+  </si>
+  <si>
+    <t>Other Illumination</t>
+  </si>
+  <si>
+    <t>Inne podświetlenie</t>
+  </si>
+  <si>
+    <t>Other Mystic Creature</t>
+  </si>
+  <si>
+    <t>Inne mistyczne stworzenie</t>
+  </si>
+  <si>
+    <t>Outer Layer Block</t>
+  </si>
+  <si>
+    <t>Blok warstwy zewnętrznej</t>
+  </si>
+  <si>
+    <t>Overlord</t>
+  </si>
+  <si>
+    <t>Overwatch</t>
+  </si>
+  <si>
+    <t>Pac-Man</t>
+  </si>
+  <si>
+    <t>Pacific Rim</t>
+  </si>
+  <si>
+    <t>Pacifier</t>
+  </si>
+  <si>
+    <t>Smoczek</t>
+  </si>
+  <si>
+    <t>Painted Face</t>
+  </si>
+  <si>
+    <t>Malowana twarz</t>
+  </si>
+  <si>
+    <t>Pale Garden (inspired)</t>
+  </si>
+  <si>
+    <t>Pale Garden (zainspirowany)</t>
+  </si>
+  <si>
+    <t>Panda Bear</t>
+  </si>
+  <si>
+    <t>Niedźwiedź Panda</t>
+  </si>
+  <si>
+    <t>Pans Labyrinth</t>
+  </si>
+  <si>
+    <t>Labirynt patelni</t>
+  </si>
+  <si>
+    <t>Papers Please</t>
+  </si>
+  <si>
+    <t>PaRappa the Rapper</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>Impreza</t>
+  </si>
+  <si>
+    <t>Pastries and Sweets</t>
+  </si>
+  <si>
+    <t>Wypieki i słodycze</t>
+  </si>
+  <si>
+    <t>Paw Patrol</t>
+  </si>
+  <si>
+    <t>Payday</t>
+  </si>
+  <si>
+    <t>Peanuts (Snoopy)</t>
+  </si>
+  <si>
+    <t>Penguin</t>
+  </si>
+  <si>
+    <t>Pingwin</t>
+  </si>
+  <si>
+    <t>Peppa Pig</t>
+  </si>
+  <si>
+    <t>Świnka Peppa</t>
+  </si>
+  <si>
+    <t>Periodic Table of Elements</t>
+  </si>
+  <si>
+    <t>Układ okresowy pierwiastków</t>
+  </si>
+  <si>
+    <t>Persona</t>
+  </si>
+  <si>
+    <t>Pet Equipment</t>
+  </si>
+  <si>
+    <t>Sprzęt dla zwierząt domowych</t>
+  </si>
+  <si>
+    <t>Peter Pan</t>
+  </si>
+  <si>
+    <t>Piotruś Pan</t>
+  </si>
+  <si>
+    <t>Phantom</t>
+  </si>
+  <si>
+    <t>Fantom</t>
+  </si>
+  <si>
+    <t>Phineas &amp; Ferb</t>
+  </si>
+  <si>
+    <t>Fineasz i Ferb</t>
+  </si>
+  <si>
+    <t>Pig</t>
+  </si>
+  <si>
+    <t>Świnia</t>
+  </si>
+  <si>
+    <t>Piglin</t>
+  </si>
+  <si>
+    <t>Pigman</t>
+  </si>
+  <si>
+    <t>Pikmin</t>
+  </si>
+  <si>
+    <t>Pingu</t>
+  </si>
+  <si>
+    <t>Pink Panther</t>
+  </si>
+  <si>
+    <t>Różowa Pantera</t>
+  </si>
+  <si>
+    <t>Pinky and the Brain</t>
+  </si>
+  <si>
+    <t>Pinky i mózg</t>
+  </si>
+  <si>
+    <t>Pinocchio</t>
+  </si>
+  <si>
+    <t>Pinokio</t>
+  </si>
+  <si>
+    <t>Pirates of the Caribbean</t>
+  </si>
+  <si>
+    <t>Piraci z Karaibów</t>
+  </si>
+  <si>
+    <t>Pizza Tower</t>
+  </si>
+  <si>
+    <t>Planet</t>
+  </si>
+  <si>
+    <t>Planeta</t>
+  </si>
+  <si>
+    <t>Plants vs. Zombies</t>
+  </si>
+  <si>
+    <t>Playerunknown's Battlegrounds</t>
+  </si>
+  <si>
+    <t>Pocahontas</t>
+  </si>
+  <si>
+    <t>Pokeball</t>
+  </si>
+  <si>
+    <t>Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 1</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 2</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 3</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 4</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 5</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 6</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 7</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 8</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 9</t>
+  </si>
+  <si>
+    <t>Pokemon Items</t>
+  </si>
+  <si>
+    <t>Przedmioty Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemon Trainer</t>
+  </si>
+  <si>
+    <t>Trener Pokemon</t>
+  </si>
+  <si>
+    <t>Polar Bear</t>
+  </si>
+  <si>
+    <t>Niedźwiedź polarny</t>
+  </si>
+  <si>
+    <t>Police</t>
+  </si>
+  <si>
+    <t>Policja</t>
+  </si>
+  <si>
+    <t>Pom Poko</t>
+  </si>
+  <si>
+    <t>Ponyo</t>
+  </si>
+  <si>
+    <t>Pop Team Epic</t>
+  </si>
+  <si>
+    <t>POPGOES</t>
+  </si>
+  <si>
+    <t>Poppy Playtime</t>
+  </si>
+  <si>
+    <t>Porco Rosso</t>
+  </si>
+  <si>
+    <t>Portal</t>
+  </si>
+  <si>
+    <t>Postman Pat</t>
+  </si>
+  <si>
+    <t>Listonosz Pat</t>
+  </si>
+  <si>
+    <t>Power Rangers</t>
+  </si>
+  <si>
+    <t>Powerpuff Girls</t>
+  </si>
+  <si>
+    <t>Atomówki</t>
+  </si>
+  <si>
+    <t>Predator</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Obecny</t>
+  </si>
+  <si>
+    <t>Pride</t>
+  </si>
+  <si>
+    <t>Duma</t>
+  </si>
+  <si>
+    <t>Primate</t>
+  </si>
+  <si>
+    <t>Prymat</t>
+  </si>
+  <si>
+    <t>Princess Mononoke</t>
+  </si>
+  <si>
+    <t>Księżniczka Mononoke</t>
+  </si>
+  <si>
+    <t>Prof Layton</t>
+  </si>
+  <si>
+    <t>Prof. Layton</t>
+  </si>
+  <si>
+    <t>Pumpkin</t>
+  </si>
+  <si>
+    <t>Dynia</t>
+  </si>
+  <si>
+    <t>Pumpkin (Lit)</t>
+  </si>
+  <si>
+    <t>Dynia (Lit)</t>
+  </si>
+  <si>
+    <t>Punctuation Mark</t>
+  </si>
+  <si>
+    <t>Znak interpunkcyjny</t>
+  </si>
+  <si>
+    <t>Quake</t>
+  </si>
+  <si>
+    <t>R.E.P.O.</t>
+  </si>
+  <si>
+    <t>Rabbit</t>
+  </si>
+  <si>
+    <t>Królik</t>
+  </si>
+  <si>
+    <t>Railway</t>
+  </si>
+  <si>
+    <t>Kolej</t>
+  </si>
+  <si>
+    <t>Rain World</t>
+  </si>
+  <si>
+    <t>Ratatouille</t>
+  </si>
+  <si>
+    <t>Ratatuj</t>
+  </si>
+  <si>
+    <t>Ratchet &amp; Clank</t>
+  </si>
+  <si>
+    <t>Re:Creators</t>
+  </si>
+  <si>
+    <t>Re:Twórcy</t>
+  </si>
+  <si>
+    <t>Re:Zero</t>
+  </si>
+  <si>
+    <t>Realm of the Mad God</t>
+  </si>
+  <si>
+    <t>Królestwo Szalonego Boga</t>
+  </si>
+  <si>
+    <t>Red Dead Redemption</t>
+  </si>
+  <si>
+    <t>Red Riding Hood</t>
+  </si>
+  <si>
+    <t>Czerwony Kapturek</t>
+  </si>
+  <si>
+    <t>Redstone</t>
+  </si>
+  <si>
+    <t>Regional Form Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemon w formie regionalnej</t>
+  </si>
+  <si>
+    <t>Regretavator</t>
+  </si>
+  <si>
+    <t>Regular Show</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>Religia</t>
+  </si>
+  <si>
+    <t>Reptile</t>
+  </si>
+  <si>
+    <t>Gad</t>
+  </si>
+  <si>
+    <t>Rescue Rangers</t>
+  </si>
+  <si>
+    <t>Resident Evil</t>
+  </si>
+  <si>
+    <t>Rhythm Heaven</t>
+  </si>
+  <si>
+    <t>Ribbon</t>
+  </si>
+  <si>
+    <t>Wstążka</t>
+  </si>
+  <si>
+    <t>Rick and Morty</t>
+  </si>
+  <si>
+    <t>Rick i Morty</t>
+  </si>
+  <si>
+    <t>Risk of Rain</t>
+  </si>
+  <si>
+    <t>Ryzyko deszczu</t>
+  </si>
+  <si>
+    <t>Rival of Aether</t>
+  </si>
+  <si>
+    <t>Rywal Aether</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>Rzeka</t>
+  </si>
+  <si>
+    <t>Riverdale</t>
+  </si>
+  <si>
+    <t>Robin Hood</t>
+  </si>
+  <si>
+    <t>Roblox</t>
+  </si>
+  <si>
+    <t>RoboCop</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>Rocky</t>
+  </si>
+  <si>
+    <t>Rocky Horror Picture Show</t>
+  </si>
+  <si>
+    <t>Rodent</t>
+  </si>
+  <si>
+    <t>Gryzoń</t>
+  </si>
+  <si>
+    <t>Rotated Entity</t>
+  </si>
+  <si>
+    <t>Obrócony podmiot</t>
+  </si>
+  <si>
+    <t>Royal Headgear</t>
+  </si>
+  <si>
+    <t>Królewskie nakrycie głowy</t>
+  </si>
+  <si>
+    <t>Rune</t>
+  </si>
+  <si>
+    <t>Runa</t>
+  </si>
+  <si>
+    <t>Runescape</t>
+  </si>
+  <si>
+    <t>RWBY</t>
+  </si>
+  <si>
+    <t>Sackboy: A Big Adventure</t>
+  </si>
+  <si>
+    <t>Sackboy: Wielka przygoda</t>
+  </si>
+  <si>
+    <t>Sad Creature</t>
+  </si>
+  <si>
+    <t>Smutne stworzenie</t>
+  </si>
+  <si>
+    <t>Sad Person</t>
+  </si>
+  <si>
+    <t>Smutna osoba</t>
+  </si>
+  <si>
+    <t>Safari (Other)</t>
+  </si>
+  <si>
+    <t>Safari (Inne)</t>
+  </si>
+  <si>
+    <t>Saga of Tanya the Evil</t>
+  </si>
+  <si>
+    <t>Saga o złej Tanyi</t>
+  </si>
+  <si>
+    <t>Sailor Moon</t>
+  </si>
+  <si>
+    <t>Sakurasou no Pet na Kanojo</t>
+  </si>
+  <si>
+    <t>Samurai Helmet</t>
+  </si>
+  <si>
+    <t>Hełm samurajski</t>
+  </si>
+  <si>
+    <t>Satisfactory</t>
+  </si>
+  <si>
+    <t>Zadowalający</t>
+  </si>
+  <si>
+    <t>Saw</t>
+  </si>
+  <si>
+    <t>Piła</t>
+  </si>
+  <si>
+    <t>Scarf</t>
+  </si>
+  <si>
+    <t>Szalik</t>
+  </si>
+  <si>
+    <t>Scooby-Doo</t>
+  </si>
+  <si>
+    <t>SCP Containment Breach</t>
+  </si>
+  <si>
+    <t>Naruszenie ochrony przed SCP</t>
+  </si>
+  <si>
+    <t>Scream</t>
+  </si>
+  <si>
+    <t>Krzyk</t>
+  </si>
+  <si>
+    <t>Scribblenauts</t>
+  </si>
+  <si>
+    <t>Sea of Thieves</t>
+  </si>
+  <si>
+    <t>Seafarer</t>
+  </si>
+  <si>
+    <t>Marynarz</t>
+  </si>
+  <si>
+    <t>Seraph of the End</t>
+  </si>
+  <si>
+    <t>Serial Experiments Lain</t>
+  </si>
+  <si>
+    <t>Sesame Street</t>
+  </si>
+  <si>
+    <t>Ulica Sezamkowa</t>
+  </si>
+  <si>
+    <t>Seven Deadly Sins</t>
+  </si>
+  <si>
+    <t>Siedem grzechów głównych</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
+  </si>
+  <si>
+    <t>Shadows of Mordor</t>
+  </si>
+  <si>
+    <t>Cienie Mordoru</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>Owca</t>
+  </si>
+  <si>
+    <t>Sherlock Holmes</t>
+  </si>
+  <si>
+    <t>Shigatsu wa Kimi no Uso</t>
+  </si>
+  <si>
+    <t>Shimoneta</t>
+  </si>
+  <si>
+    <t>Shiny Pokemon</t>
+  </si>
+  <si>
+    <t>Błyszczący Pokemon</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>Wysyłka</t>
+  </si>
+  <si>
+    <t>Shovel Knight</t>
+  </si>
+  <si>
+    <t>Shrek</t>
+  </si>
+  <si>
+    <t>Shulker</t>
+  </si>
+  <si>
+    <t>Silent Hill</t>
+  </si>
+  <si>
+    <t>SilvaGunner</t>
+  </si>
+  <si>
+    <t>Simpsons</t>
+  </si>
+  <si>
+    <t>Simpsonowie</t>
+  </si>
+  <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
+    <t>Szkielet</t>
+  </si>
+  <si>
+    <t>Skeleton (Vanilla)</t>
+  </si>
+  <si>
+    <t>Szkielet (wanilia)</t>
+  </si>
+  <si>
+    <t>Skeptical Creature</t>
+  </si>
+  <si>
+    <t>Sceptyczne stworzenie</t>
+  </si>
+  <si>
+    <t>Skeptical Person</t>
+  </si>
+  <si>
+    <t>Osoba sceptyczna</t>
+  </si>
+  <si>
+    <t>Skullgirls</t>
+  </si>
+  <si>
+    <t>Skyrim</t>
+  </si>
+  <si>
+    <t>Sleeping Beauty</t>
+  </si>
+  <si>
+    <t>Śpiąca Królewna</t>
+  </si>
+  <si>
+    <t>Sleeping Creature</t>
+  </si>
+  <si>
+    <t>Śpiąca istota</t>
+  </si>
+  <si>
+    <t>Sleeping Person</t>
+  </si>
+  <si>
+    <t>Osoba śpiąca</t>
+  </si>
+  <si>
+    <t>Sliced</t>
+  </si>
+  <si>
+    <t>W plasterkach</t>
+  </si>
+  <si>
+    <t>Slime</t>
+  </si>
+  <si>
+    <t>Szlam</t>
+  </si>
+  <si>
+    <t>Slime (Vanilla)</t>
+  </si>
+  <si>
+    <t>Slime (wanilia)</t>
+  </si>
+  <si>
+    <t>Slime Rancher</t>
+  </si>
+  <si>
+    <t>Slimefun</t>
+  </si>
+  <si>
+    <t>Sly Cooper</t>
+  </si>
+  <si>
+    <t>Smite Gods</t>
+  </si>
+  <si>
+    <t>Smoking</t>
+  </si>
+  <si>
+    <t>Palenie</t>
+  </si>
+  <si>
+    <t>Smurfs</t>
+  </si>
+  <si>
+    <t>Smerfy</t>
+  </si>
+  <si>
+    <t>Snow Fight</t>
+  </si>
+  <si>
+    <t>Walka na śnieżki</t>
+  </si>
+  <si>
+    <t>Snow Sculpture</t>
+  </si>
+  <si>
+    <t>Rzeźba w śniegu</t>
+  </si>
+  <si>
+    <t>Snow White and the Seven Dwarfs</t>
+  </si>
+  <si>
+    <t>Królewna Śnieżka i siedmiu krasnoludków</t>
+  </si>
+  <si>
+    <t>Songs of War</t>
+  </si>
+  <si>
+    <t>Pieśni wojny</t>
+  </si>
+  <si>
+    <t>Sonic the Hedgehog</t>
+  </si>
+  <si>
+    <t>Soul Knight</t>
+  </si>
+  <si>
+    <t>South Park</t>
+  </si>
+  <si>
+    <t>Space Travel</t>
+  </si>
+  <si>
+    <t>Podróże kosmiczne</t>
+  </si>
+  <si>
+    <t>Spawn Egg</t>
+  </si>
+  <si>
+    <t>Spawner</t>
+  </si>
+  <si>
+    <t>Spelunky</t>
+  </si>
+  <si>
+    <t>Spider</t>
+  </si>
+  <si>
+    <t>Pająk</t>
+  </si>
+  <si>
+    <t>Spider (Vanilla)</t>
+  </si>
+  <si>
+    <t>Spiderman</t>
+  </si>
+  <si>
+    <t>Spirited Away</t>
+  </si>
+  <si>
+    <t>Splatoon</t>
+  </si>
+  <si>
+    <t>Spongebob Squarepants</t>
+  </si>
+  <si>
+    <t>Spongebob Kanciastoporty</t>
+  </si>
+  <si>
+    <t>Spooky's Jump Scare Mansion</t>
+  </si>
+  <si>
+    <t>Rezydencja strachów Spooky's Jump</t>
+  </si>
+  <si>
+    <t>Spore</t>
+  </si>
+  <si>
+    <t>Zarodnik</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>Spreads</t>
+  </si>
+  <si>
+    <t>Spready</t>
+  </si>
+  <si>
+    <t>Spring to Life</t>
+  </si>
+  <si>
+    <t>Wiosna do życia</t>
+  </si>
+  <si>
+    <t>Spy x Family</t>
+  </si>
+  <si>
+    <t>Szpieg x rodzina</t>
+  </si>
+  <si>
+    <t>Spyro</t>
+  </si>
+  <si>
+    <t>Squid Game</t>
+  </si>
+  <si>
+    <t>St. Patrick's Day</t>
+  </si>
+  <si>
+    <t>Dzień Świętego Patryka</t>
+  </si>
+  <si>
+    <t>StackUp</t>
+  </si>
+  <si>
+    <t>Star Fox</t>
+  </si>
+  <si>
+    <t>Star Trek</t>
+  </si>
+  <si>
+    <t>Star vs the Forces of Evil</t>
+  </si>
+  <si>
+    <t>Gwiazda kontra siły zła</t>
+  </si>
+  <si>
+    <t>Star Wars</t>
+  </si>
+  <si>
+    <t>Gwiezdne wojny</t>
+  </si>
+  <si>
+    <t>Star Wars Helmet</t>
+  </si>
+  <si>
+    <t>Hełm Star Wars</t>
+  </si>
+  <si>
+    <t>Star Wars Trooper Helmet</t>
+  </si>
+  <si>
+    <t>Hełm żołnierza Gwiezdnych Wojen</t>
+  </si>
+  <si>
+    <t>Starbucks</t>
+  </si>
+  <si>
+    <t>StarCraft</t>
+  </si>
+  <si>
+    <t>Stardew Valley</t>
+  </si>
+  <si>
+    <t>Starter Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemon startowy</t>
+  </si>
+  <si>
+    <t>Stationery</t>
+  </si>
+  <si>
+    <t>Artykuły papiernicze</t>
+  </si>
+  <si>
+    <t>Steampunk</t>
+  </si>
+  <si>
+    <t>Steins;Gate</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>Steven Universe</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>Kamień</t>
+  </si>
+  <si>
+    <t>Storage (other)</t>
+  </si>
+  <si>
+    <t>Przechowywanie (inne)</t>
+  </si>
+  <si>
+    <t>Stranger Things</t>
+  </si>
+  <si>
+    <t>Street Fighter</t>
+  </si>
+  <si>
+    <t>Strider</t>
+  </si>
+  <si>
+    <t>Subnautica</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>Lato</t>
+  </si>
+  <si>
+    <t>Sunglasses</t>
+  </si>
+  <si>
+    <t>Okulary przeciwsłoneczne</t>
+  </si>
+  <si>
+    <t>Super Mario</t>
+  </si>
+  <si>
+    <t>Supernatural</t>
+  </si>
+  <si>
+    <t>Surprised Creature</t>
+  </si>
+  <si>
+    <t>Zaskoczona istota</t>
+  </si>
+  <si>
+    <t>Surprised Person</t>
+  </si>
+  <si>
+    <t>Zaskoczona osoba</t>
+  </si>
+  <si>
+    <t>Sushi</t>
+  </si>
+  <si>
+    <t>Swamp</t>
+  </si>
+  <si>
+    <t>Bagno</t>
+  </si>
+  <si>
+    <t>Sword Art Online</t>
+  </si>
+  <si>
+    <t>TaleSpin</t>
+  </si>
+  <si>
+    <t>Tangled</t>
+  </si>
+  <si>
+    <t>Zaplątani</t>
+  </si>
+  <si>
+    <t>Tattletail</t>
+  </si>
+  <si>
+    <t>Team Fortress 2</t>
+  </si>
+  <si>
+    <t>Teletubbies</t>
+  </si>
+  <si>
+    <t>Teletubisie</t>
+  </si>
+  <si>
+    <t>Terraria</t>
+  </si>
+  <si>
+    <t>Terraria (Calamity)</t>
+  </si>
+  <si>
+    <t>Tetris</t>
+  </si>
+  <si>
+    <t>Thanksgiving</t>
+  </si>
+  <si>
+    <t>Święto Dziękczynienia</t>
+  </si>
+  <si>
+    <t>That Time I Got Reincarnated as a Slime</t>
+  </si>
+  <si>
+    <t>Tym razem reinkarnowałem się jako szlam</t>
+  </si>
+  <si>
+    <t>Thaumcraft</t>
+  </si>
+  <si>
+    <t>The Adventures of Tintin</t>
+  </si>
+  <si>
+    <t>Przygody Tintina</t>
+  </si>
+  <si>
+    <t>The Amazing Digital Circus</t>
+  </si>
+  <si>
+    <t>Niesamowity cyfrowy cyrk</t>
+  </si>
+  <si>
+    <t>The Amazing World of Gumball</t>
+  </si>
+  <si>
+    <t>Niesamowity świat Gumballa</t>
+  </si>
+  <si>
+    <t>The Binding of Isaac</t>
+  </si>
+  <si>
+    <t>The Boys</t>
+  </si>
+  <si>
+    <t>Chłopcy</t>
+  </si>
+  <si>
+    <t>The Cat Returns</t>
+  </si>
+  <si>
+    <t>Kot powraca</t>
+  </si>
+  <si>
+    <t>The Conjuring</t>
+  </si>
+  <si>
+    <t>The Copper Age</t>
+  </si>
+  <si>
+    <t>Epoka miedzi</t>
+  </si>
+  <si>
+    <t>The Emperor's New Groove</t>
+  </si>
+  <si>
+    <t>The English Ensemble Stars</t>
+  </si>
+  <si>
+    <t>Gwiazdy angielskiego zespołu</t>
+  </si>
+  <si>
+    <t>The Fairly OddParents</t>
+  </si>
+  <si>
+    <t>The Finals</t>
+  </si>
+  <si>
+    <t>Finały</t>
+  </si>
+  <si>
+    <t>The Flash</t>
+  </si>
+  <si>
+    <t>The Flintstones</t>
+  </si>
+  <si>
+    <t>Flintstonowie</t>
+  </si>
+  <si>
+    <t>The Fly</t>
+  </si>
+  <si>
+    <t>Mucha</t>
+  </si>
+  <si>
+    <t>The Garden Awakens</t>
+  </si>
+  <si>
+    <t>Ogród budzi się</t>
+  </si>
+  <si>
+    <t>The Good Dinosaur</t>
+  </si>
+  <si>
+    <t>Dobry dinozaur</t>
+  </si>
+  <si>
+    <t>The Great Mouse Detective</t>
+  </si>
+  <si>
+    <t>Wielki mysi detektyw</t>
+  </si>
+  <si>
+    <t>The Grim Adventures of Billy &amp; Mandy</t>
+  </si>
+  <si>
+    <t>Ponure przygody Billy'ego i Mandy</t>
+  </si>
+  <si>
+    <t>The Hunchback of Notre Dame</t>
+  </si>
+  <si>
+    <t>Garbus z Notre Dame</t>
+  </si>
+  <si>
+    <t>The Iron Giant</t>
+  </si>
+  <si>
+    <t>Żelazny gigant</t>
+  </si>
+  <si>
+    <t>The Last Guardian</t>
+  </si>
+  <si>
+    <t>The Last of Us</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda</t>
+  </si>
+  <si>
+    <t>The Lorax</t>
+  </si>
+  <si>
+    <t>Lorax</t>
+  </si>
+  <si>
+    <t>The Neverhood</t>
+  </si>
+  <si>
+    <t>The Owl House</t>
+  </si>
+  <si>
+    <t>The Princess and the Frog</t>
+  </si>
+  <si>
+    <t>Księżniczka i żaba</t>
+  </si>
+  <si>
+    <t>The Ren &amp; Stimpy Show</t>
+  </si>
+  <si>
+    <t>Ren &amp; Stimpy Show</t>
+  </si>
+  <si>
+    <t>The Road to El Dorado</t>
+  </si>
+  <si>
+    <t>Droga do El Dorado</t>
+  </si>
+  <si>
+    <t>The Texas Chainsaw Massacre</t>
+  </si>
+  <si>
+    <t>Teksańska masakra piłą łańcuchową</t>
+  </si>
+  <si>
+    <t>The Three Caballeros</t>
+  </si>
+  <si>
+    <t>Trzej Caballeros</t>
+  </si>
+  <si>
+    <t>The Walten Files</t>
+  </si>
+  <si>
+    <t>The Woody Woodpecker Show</t>
+  </si>
+  <si>
+    <t>Thomas &amp; Friends</t>
+  </si>
+  <si>
+    <t>Thor</t>
+  </si>
+  <si>
+    <t>Those Nights at Rachel's</t>
+  </si>
+  <si>
+    <t>Te noce u Rachel</t>
+  </si>
+  <si>
+    <t>Tinker's Construct</t>
+  </si>
+  <si>
+    <t>Titanfall</t>
+  </si>
+  <si>
+    <t>Tokyo Ghoul</t>
+  </si>
+  <si>
+    <t>Tom and Jerry</t>
+  </si>
+  <si>
+    <t>Tom i Jerry</t>
+  </si>
+  <si>
+    <t>Tomb Raider</t>
+  </si>
+  <si>
+    <t>Tomorrow's Pioneers</t>
+  </si>
+  <si>
+    <t>Pionierzy jutra</t>
+  </si>
+  <si>
+    <t>Tooth Gap</t>
+  </si>
+  <si>
+    <t>Szczelina między zębami</t>
+  </si>
+  <si>
+    <t>Toradora</t>
+  </si>
+  <si>
+    <t>Total Drama Island</t>
+  </si>
+  <si>
+    <t>Touhou Project</t>
+  </si>
+  <si>
+    <t>Projekt Touhou</t>
+  </si>
+  <si>
+    <t>Toy</t>
+  </si>
+  <si>
+    <t>Zabawka</t>
+  </si>
+  <si>
+    <t>Toy Story</t>
+  </si>
+  <si>
+    <t>Traffic</t>
+  </si>
+  <si>
+    <t>Ruch drogowy</t>
+  </si>
+  <si>
+    <t>Traffic Light</t>
+  </si>
+  <si>
+    <t>Sygnalizacja świetlna</t>
+  </si>
+  <si>
+    <t>Traffic Sign</t>
+  </si>
+  <si>
+    <t>Znak drogowy</t>
+  </si>
+  <si>
+    <t>Trails and Tales</t>
+  </si>
+  <si>
+    <t>Szlaki i opowieści</t>
+  </si>
+  <si>
+    <t>Transformers</t>
+  </si>
+  <si>
+    <t>Transformice</t>
+  </si>
+  <si>
+    <t>Transparent Head</t>
+  </si>
+  <si>
+    <t>Przezroczysta głowica</t>
+  </si>
+  <si>
+    <t>Trash Can</t>
+  </si>
+  <si>
+    <t>Kosz na śmieci</t>
+  </si>
+  <si>
+    <t>Treasure</t>
+  </si>
+  <si>
+    <t>Skarb</t>
+  </si>
+  <si>
+    <t>Treasure Planet</t>
+  </si>
+  <si>
+    <t>Tricky Trials Update</t>
+  </si>
+  <si>
+    <t>Aktualizacja Tricky Trials</t>
+  </si>
+  <si>
+    <t>Tron</t>
+  </si>
+  <si>
+    <t>Turtle</t>
+  </si>
+  <si>
+    <t>Żółw</t>
+  </si>
+  <si>
+    <t>Twilight Forest</t>
+  </si>
+  <si>
+    <t>Twisted Wonderland</t>
+  </si>
+  <si>
+    <t>Ultrakill</t>
+  </si>
+  <si>
+    <t>Umineko - When They Cry</t>
+  </si>
+  <si>
+    <t>Undertale</t>
+  </si>
+  <si>
+    <t>Undertale AU</t>
+  </si>
+  <si>
+    <t>Undertale Yellow</t>
+  </si>
+  <si>
+    <t>Universal Symbol</t>
+  </si>
+  <si>
+    <t>Symbol uniwersalny</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>W górę</t>
+  </si>
+  <si>
+    <t>Urban Wildlife</t>
+  </si>
+  <si>
+    <t>Miejska dzika przyroda</t>
+  </si>
+  <si>
+    <t>V for Vendetta</t>
+  </si>
+  <si>
+    <t>V jak Vendetta</t>
+  </si>
+  <si>
+    <t>Valentines</t>
+  </si>
+  <si>
+    <t>Walentynki</t>
+  </si>
+  <si>
+    <t>Valorant</t>
+  </si>
+  <si>
+    <t>Vanilla (removed)</t>
+  </si>
+  <si>
+    <t>Wanilia (usunięta)</t>
+  </si>
+  <si>
+    <t>Vanilla Block</t>
+  </si>
+  <si>
+    <t>Vanilla Food</t>
+  </si>
+  <si>
+    <t>Vanilla Helmet</t>
+  </si>
+  <si>
+    <t>Kask waniliowy</t>
+  </si>
+  <si>
+    <t>Vanilla Item</t>
+  </si>
+  <si>
+    <t>Vanilla Mob</t>
+  </si>
+  <si>
+    <t>Vault Hunters</t>
+  </si>
+  <si>
+    <t>Vegetable</t>
+  </si>
+  <si>
+    <t>Warzywo</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>Pojazd</t>
+  </si>
+  <si>
+    <t>Vikings</t>
+  </si>
+  <si>
+    <t>Wikingowie</t>
+  </si>
+  <si>
+    <t>Villager</t>
+  </si>
+  <si>
+    <t>Wieśniak</t>
+  </si>
+  <si>
+    <t>Villager (Desert)</t>
+  </si>
+  <si>
+    <t>Wieśniak (Pustynia)</t>
+  </si>
+  <si>
+    <t>Villager (Jungle)</t>
+  </si>
+  <si>
+    <t>Wieśniak (dżungla)</t>
+  </si>
+  <si>
+    <t>Villager (Plains)</t>
+  </si>
+  <si>
+    <t>Wieśniak (równiny)</t>
+  </si>
+  <si>
+    <t>Villager (Savanna)</t>
+  </si>
+  <si>
+    <t>Wieśniak (Savanna)</t>
+  </si>
+  <si>
+    <t>Villager (Snowy Tundra)</t>
+  </si>
+  <si>
+    <t>Wieśniak (Śnieżna Tundra)</t>
+  </si>
+  <si>
+    <t>Villager (Swamp)</t>
+  </si>
+  <si>
+    <t>Wieśniak (Bagna)</t>
+  </si>
+  <si>
+    <t>Villager (Taiga)</t>
+  </si>
+  <si>
+    <t>Wieśniak (Tajga)</t>
+  </si>
+  <si>
+    <t>Virtual Youtuber</t>
+  </si>
+  <si>
+    <t>Wirtualny youtuber</t>
+  </si>
+  <si>
+    <t>Vocaloid</t>
+  </si>
+  <si>
+    <t>Voltron</t>
+  </si>
+  <si>
+    <t>Wakfu</t>
+  </si>
+  <si>
+    <t>Walking Dead</t>
+  </si>
+  <si>
+    <t>Wall-E</t>
+  </si>
+  <si>
+    <t>Wallace and Gromit</t>
+  </si>
+  <si>
+    <t>Wallace i Gromit</t>
+  </si>
+  <si>
+    <t>War of the Worlds</t>
+  </si>
+  <si>
+    <t>Wojna światów</t>
+  </si>
+  <si>
+    <t>Warcraft</t>
+  </si>
+  <si>
+    <t>Warframe</t>
+  </si>
+  <si>
+    <t>Warhammer</t>
+  </si>
+  <si>
+    <t>Warrior Cats</t>
+  </si>
+  <si>
+    <t>Wojownicze koty</t>
+  </si>
+  <si>
+    <t>We Bear Bears</t>
+  </si>
+  <si>
+    <t>We Happy Few</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>Pogoda</t>
+  </si>
+  <si>
+    <t>Welcome Home</t>
+  </si>
+  <si>
+    <t>Witamy w domu</t>
+  </si>
+  <si>
+    <t>Who is this?</t>
+  </si>
+  <si>
+    <t>Kto to jest?</t>
+  </si>
+  <si>
+    <t>Wild Update</t>
+  </si>
+  <si>
+    <t>Dzika aktualizacja</t>
+  </si>
+  <si>
+    <t>Wings of Fire</t>
+  </si>
+  <si>
+    <t>Skrzydła ognia</t>
+  </si>
+  <si>
+    <t>Winnie the Pooh</t>
+  </si>
+  <si>
+    <t>Kubuś Puchatek</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>Zima</t>
+  </si>
+  <si>
+    <t>Witcher</t>
+  </si>
+  <si>
+    <t>Wiedźmin</t>
+  </si>
+  <si>
+    <t>Wonderful Wonder World</t>
+  </si>
+  <si>
+    <t>Wspaniały cudowny świat</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Drewno</t>
+  </si>
+  <si>
+    <t>Wool</t>
+  </si>
+  <si>
+    <t>Wełna</t>
+  </si>
+  <si>
+    <t>Work Safety Helmet</t>
+  </si>
+  <si>
+    <t>Kask ochronny</t>
+  </si>
+  <si>
+    <t>Wreck It Ralph</t>
+  </si>
+  <si>
+    <t>Wybel</t>
+  </si>
+  <si>
+    <t>Wynncraft</t>
+  </si>
+  <si>
+    <t>X-Men</t>
+  </si>
+  <si>
+    <t>Xenoblade Chronicles</t>
+  </si>
+  <si>
+    <t>Yandere Simulator</t>
+  </si>
+  <si>
+    <t>Symulator Yandere</t>
+  </si>
+  <si>
+    <t>Yellow Submarine</t>
+  </si>
+  <si>
+    <t>Żółta łódź podwodna</t>
+  </si>
+  <si>
+    <t>Yokai</t>
+  </si>
+  <si>
+    <t>Yooka Laylee</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Młody</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>YouTube</t>
+  </si>
+  <si>
+    <t>Yu-Gi-Oh</t>
+  </si>
+  <si>
+    <t>Yume Nikki</t>
+  </si>
+  <si>
+    <t>Zero no Tsukaima</t>
+  </si>
+  <si>
+    <t>Zero Wing</t>
+  </si>
+  <si>
+    <t>Zodiac Sign</t>
+  </si>
+  <si>
+    <t>Znak zodiaku</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>Zombie (Vanilla)</t>
+  </si>
+  <si>
+    <t>Zombie (wanilia)</t>
+  </si>
+  <si>
+    <t>Zootopia</t>
+  </si>
+  <si>
     <t>Hypixel (Mutations) Tag</t>
   </si>
   <si>
     <t>Znacznik Hypixel (Mutacje)</t>
-  </si>
-  <si>
-    <t>Hypixel (NPC)</t>
-  </si>
-  <si>
-    <t>Hypixel (Pets)</t>
-  </si>
-  <si>
-    <t>Hypixel (Zwierzęta)</t>
-  </si>
-  <si>
-    <t>Hypixel (Reforge Stone)</t>
-  </si>
-  <si>
-    <t>Hypixel (kamień przekucia)</t>
-  </si>
-  <si>
-    <t>Hypixel (Sacks)</t>
-  </si>
-  <si>
-    <t>Hypixel (Skins)</t>
-  </si>
-  <si>
-    <t>Hypixel (skórki)</t>
-  </si>
-  <si>
-    <t>Hypixel (Talismans)</t>
-  </si>
-  <si>
-    <t>Hypixel (talizmany)</t>
-  </si>
-  <si>
-    <t>Hypixel (Trophy Fish)</t>
-  </si>
-  <si>
-    <t>Hōseki no Kuni (Land of the Lustrous)</t>
-  </si>
-  <si>
-    <t>Hōseki no Kuni (Kraina Lustrous)</t>
-  </si>
-  <si>
-    <t>Ib</t>
-  </si>
-  <si>
-    <t>Ice Age</t>
-  </si>
-  <si>
-    <t>Epoka lodowcowa</t>
-  </si>
-  <si>
-    <t>Ice Climber</t>
-  </si>
-  <si>
-    <t>Wspinacz lodowy</t>
-  </si>
-  <si>
-    <t>Ice Cream</t>
-  </si>
-  <si>
-    <t>Lody</t>
-  </si>
-  <si>
-    <t>Icons (GUI)</t>
-  </si>
-  <si>
-    <t>Ikony (GUI)</t>
-  </si>
-  <si>
-    <t>Icons (Ironblock)</t>
-  </si>
-  <si>
-    <t>Ikony (Ironblock)</t>
-  </si>
-  <si>
-    <t>Icons (Other)</t>
-  </si>
-  <si>
-    <t>Ikony (Inne)</t>
-  </si>
-  <si>
-    <t>Icons (white background)</t>
-  </si>
-  <si>
-    <t>Ikony (białe tło)</t>
-  </si>
-  <si>
-    <t>Identity V</t>
-  </si>
-  <si>
-    <t>Tożsamość V</t>
-  </si>
-  <si>
-    <t>Illager</t>
-  </si>
-  <si>
-    <t>Inazuma Eleven</t>
-  </si>
-  <si>
-    <t>Incredibles</t>
-  </si>
-  <si>
-    <t>Iniemamocni</t>
-  </si>
-  <si>
-    <t>Indiana Jones</t>
-  </si>
-  <si>
-    <t>Indigo Park</t>
-  </si>
-  <si>
-    <t>Injuries</t>
-  </si>
-  <si>
-    <t>Urazy</t>
-  </si>
-  <si>
-    <t>Inner Layer Block</t>
-  </si>
-  <si>
-    <t>Blok warstwy wewnętrznej</t>
-  </si>
-  <si>
-    <t>Inscryption</t>
-  </si>
-  <si>
-    <t>Szyfrowanie</t>
-  </si>
-  <si>
-    <t>Insect</t>
-  </si>
-  <si>
-    <t>Owad</t>
-  </si>
-  <si>
-    <t>Inside Out</t>
-  </si>
-  <si>
-    <t>Inu Yasha</t>
-  </si>
-  <si>
-    <t>Invader Zim</t>
-  </si>
-  <si>
-    <t>Invincible</t>
-  </si>
-  <si>
-    <t>Niezwyciężony</t>
-  </si>
-  <si>
-    <t>Iron Man</t>
-  </si>
-  <si>
-    <t>It</t>
-  </si>
-  <si>
-    <t>To</t>
-  </si>
-  <si>
-    <t>Jak and Daxter</t>
-  </si>
-  <si>
-    <t>Jak i Daxter</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Japonia</t>
-  </si>
-  <si>
-    <t>Jar</t>
-  </si>
-  <si>
-    <t>Słoik</t>
-  </si>
-  <si>
-    <t>Jewelry</t>
-  </si>
-  <si>
-    <t>Biżuteria</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure (Stand)</t>
-  </si>
-  <si>
-    <t>Journey</t>
-  </si>
-  <si>
-    <t>Podróż</t>
-  </si>
-  <si>
-    <t>Jujutsu Kaisen</t>
-  </si>
-  <si>
-    <t>Jump King</t>
-  </si>
-  <si>
-    <t>Jurassic Park</t>
-  </si>
-  <si>
-    <t>Park Jurajski</t>
-  </si>
-  <si>
-    <t>Justice League</t>
-  </si>
-  <si>
-    <t>Liga Sprawiedliwości</t>
-  </si>
-  <si>
-    <t>Kaiju Paradise</t>
-  </si>
-  <si>
-    <t>Kakegurui</t>
-  </si>
-  <si>
-    <t>Karate Kid</t>
-  </si>
-  <si>
-    <t>Katamari Damacy</t>
-  </si>
-  <si>
-    <t>Kid Icarus</t>
-  </si>
-  <si>
-    <t>Kiki's Delivery Service</t>
-  </si>
-  <si>
-    <t>Kill la Kill</t>
-  </si>
-  <si>
-    <t>Killzone</t>
-  </si>
-  <si>
-    <t>Kim Possible</t>
-  </si>
-  <si>
-    <t>Kimetsu no Yaiba</t>
-  </si>
-  <si>
-    <t>Kingdom Hearts</t>
-  </si>
-  <si>
-    <t>Kirby</t>
-  </si>
-  <si>
-    <t>Kitchen</t>
-  </si>
-  <si>
-    <t>Kuchnia</t>
-  </si>
-  <si>
-    <t>KonoSuba</t>
-  </si>
-  <si>
-    <t>Koopalings</t>
-  </si>
-  <si>
-    <t>Koopalingi</t>
-  </si>
-  <si>
-    <t>Kung Fu Panda</t>
-  </si>
-  <si>
-    <t>Kuroko no Basuke</t>
-  </si>
-  <si>
-    <t>Lamp Shade</t>
-  </si>
-  <si>
-    <t>Klosz lampy</t>
-  </si>
-  <si>
-    <t>Landscape</t>
-  </si>
-  <si>
-    <t>Krajobraz</t>
-  </si>
-  <si>
-    <t>Lantern</t>
-  </si>
-  <si>
-    <t>Latarnia</t>
-  </si>
-  <si>
-    <t>Laputa: Castle in the Sky</t>
-  </si>
-  <si>
-    <t>Laputa: Zamek na niebie</t>
-  </si>
-  <si>
-    <t>LazyTown</t>
-  </si>
-  <si>
-    <t>League of Legends</t>
-  </si>
-  <si>
-    <t>Left 4 Dead</t>
-  </si>
-  <si>
-    <t>Legendary Pokemon</t>
-  </si>
-  <si>
-    <t>Legendarny Pokemon</t>
-  </si>
-  <si>
-    <t>Lego</t>
-  </si>
-  <si>
-    <t>Lethal League</t>
-  </si>
-  <si>
-    <t>Library of Ruina</t>
-  </si>
-  <si>
-    <t>Biblioteka Ruina</t>
-  </si>
-  <si>
-    <t>Life is Strange</t>
-  </si>
-  <si>
-    <t>Lilo &amp; Stitch</t>
-  </si>
-  <si>
-    <t>Limbus Company</t>
-  </si>
-  <si>
-    <t>Lion King</t>
-  </si>
-  <si>
-    <t>Król Lew</t>
-  </si>
-  <si>
-    <t>Little Big Planet</t>
-  </si>
-  <si>
-    <t>Little Mermaid</t>
-  </si>
-  <si>
-    <t>Mała Syrenka</t>
-  </si>
-  <si>
-    <t>Little Nightmares</t>
-  </si>
-  <si>
-    <t>Małe koszmary</t>
-  </si>
-  <si>
-    <t>Little Shop of Horrors</t>
-  </si>
-  <si>
-    <t>Little Witch Academia</t>
-  </si>
-  <si>
-    <t>Llama</t>
-  </si>
-  <si>
-    <t>Logo</t>
-  </si>
-  <si>
-    <t>Looney Tunes</t>
-  </si>
-  <si>
-    <t>Lord of the Rings</t>
-  </si>
-  <si>
-    <t>Władca Pierścieni</t>
-  </si>
-  <si>
-    <t>Love Live!</t>
-  </si>
-  <si>
-    <t>Lovestruck Creature</t>
-  </si>
-  <si>
-    <t>Zakochana istota</t>
-  </si>
-  <si>
-    <t>Lovestruck Person</t>
-  </si>
-  <si>
-    <t>Zakochana osoba</t>
-  </si>
-  <si>
-    <t>Lucky Luke</t>
-  </si>
-  <si>
-    <t>Machine Part</t>
-  </si>
-  <si>
-    <t>Część maszynowa</t>
-  </si>
-  <si>
-    <t>Mad Father</t>
-  </si>
-  <si>
-    <t>Szalony ojciec</t>
-  </si>
-  <si>
-    <t>Mad Max</t>
-  </si>
-  <si>
-    <t>Made in Abyss</t>
-  </si>
-  <si>
-    <t>Madness Combat</t>
-  </si>
-  <si>
-    <t>Madoka Magica</t>
-  </si>
-  <si>
-    <t>Makeup</t>
-  </si>
-  <si>
-    <t>Makijaż</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Mężczyzna</t>
-  </si>
-  <si>
-    <t>Mao Mao Heroes of Pure Heart</t>
-  </si>
-  <si>
-    <t>Mao Mao Bohaterowie Czystego Serca</t>
-  </si>
-  <si>
-    <t>MapleStory</t>
-  </si>
-  <si>
-    <t>Marvel</t>
-  </si>
-  <si>
-    <t>Mary and the Witch's Flower</t>
-  </si>
-  <si>
-    <t>Mary i kwiat czarownicy</t>
-  </si>
-  <si>
-    <t>Mascot</t>
-  </si>
-  <si>
-    <t>Maskotka</t>
-  </si>
-  <si>
-    <t>Mask</t>
-  </si>
-  <si>
-    <t>Maska</t>
-  </si>
-  <si>
-    <t>Mask (full)</t>
-  </si>
-  <si>
-    <t>Maska (pełna)</t>
-  </si>
-  <si>
-    <t>Mask (functional)</t>
-  </si>
-  <si>
-    <t>Maska (funkcjonalna)</t>
-  </si>
-  <si>
-    <t>Mask (health)</t>
-  </si>
-  <si>
-    <t>Maska (zdrowie)</t>
-  </si>
-  <si>
-    <t>Mask (Minecraft mob)</t>
-  </si>
-  <si>
-    <t>Maska (mob w grze Minecraft)</t>
-  </si>
-  <si>
-    <t>Mass Effect</t>
-  </si>
-  <si>
-    <t>Masters of the Universe</t>
-  </si>
-  <si>
-    <t>Mathematical Symbol</t>
-  </si>
-  <si>
-    <t>Symbol matematyczny</t>
-  </si>
-  <si>
-    <t>Mc Donalds</t>
-  </si>
-  <si>
-    <t>Meal</t>
-  </si>
-  <si>
-    <t>Posiłek</t>
-  </si>
-  <si>
-    <t>Meat</t>
-  </si>
-  <si>
-    <t>Mięso</t>
-  </si>
-  <si>
-    <t>Medieval</t>
-  </si>
-  <si>
-    <t>Średniowiecze</t>
-  </si>
-  <si>
-    <t>Medieval Tavern</t>
-  </si>
-  <si>
-    <t>Średniowieczna tawerna</t>
-  </si>
-  <si>
-    <t>Medieval Warfare Helmet</t>
-  </si>
-  <si>
-    <t>Średniowieczny hełm wojenny</t>
-  </si>
-  <si>
-    <t>MediEvil</t>
-  </si>
-  <si>
-    <t>Mega Evolution</t>
-  </si>
-  <si>
-    <t>Megaman</t>
-  </si>
-  <si>
-    <t>Megami Tensei</t>
-  </si>
-  <si>
-    <t>Mekakucity Actors</t>
-  </si>
-  <si>
-    <t>Aktorzy Mekakucity</t>
-  </si>
-  <si>
-    <t>Meme</t>
-  </si>
-  <si>
-    <t>Meme (Doge)</t>
-  </si>
-  <si>
-    <t>Meme (Pepe)</t>
-  </si>
-  <si>
-    <t>Metal</t>
-  </si>
-  <si>
-    <t>Metal Gear</t>
-  </si>
-  <si>
-    <t>Metro</t>
-  </si>
-  <si>
-    <t>Metroid</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>Meksyk</t>
-  </si>
-  <si>
-    <t>Mickey Mouse</t>
-  </si>
-  <si>
-    <t>Myszka Miki</t>
-  </si>
-  <si>
-    <t>Military Equipment</t>
-  </si>
-  <si>
-    <t>Sprzęt wojskowy</t>
-  </si>
-  <si>
-    <t>Minecraft April Fools</t>
-  </si>
-  <si>
-    <t>Prima aprilis w Minecrafcie</t>
-  </si>
-  <si>
-    <t>Minecraft Bedrock Edition</t>
-  </si>
-  <si>
-    <t>Minecraft Dungeons</t>
-  </si>
-  <si>
-    <t>Lochy Minecraft</t>
-  </si>
-  <si>
-    <t>Minecraft Earth</t>
-  </si>
-  <si>
-    <t>Minecraft Education Edition</t>
-  </si>
-  <si>
-    <t>Minecraft Legends</t>
-  </si>
-  <si>
-    <t>Minecraft Live</t>
-  </si>
-  <si>
-    <t>Minecraft na żywo</t>
-  </si>
-  <si>
-    <t>Minecraft Movie</t>
-  </si>
-  <si>
-    <t>Minecraft Story Mode</t>
-  </si>
-  <si>
-    <t>Miner</t>
-  </si>
-  <si>
-    <t>Górnik</t>
-  </si>
-  <si>
-    <t>Minesweeper</t>
-  </si>
-  <si>
-    <t>Saper</t>
-  </si>
-  <si>
-    <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
-  </si>
-  <si>
-    <t>Miraculous: Opowieści o biedronce i kocie noir</t>
-  </si>
-  <si>
-    <t>Mirai Nikki (Future Diary)</t>
-  </si>
-  <si>
-    <t>Mirai Nikki (Dziennik przyszłości)</t>
-  </si>
-  <si>
-    <t>Mirror's Edge</t>
-  </si>
-  <si>
-    <t>Miss Kobayashi's Dragon Maid</t>
-  </si>
-  <si>
-    <t>Smocza pokojówka panny Kobayashi</t>
-  </si>
-  <si>
-    <t>Mizuno's Resource Pack</t>
-  </si>
-  <si>
-    <t>Pakiet zasobów Mizuno</t>
-  </si>
-  <si>
-    <t>Moana</t>
-  </si>
-  <si>
-    <t>Modern Warfare Helmet</t>
-  </si>
-  <si>
-    <t>Kask Modern Warfare</t>
-  </si>
-  <si>
-    <t>Money</t>
-  </si>
-  <si>
-    <t>Pieniądze</t>
-  </si>
-  <si>
-    <t>Money Heist</t>
-  </si>
-  <si>
-    <t>Napad na pieniądze</t>
-  </si>
-  <si>
-    <t>Monitor</t>
-  </si>
-  <si>
-    <t>Monkey Island</t>
-  </si>
-  <si>
-    <t>Monocle</t>
-  </si>
-  <si>
-    <t>Monster High</t>
-  </si>
-  <si>
-    <t>Monster Hunter</t>
-  </si>
-  <si>
-    <t>Monsters Inc</t>
-  </si>
-  <si>
-    <t>Moomin</t>
-  </si>
-  <si>
-    <t>Mortal Kombat</t>
-  </si>
-  <si>
-    <t>Mounts of Mayhem</t>
-  </si>
-  <si>
-    <t>Mouthwashing</t>
-  </si>
-  <si>
-    <t>Płyn do płukania ust</t>
-  </si>
-  <si>
-    <t>Mr. Bean</t>
-  </si>
-  <si>
-    <t>Mulan</t>
-  </si>
-  <si>
-    <t>Mundo Gaturro</t>
-  </si>
-  <si>
-    <t>Muppets</t>
-  </si>
-  <si>
-    <t>Muppety</t>
-  </si>
-  <si>
-    <t>Murder Drones</t>
-  </si>
-  <si>
-    <t>Mordercze drony</t>
-  </si>
-  <si>
-    <t>Mushroom</t>
-  </si>
-  <si>
-    <t>Grzyb</t>
-  </si>
-  <si>
-    <t>Mushroom (Biome)</t>
-  </si>
-  <si>
-    <t>Grzyb (biom)</t>
-  </si>
-  <si>
-    <t>Mushroom (Headwear)</t>
-  </si>
-  <si>
-    <t>Mushroom (nakrycie głowy)</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>Muzyka</t>
-  </si>
-  <si>
-    <t>Mustache</t>
-  </si>
-  <si>
-    <t>Wąsy</t>
-  </si>
-  <si>
-    <t>My Deer Friend Nokotan</t>
-  </si>
-  <si>
-    <t>Mój przyjaciel jeleń Nokotan</t>
-  </si>
-  <si>
-    <t>My Hero Academia</t>
-  </si>
-  <si>
-    <t>My Little Pony</t>
-  </si>
-  <si>
-    <t>My Neighbor Totoro</t>
-  </si>
-  <si>
-    <t>Mój sąsiad Totoro</t>
-  </si>
-  <si>
-    <t>My Singing Monsters</t>
-  </si>
-  <si>
-    <t>Moje śpiewające potwory</t>
-  </si>
-  <si>
-    <t>Naruto</t>
-  </si>
-  <si>
-    <t>Nausicaä of the Valley of the Wind</t>
-  </si>
-  <si>
-    <t>Nausicaä z Doliny Wiatru</t>
-  </si>
-  <si>
-    <t>Nekopara</t>
-  </si>
-  <si>
-    <t>Neon Genesis Evangelion</t>
-  </si>
-  <si>
-    <t>Nether (inspired)</t>
-  </si>
-  <si>
-    <t>Nether (zainspirowany)</t>
-  </si>
-  <si>
-    <t>Nether (vanilla)</t>
-  </si>
-  <si>
-    <t>Nether (wanilia)</t>
-  </si>
-  <si>
-    <t>Neutral Creature</t>
-  </si>
-  <si>
-    <t>Neutralna istota</t>
-  </si>
-  <si>
-    <t>Neutral Person</t>
-  </si>
-  <si>
-    <t>Osoba neutralna</t>
-  </si>
-  <si>
-    <t>New Year's Eve</t>
-  </si>
-  <si>
-    <t>Sylwester</t>
-  </si>
-  <si>
-    <t>NieR: Automata</t>
-  </si>
-  <si>
-    <t>Night in the Woods</t>
-  </si>
-  <si>
-    <t>Noc w lesie</t>
-  </si>
-  <si>
-    <t>Nightmare Before Christmas</t>
-  </si>
-  <si>
-    <t>Koszmar przed Bożym Narodzeniem</t>
-  </si>
-  <si>
-    <t>Ninja Turtles</t>
-  </si>
-  <si>
-    <t>Żółwie Ninja</t>
-  </si>
-  <si>
-    <t>No Game No Life</t>
-  </si>
-  <si>
-    <t>Bez gry nie ma życia</t>
-  </si>
-  <si>
-    <t>No Man's Sky</t>
-  </si>
-  <si>
-    <t>Noel's House Party</t>
-  </si>
-  <si>
-    <t>Norse Mythology</t>
-  </si>
-  <si>
-    <t>Mitologia nordycka</t>
-  </si>
-  <si>
-    <t>NPC (Education Edition)</t>
-  </si>
-  <si>
-    <t>NPC (edycja edukacyjna)</t>
-  </si>
-  <si>
-    <t>Nuclear Fallout</t>
-  </si>
-  <si>
-    <t>Upadek nuklearny</t>
-  </si>
-  <si>
-    <t>Nuclear Throne</t>
-  </si>
-  <si>
-    <t>Nuklearny tron</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>Liczba</t>
-  </si>
-  <si>
-    <t>Nut</t>
-  </si>
-  <si>
-    <t>Orzech</t>
-  </si>
-  <si>
-    <t>Ocean</t>
-  </si>
-  <si>
-    <t>Octodad</t>
-  </si>
-  <si>
-    <t>Oddworld</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>WYŁ.</t>
-  </si>
-  <si>
-    <t>Officer Cap</t>
-  </si>
-  <si>
-    <t>Czapka oficerska</t>
-  </si>
-  <si>
-    <t>Oggy and the Cockroaches</t>
-  </si>
-  <si>
-    <t>Oggy i karaluchy</t>
-  </si>
-  <si>
-    <t>Okegom</t>
-  </si>
-  <si>
-    <t>Old</t>
-  </si>
-  <si>
-    <t>Stary</t>
-  </si>
-  <si>
-    <t>Oliver &amp; Co</t>
-  </si>
-  <si>
-    <t>Omori</t>
-  </si>
-  <si>
-    <t>One Piece</t>
-  </si>
-  <si>
-    <t>One Punch Man</t>
-  </si>
-  <si>
-    <t>OneShot</t>
-  </si>
-  <si>
-    <t>Ongezellig</t>
-  </si>
-  <si>
-    <t>Onii-chan wa Oshimai</t>
-  </si>
-  <si>
-    <t>Open Source Objects</t>
-  </si>
-  <si>
-    <t>Obiekty Open Source</t>
-  </si>
-  <si>
-    <t>Orb</t>
-  </si>
-  <si>
-    <t>Orc</t>
-  </si>
-  <si>
-    <t>Ork</t>
-  </si>
-  <si>
-    <t>Ore</t>
-  </si>
-  <si>
-    <t>Ruda</t>
-  </si>
-  <si>
-    <t>Organs and Bodyparts</t>
-  </si>
-  <si>
-    <t>Narządy i części ciała</t>
-  </si>
-  <si>
-    <t>Other Headgear</t>
-  </si>
-  <si>
-    <t>Inne nakrycia głowy</t>
-  </si>
-  <si>
-    <t>Other Illumination</t>
-  </si>
-  <si>
-    <t>Inne podświetlenie</t>
-  </si>
-  <si>
-    <t>Other Mystic Creature</t>
-  </si>
-  <si>
-    <t>Inne mistyczne stworzenie</t>
-  </si>
-  <si>
-    <t>Outer Layer Block</t>
-  </si>
-  <si>
-    <t>Blok warstwy zewnętrznej</t>
-  </si>
-  <si>
-    <t>Overlord</t>
-  </si>
-  <si>
-    <t>Overwatch</t>
-  </si>
-  <si>
-    <t>Pac-Man</t>
-  </si>
-  <si>
-    <t>Pacific Rim</t>
-  </si>
-  <si>
-    <t>Pacifier</t>
-  </si>
-  <si>
-    <t>Smoczek</t>
-  </si>
-  <si>
-    <t>Painted Face</t>
-  </si>
-  <si>
-    <t>Malowana twarz</t>
-  </si>
-  <si>
-    <t>Pale Garden (inspired)</t>
-  </si>
-  <si>
-    <t>Pale Garden (zainspirowany)</t>
-  </si>
-  <si>
-    <t>Panda Bear</t>
-  </si>
-  <si>
-    <t>Niedźwiedź Panda</t>
-  </si>
-  <si>
-    <t>Pans Labyrinth</t>
-  </si>
-  <si>
-    <t>Labirynt patelni</t>
-  </si>
-  <si>
-    <t>Papers Please</t>
-  </si>
-  <si>
-    <t>PaRappa the Rapper</t>
-  </si>
-  <si>
-    <t>Party</t>
-  </si>
-  <si>
-    <t>Impreza</t>
-  </si>
-  <si>
-    <t>Pastries and Sweets</t>
-  </si>
-  <si>
-    <t>Wypieki i słodycze</t>
-  </si>
-  <si>
-    <t>Paw Patrol</t>
-  </si>
-  <si>
-    <t>Payday</t>
-  </si>
-  <si>
-    <t>Peanuts (Snoopy)</t>
-  </si>
-  <si>
-    <t>Penguin</t>
-  </si>
-  <si>
-    <t>Pingwin</t>
-  </si>
-  <si>
-    <t>Peppa Pig</t>
-  </si>
-  <si>
-    <t>Świnka Peppa</t>
-  </si>
-  <si>
-    <t>Periodic Table of Elements</t>
-  </si>
-  <si>
-    <t>Układ okresowy pierwiastków</t>
-  </si>
-  <si>
-    <t>Persona</t>
-  </si>
-  <si>
-    <t>Pet Equipment</t>
-  </si>
-  <si>
-    <t>Sprzęt dla zwierząt domowych</t>
-  </si>
-  <si>
-    <t>Peter Pan</t>
-  </si>
-  <si>
-    <t>Piotruś Pan</t>
-  </si>
-  <si>
-    <t>Phantom</t>
-  </si>
-  <si>
-    <t>Fantom</t>
-  </si>
-  <si>
-    <t>Phineas &amp; Ferb</t>
-  </si>
-  <si>
-    <t>Fineasz i Ferb</t>
-  </si>
-  <si>
-    <t>Pig</t>
-  </si>
-  <si>
-    <t>Świnia</t>
-  </si>
-  <si>
-    <t>Piglin</t>
-  </si>
-  <si>
-    <t>Pigman</t>
-  </si>
-  <si>
-    <t>Pikmin</t>
-  </si>
-  <si>
-    <t>Pingu</t>
-  </si>
-  <si>
-    <t>Pink Panther</t>
-  </si>
-  <si>
-    <t>Różowa Pantera</t>
-  </si>
-  <si>
-    <t>Pinky and the Brain</t>
-  </si>
-  <si>
-    <t>Pinky i mózg</t>
-  </si>
-  <si>
-    <t>Pinocchio</t>
-  </si>
-  <si>
-    <t>Pinokio</t>
-  </si>
-  <si>
-    <t>Pirates of the Caribbean</t>
-  </si>
-  <si>
-    <t>Piraci z Karaibów</t>
-  </si>
-  <si>
-    <t>Pizza Tower</t>
-  </si>
-  <si>
-    <t>Planet</t>
-  </si>
-  <si>
-    <t>Planeta</t>
-  </si>
-  <si>
-    <t>Plants vs. Zombies</t>
-  </si>
-  <si>
-    <t>Playerunknown's Battlegrounds</t>
-  </si>
-  <si>
-    <t>Pocahontas</t>
-  </si>
-  <si>
-    <t>Pokeball</t>
-  </si>
-  <si>
-    <t>Pokemon</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 1</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 2</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 3</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 4</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 5</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 6</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 7</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 8</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 9</t>
-  </si>
-  <si>
-    <t>Pokemon Items</t>
-  </si>
-  <si>
-    <t>Przedmioty Pokemon</t>
-  </si>
-  <si>
-    <t>Pokemon Trainer</t>
-  </si>
-  <si>
-    <t>Trener Pokemon</t>
-  </si>
-  <si>
-    <t>Polar Bear</t>
-  </si>
-  <si>
-    <t>Niedźwiedź polarny</t>
-  </si>
-  <si>
-    <t>Police</t>
-  </si>
-  <si>
-    <t>Policja</t>
-  </si>
-  <si>
-    <t>Pom Poko</t>
-  </si>
-  <si>
-    <t>Ponyo</t>
-  </si>
-  <si>
-    <t>Pop Team Epic</t>
-  </si>
-  <si>
-    <t>POPGOES</t>
-  </si>
-  <si>
-    <t>Poppy Playtime</t>
-  </si>
-  <si>
-    <t>Porco Rosso</t>
-  </si>
-  <si>
-    <t>Portal</t>
-  </si>
-  <si>
-    <t>Postman Pat</t>
-  </si>
-  <si>
-    <t>Listonosz Pat</t>
-  </si>
-  <si>
-    <t>Power Rangers</t>
-  </si>
-  <si>
-    <t>Powerpuff Girls</t>
-  </si>
-  <si>
-    <t>Atomówki</t>
-  </si>
-  <si>
-    <t>Predator</t>
-  </si>
-  <si>
-    <t>Present</t>
-  </si>
-  <si>
-    <t>Obecny</t>
-  </si>
-  <si>
-    <t>Pride</t>
-  </si>
-  <si>
-    <t>Duma</t>
-  </si>
-  <si>
-    <t>Primate</t>
-  </si>
-  <si>
-    <t>Prymat</t>
-  </si>
-  <si>
-    <t>Princess Mononoke</t>
-  </si>
-  <si>
-    <t>Księżniczka Mononoke</t>
-  </si>
-  <si>
-    <t>Prof Layton</t>
-  </si>
-  <si>
-    <t>Prof. Layton</t>
-  </si>
-  <si>
-    <t>Pumpkin</t>
-  </si>
-  <si>
-    <t>Dynia</t>
-  </si>
-  <si>
-    <t>Pumpkin (Lit)</t>
-  </si>
-  <si>
-    <t>Dynia (Lit)</t>
-  </si>
-  <si>
-    <t>Punctuation Mark</t>
-  </si>
-  <si>
-    <t>Znak interpunkcyjny</t>
-  </si>
-  <si>
-    <t>Quake</t>
-  </si>
-  <si>
-    <t>R.E.P.O.</t>
-  </si>
-  <si>
-    <t>Rabbit</t>
-  </si>
-  <si>
-    <t>Królik</t>
-  </si>
-  <si>
-    <t>Railway</t>
-  </si>
-  <si>
-    <t>Kolej</t>
-  </si>
-  <si>
-    <t>Rain World</t>
-  </si>
-  <si>
-    <t>Ratatouille</t>
-  </si>
-  <si>
-    <t>Ratatuj</t>
-  </si>
-  <si>
-    <t>Ratchet &amp; Clank</t>
-  </si>
-  <si>
-    <t>Re:Creators</t>
-  </si>
-  <si>
-    <t>Re:Twórcy</t>
-  </si>
-  <si>
-    <t>Re:Zero</t>
-  </si>
-  <si>
-    <t>Realm of the Mad God</t>
-  </si>
-  <si>
-    <t>Królestwo Szalonego Boga</t>
-  </si>
-  <si>
-    <t>Red Dead Redemption</t>
-  </si>
-  <si>
-    <t>Red Riding Hood</t>
-  </si>
-  <si>
-    <t>Czerwony Kapturek</t>
-  </si>
-  <si>
-    <t>Redstone</t>
-  </si>
-  <si>
-    <t>Regional Form Pokemon</t>
-  </si>
-  <si>
-    <t>Pokemon w formie regionalnej</t>
-  </si>
-  <si>
-    <t>Regretavator</t>
-  </si>
-  <si>
-    <t>Regular Show</t>
-  </si>
-  <si>
-    <t>Religion</t>
-  </si>
-  <si>
-    <t>Religia</t>
-  </si>
-  <si>
-    <t>Reptile</t>
-  </si>
-  <si>
-    <t>Gad</t>
-  </si>
-  <si>
-    <t>Rescue Rangers</t>
-  </si>
-  <si>
-    <t>Resident Evil</t>
-  </si>
-  <si>
-    <t>Rhythm Heaven</t>
-  </si>
-  <si>
-    <t>Ribbon</t>
-  </si>
-  <si>
-    <t>Wstążka</t>
-  </si>
-  <si>
-    <t>Rick and Morty</t>
-  </si>
-  <si>
-    <t>Rick i Morty</t>
-  </si>
-  <si>
-    <t>Risk of Rain</t>
-  </si>
-  <si>
-    <t>Ryzyko deszczu</t>
-  </si>
-  <si>
-    <t>Rival of Aether</t>
-  </si>
-  <si>
-    <t>Rywal Aether</t>
-  </si>
-  <si>
-    <t>River</t>
-  </si>
-  <si>
-    <t>Rzeka</t>
-  </si>
-  <si>
-    <t>Riverdale</t>
-  </si>
-  <si>
-    <t>Robin Hood</t>
-  </si>
-  <si>
-    <t>Roblox</t>
-  </si>
-  <si>
-    <t>RoboCop</t>
-  </si>
-  <si>
-    <t>Robot</t>
-  </si>
-  <si>
-    <t>Rocky</t>
-  </si>
-  <si>
-    <t>Rocky Horror Picture Show</t>
-  </si>
-  <si>
-    <t>Rodent</t>
-  </si>
-  <si>
-    <t>Gryzoń</t>
-  </si>
-  <si>
-    <t>Rotated Entity</t>
-  </si>
-  <si>
-    <t>Obrócony podmiot</t>
-  </si>
-  <si>
-    <t>Royal Headgear</t>
-  </si>
-  <si>
-    <t>Królewskie nakrycie głowy</t>
-  </si>
-  <si>
-    <t>Rune</t>
-  </si>
-  <si>
-    <t>Runa</t>
-  </si>
-  <si>
-    <t>Runescape</t>
-  </si>
-  <si>
-    <t>RWBY</t>
-  </si>
-  <si>
-    <t>Sackboy: A Big Adventure</t>
-  </si>
-  <si>
-    <t>Sackboy: Wielka przygoda</t>
-  </si>
-  <si>
-    <t>Sad Creature</t>
-  </si>
-  <si>
-    <t>Smutne stworzenie</t>
-  </si>
-  <si>
-    <t>Sad Person</t>
-  </si>
-  <si>
-    <t>Smutna osoba</t>
-  </si>
-  <si>
-    <t>Safari (Other)</t>
-  </si>
-  <si>
-    <t>Safari (Inne)</t>
-  </si>
-  <si>
-    <t>Saga of Tanya the Evil</t>
-  </si>
-  <si>
-    <t>Saga o złej Tanyi</t>
-  </si>
-  <si>
-    <t>Sailor Moon</t>
-  </si>
-  <si>
-    <t>Sakurasou no Pet na Kanojo</t>
-  </si>
-  <si>
-    <t>Samurai Helmet</t>
-  </si>
-  <si>
-    <t>Hełm samurajski</t>
-  </si>
-  <si>
-    <t>Satisfactory</t>
-  </si>
-  <si>
-    <t>Zadowalający</t>
-  </si>
-  <si>
-    <t>Saw</t>
-  </si>
-  <si>
-    <t>Piła</t>
-  </si>
-  <si>
-    <t>Scarf</t>
-  </si>
-  <si>
-    <t>Szalik</t>
-  </si>
-  <si>
-    <t>Scooby-Doo</t>
-  </si>
-  <si>
-    <t>SCP Containment Breach</t>
-  </si>
-  <si>
-    <t>Naruszenie ochrony przed SCP</t>
-  </si>
-  <si>
-    <t>Scream</t>
-  </si>
-  <si>
-    <t>Krzyk</t>
-  </si>
-  <si>
-    <t>Scribblenauts</t>
-  </si>
-  <si>
-    <t>Sea of Thieves</t>
-  </si>
-  <si>
-    <t>Seafarer</t>
-  </si>
-  <si>
-    <t>Marynarz</t>
-  </si>
-  <si>
-    <t>Seraph of the End</t>
-  </si>
-  <si>
-    <t>Serial Experiments Lain</t>
-  </si>
-  <si>
-    <t>Sesame Street</t>
-  </si>
-  <si>
-    <t>Ulica Sezamkowa</t>
-  </si>
-  <si>
-    <t>Seven Deadly Sins</t>
-  </si>
-  <si>
-    <t>Siedem grzechów głównych</t>
-  </si>
-  <si>
-    <t>Shadow of the Colossus</t>
-  </si>
-  <si>
-    <t>Shadows of Mordor</t>
-  </si>
-  <si>
-    <t>Cienie Mordoru</t>
-  </si>
-  <si>
-    <t>Sheep</t>
-  </si>
-  <si>
-    <t>Owca</t>
-  </si>
-  <si>
-    <t>Sherlock Holmes</t>
-  </si>
-  <si>
-    <t>Shigatsu wa Kimi no Uso</t>
-  </si>
-  <si>
-    <t>Shimoneta</t>
-  </si>
-  <si>
-    <t>Shiny Pokemon</t>
-  </si>
-  <si>
-    <t>Błyszczący Pokemon</t>
-  </si>
-  <si>
-    <t>Shipping</t>
-  </si>
-  <si>
-    <t>Wysyłka</t>
-  </si>
-  <si>
-    <t>Shovel Knight</t>
-  </si>
-  <si>
-    <t>Shrek</t>
-  </si>
-  <si>
-    <t>Shulker</t>
-  </si>
-  <si>
-    <t>Silent Hill</t>
-  </si>
-  <si>
-    <t>SilvaGunner</t>
-  </si>
-  <si>
-    <t>Simpsons</t>
-  </si>
-  <si>
-    <t>Simpsonowie</t>
-  </si>
-  <si>
-    <t>Skeleton</t>
-  </si>
-  <si>
-    <t>Szkielet</t>
-  </si>
-  <si>
-    <t>Skeleton (Vanilla)</t>
-  </si>
-  <si>
-    <t>Szkielet (wanilia)</t>
-  </si>
-  <si>
-    <t>Skeptical Creature</t>
-  </si>
-  <si>
-    <t>Sceptyczne stworzenie</t>
-  </si>
-  <si>
-    <t>Skeptical Person</t>
-  </si>
-  <si>
-    <t>Osoba sceptyczna</t>
-  </si>
-  <si>
-    <t>Skullgirls</t>
-  </si>
-  <si>
-    <t>Skyrim</t>
-  </si>
-  <si>
-    <t>Sleeping Beauty</t>
-  </si>
-  <si>
-    <t>Śpiąca Królewna</t>
-  </si>
-  <si>
-    <t>Sleeping Creature</t>
-  </si>
-  <si>
-    <t>Śpiąca istota</t>
-  </si>
-  <si>
-    <t>Sleeping Person</t>
-  </si>
-  <si>
-    <t>Osoba śpiąca</t>
-  </si>
-  <si>
-    <t>Sliced</t>
-  </si>
-  <si>
-    <t>W plasterkach</t>
-  </si>
-  <si>
-    <t>Slime</t>
-  </si>
-  <si>
-    <t>Szlam</t>
-  </si>
-  <si>
-    <t>Slime (Vanilla)</t>
-  </si>
-  <si>
-    <t>Slime (wanilia)</t>
-  </si>
-  <si>
-    <t>Slime Rancher</t>
-  </si>
-  <si>
-    <t>Slimefun</t>
-  </si>
-  <si>
-    <t>Sly Cooper</t>
-  </si>
-  <si>
-    <t>Smite Gods</t>
-  </si>
-  <si>
-    <t>Smoking</t>
-  </si>
-  <si>
-    <t>Palenie</t>
-  </si>
-  <si>
-    <t>Smurfs</t>
-  </si>
-  <si>
-    <t>Smerfy</t>
-  </si>
-  <si>
-    <t>Snow Fight</t>
-  </si>
-  <si>
-    <t>Walka na śnieżki</t>
-  </si>
-  <si>
-    <t>Snow Sculpture</t>
-  </si>
-  <si>
-    <t>Rzeźba w śniegu</t>
-  </si>
-  <si>
-    <t>Snow White and the Seven Dwarfs</t>
-  </si>
-  <si>
-    <t>Królewna Śnieżka i siedmiu krasnoludków</t>
-  </si>
-  <si>
-    <t>Songs of War</t>
-  </si>
-  <si>
-    <t>Pieśni wojny</t>
-  </si>
-  <si>
-    <t>Sonic the Hedgehog</t>
-  </si>
-  <si>
-    <t>Soul Knight</t>
-  </si>
-  <si>
-    <t>South Park</t>
-  </si>
-  <si>
-    <t>Space Travel</t>
-  </si>
-  <si>
-    <t>Podróże kosmiczne</t>
-  </si>
-  <si>
-    <t>Spawn Egg</t>
-  </si>
-  <si>
-    <t>Spawner</t>
-  </si>
-  <si>
-    <t>Spelunky</t>
-  </si>
-  <si>
-    <t>Spider</t>
-  </si>
-  <si>
-    <t>Pająk</t>
-  </si>
-  <si>
-    <t>Spider (Vanilla)</t>
-  </si>
-  <si>
-    <t>Spiderman</t>
-  </si>
-  <si>
-    <t>Spirited Away</t>
-  </si>
-  <si>
-    <t>Splatoon</t>
-  </si>
-  <si>
-    <t>Spongebob Squarepants</t>
-  </si>
-  <si>
-    <t>Spongebob Kanciastoporty</t>
-  </si>
-  <si>
-    <t>Spooky's Jump Scare Mansion</t>
-  </si>
-  <si>
-    <t>Rezydencja strachów Spooky's Jump</t>
-  </si>
-  <si>
-    <t>Spore</t>
-  </si>
-  <si>
-    <t>Zarodnik</t>
-  </si>
-  <si>
-    <t>Sport</t>
-  </si>
-  <si>
-    <t>Spreads</t>
-  </si>
-  <si>
-    <t>Spready</t>
-  </si>
-  <si>
-    <t>Spring to Life</t>
-  </si>
-  <si>
-    <t>Wiosna do życia</t>
-  </si>
-  <si>
-    <t>Spy x Family</t>
-  </si>
-  <si>
-    <t>Szpieg x rodzina</t>
-  </si>
-  <si>
-    <t>Spyro</t>
-  </si>
-  <si>
-    <t>Squid Game</t>
-  </si>
-  <si>
-    <t>St. Patrick's Day</t>
-  </si>
-  <si>
-    <t>Dzień Świętego Patryka</t>
-  </si>
-  <si>
-    <t>StackUp</t>
-  </si>
-  <si>
-    <t>Star Fox</t>
-  </si>
-  <si>
-    <t>Star Trek</t>
-  </si>
-  <si>
-    <t>Star vs the Forces of Evil</t>
-  </si>
-  <si>
-    <t>Gwiazda kontra siły zła</t>
-  </si>
-  <si>
-    <t>Star Wars</t>
-  </si>
-  <si>
-    <t>Gwiezdne wojny</t>
-  </si>
-  <si>
-    <t>Star Wars Helmet</t>
-  </si>
-  <si>
-    <t>Hełm Star Wars</t>
-  </si>
-  <si>
-    <t>Star Wars Trooper Helmet</t>
-  </si>
-  <si>
-    <t>Hełm żołnierza Gwiezdnych Wojen</t>
-  </si>
-  <si>
-    <t>Starbucks</t>
-  </si>
-  <si>
-    <t>StarCraft</t>
-  </si>
-  <si>
-    <t>Stardew Valley</t>
-  </si>
-  <si>
-    <t>Starter Pokemon</t>
-  </si>
-  <si>
-    <t>Pokemon startowy</t>
-  </si>
-  <si>
-    <t>Stationery</t>
-  </si>
-  <si>
-    <t>Artykuły papiernicze</t>
-  </si>
-  <si>
-    <t>Steampunk</t>
-  </si>
-  <si>
-    <t>Steins;Gate</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>Steven Universe</t>
-  </si>
-  <si>
-    <t>Stone</t>
-  </si>
-  <si>
-    <t>Kamień</t>
-  </si>
-  <si>
-    <t>Storage (other)</t>
-  </si>
-  <si>
-    <t>Przechowywanie (inne)</t>
-  </si>
-  <si>
-    <t>Stranger Things</t>
-  </si>
-  <si>
-    <t>Street Fighter</t>
-  </si>
-  <si>
-    <t>Strider</t>
-  </si>
-  <si>
-    <t>Subnautica</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>Lato</t>
-  </si>
-  <si>
-    <t>Sunglasses</t>
-  </si>
-  <si>
-    <t>Okulary przeciwsłoneczne</t>
-  </si>
-  <si>
-    <t>Super Mario</t>
-  </si>
-  <si>
-    <t>Supernatural</t>
-  </si>
-  <si>
-    <t>Surprised Creature</t>
-  </si>
-  <si>
-    <t>Zaskoczona istota</t>
-  </si>
-  <si>
-    <t>Surprised Person</t>
-  </si>
-  <si>
-    <t>Zaskoczona osoba</t>
-  </si>
-  <si>
-    <t>Sushi</t>
-  </si>
-  <si>
-    <t>Swamp</t>
-  </si>
-  <si>
-    <t>Bagno</t>
-  </si>
-  <si>
-    <t>Sword Art Online</t>
-  </si>
-  <si>
-    <t>TaleSpin</t>
-  </si>
-  <si>
-    <t>Tangled</t>
-  </si>
-  <si>
-    <t>Zaplątani</t>
-  </si>
-  <si>
-    <t>Tattletail</t>
-  </si>
-  <si>
-    <t>Team Fortress 2</t>
-  </si>
-  <si>
-    <t>Teletubbies</t>
-  </si>
-  <si>
-    <t>Teletubisie</t>
-  </si>
-  <si>
-    <t>Terraria</t>
-  </si>
-  <si>
-    <t>Terraria (Calamity)</t>
-  </si>
-  <si>
-    <t>Tetris</t>
-  </si>
-  <si>
-    <t>Thanksgiving</t>
-  </si>
-  <si>
-    <t>Święto Dziękczynienia</t>
-  </si>
-  <si>
-    <t>That Time I Got Reincarnated as a Slime</t>
-  </si>
-  <si>
-    <t>Tym razem reinkarnowałem się jako szlam</t>
-  </si>
-  <si>
-    <t>Thaumcraft</t>
-  </si>
-  <si>
-    <t>The Adventures of Tintin</t>
-  </si>
-  <si>
-    <t>Przygody Tintina</t>
-  </si>
-  <si>
-    <t>The Amazing Digital Circus</t>
-  </si>
-  <si>
-    <t>Niesamowity cyfrowy cyrk</t>
-  </si>
-  <si>
-    <t>The Amazing World of Gumball</t>
-  </si>
-  <si>
-    <t>Niesamowity świat Gumballa</t>
-  </si>
-  <si>
-    <t>The Binding of Isaac</t>
-  </si>
-  <si>
-    <t>The Boys</t>
-  </si>
-  <si>
-    <t>Chłopcy</t>
-  </si>
-  <si>
-    <t>The Cat Returns</t>
-  </si>
-  <si>
-    <t>Kot powraca</t>
-  </si>
-  <si>
-    <t>The Conjuring</t>
-  </si>
-  <si>
-    <t>The Copper Age</t>
-  </si>
-  <si>
-    <t>Epoka miedzi</t>
-  </si>
-  <si>
-    <t>The Emperor's New Groove</t>
-  </si>
-  <si>
-    <t>The English Ensemble Stars</t>
-  </si>
-  <si>
-    <t>Gwiazdy angielskiego zespołu</t>
-  </si>
-  <si>
-    <t>The Fairly OddParents</t>
-  </si>
-  <si>
-    <t>The Finals</t>
-  </si>
-  <si>
-    <t>Finały</t>
-  </si>
-  <si>
-    <t>The Flash</t>
-  </si>
-  <si>
-    <t>The Flintstones</t>
-  </si>
-  <si>
-    <t>Flintstonowie</t>
-  </si>
-  <si>
-    <t>The Fly</t>
-  </si>
-  <si>
-    <t>Mucha</t>
-  </si>
-  <si>
-    <t>The Garden Awakens</t>
-  </si>
-  <si>
-    <t>Ogród budzi się</t>
-  </si>
-  <si>
-    <t>The Good Dinosaur</t>
-  </si>
-  <si>
-    <t>Dobry dinozaur</t>
-  </si>
-  <si>
-    <t>The Great Mouse Detective</t>
-  </si>
-  <si>
-    <t>Wielki mysi detektyw</t>
-  </si>
-  <si>
-    <t>The Grim Adventures of Billy &amp; Mandy</t>
-  </si>
-  <si>
-    <t>Ponure przygody Billy'ego i Mandy</t>
-  </si>
-  <si>
-    <t>The Hunchback of Notre Dame</t>
-  </si>
-  <si>
-    <t>Garbus z Notre Dame</t>
-  </si>
-  <si>
-    <t>The Iron Giant</t>
-  </si>
-  <si>
-    <t>Żelazny gigant</t>
-  </si>
-  <si>
-    <t>The Last Guardian</t>
-  </si>
-  <si>
-    <t>The Last of Us</t>
-  </si>
-  <si>
-    <t>The Legend of Zelda</t>
-  </si>
-  <si>
-    <t>The Lorax</t>
-  </si>
-  <si>
-    <t>Lorax</t>
-  </si>
-  <si>
-    <t>The Neverhood</t>
-  </si>
-  <si>
-    <t>The Owl House</t>
-  </si>
-  <si>
-    <t>The Princess and the Frog</t>
-  </si>
-  <si>
-    <t>Księżniczka i żaba</t>
-  </si>
-  <si>
-    <t>The Ren &amp; Stimpy Show</t>
-  </si>
-  <si>
-    <t>Ren &amp; Stimpy Show</t>
-  </si>
-  <si>
-    <t>The Road to El Dorado</t>
-  </si>
-  <si>
-    <t>Droga do El Dorado</t>
-  </si>
-  <si>
-    <t>The Texas Chainsaw Massacre</t>
-  </si>
-  <si>
-    <t>Teksańska masakra piłą łańcuchową</t>
-  </si>
-  <si>
-    <t>The Three Caballeros</t>
-  </si>
-  <si>
-    <t>Trzej Caballeros</t>
-  </si>
-  <si>
-    <t>The Walten Files</t>
-  </si>
-  <si>
-    <t>The Woody Woodpecker Show</t>
-  </si>
-  <si>
-    <t>Thomas &amp; Friends</t>
-  </si>
-  <si>
-    <t>Thor</t>
-  </si>
-  <si>
-    <t>Those Nights at Rachel's</t>
-  </si>
-  <si>
-    <t>Te noce u Rachel</t>
-  </si>
-  <si>
-    <t>Tinker's Construct</t>
-  </si>
-  <si>
-    <t>Titanfall</t>
-  </si>
-  <si>
-    <t>Tokyo Ghoul</t>
-  </si>
-  <si>
-    <t>Tom and Jerry</t>
-  </si>
-  <si>
-    <t>Tom i Jerry</t>
-  </si>
-  <si>
-    <t>Tomb Raider</t>
-  </si>
-  <si>
-    <t>Tomorrow's Pioneers</t>
-  </si>
-  <si>
-    <t>Pionierzy jutra</t>
-  </si>
-  <si>
-    <t>Tooth Gap</t>
-  </si>
-  <si>
-    <t>Szczelina między zębami</t>
-  </si>
-  <si>
-    <t>Toradora</t>
-  </si>
-  <si>
-    <t>Total Drama Island</t>
-  </si>
-  <si>
-    <t>Touhou Project</t>
-  </si>
-  <si>
-    <t>Projekt Touhou</t>
-  </si>
-  <si>
-    <t>Toy</t>
-  </si>
-  <si>
-    <t>Zabawka</t>
-  </si>
-  <si>
-    <t>Toy Story</t>
-  </si>
-  <si>
-    <t>Traffic</t>
-  </si>
-  <si>
-    <t>Ruch drogowy</t>
-  </si>
-  <si>
-    <t>Traffic Light</t>
-  </si>
-  <si>
-    <t>Sygnalizacja świetlna</t>
-  </si>
-  <si>
-    <t>Traffic Sign</t>
-  </si>
-  <si>
-    <t>Znak drogowy</t>
-  </si>
-  <si>
-    <t>Trails and Tales</t>
-  </si>
-  <si>
-    <t>Szlaki i opowieści</t>
-  </si>
-  <si>
-    <t>Transformers</t>
-  </si>
-  <si>
-    <t>Transformice</t>
-  </si>
-  <si>
-    <t>Transparent Head</t>
-  </si>
-  <si>
-    <t>Przezroczysta głowica</t>
-  </si>
-  <si>
-    <t>Trash Can</t>
-  </si>
-  <si>
-    <t>Kosz na śmieci</t>
-  </si>
-  <si>
-    <t>Treasure</t>
-  </si>
-  <si>
-    <t>Skarb</t>
-  </si>
-  <si>
-    <t>Treasure Planet</t>
-  </si>
-  <si>
-    <t>Tricky Trials Update</t>
-  </si>
-  <si>
-    <t>Aktualizacja Tricky Trials</t>
-  </si>
-  <si>
-    <t>Tron</t>
-  </si>
-  <si>
-    <t>Turtle</t>
-  </si>
-  <si>
-    <t>Żółw</t>
-  </si>
-  <si>
-    <t>Twilight Forest</t>
-  </si>
-  <si>
-    <t>Twisted Wonderland</t>
-  </si>
-  <si>
-    <t>Ultrakill</t>
-  </si>
-  <si>
-    <t>Umineko - When They Cry</t>
-  </si>
-  <si>
-    <t>Undertale</t>
-  </si>
-  <si>
-    <t>Undertale AU</t>
-  </si>
-  <si>
-    <t>Undertale Yellow</t>
-  </si>
-  <si>
-    <t>Universal Symbol</t>
-  </si>
-  <si>
-    <t>Symbol uniwersalny</t>
-  </si>
-  <si>
-    <t>Up</t>
-  </si>
-  <si>
-    <t>W górę</t>
-  </si>
-  <si>
-    <t>Urban Wildlife</t>
-  </si>
-  <si>
-    <t>Miejska dzika przyroda</t>
-  </si>
-  <si>
-    <t>V for Vendetta</t>
-  </si>
-  <si>
-    <t>V jak Vendetta</t>
-  </si>
-  <si>
-    <t>Valentines</t>
-  </si>
-  <si>
-    <t>Walentynki</t>
-  </si>
-  <si>
-    <t>Valorant</t>
-  </si>
-  <si>
-    <t>Vanilla (removed)</t>
-  </si>
-  <si>
-    <t>Wanilia (usunięta)</t>
-  </si>
-  <si>
-    <t>Vanilla Block</t>
-  </si>
-  <si>
-    <t>Vanilla Food</t>
-  </si>
-  <si>
-    <t>Vanilla Helmet</t>
-  </si>
-  <si>
-    <t>Kask waniliowy</t>
-  </si>
-  <si>
-    <t>Vanilla Item</t>
-  </si>
-  <si>
-    <t>Vanilla Mob</t>
-  </si>
-  <si>
-    <t>Vault Hunters</t>
-  </si>
-  <si>
-    <t>Vegetable</t>
-  </si>
-  <si>
-    <t>Warzywo</t>
-  </si>
-  <si>
-    <t>Vehicle</t>
-  </si>
-  <si>
-    <t>Pojazd</t>
-  </si>
-  <si>
-    <t>Vikings</t>
-  </si>
-  <si>
-    <t>Wikingowie</t>
-  </si>
-  <si>
-    <t>Villager</t>
-  </si>
-  <si>
-    <t>Wieśniak</t>
-  </si>
-  <si>
-    <t>Villager (Desert)</t>
-  </si>
-  <si>
-    <t>Wieśniak (Pustynia)</t>
-  </si>
-  <si>
-    <t>Villager (Jungle)</t>
-  </si>
-  <si>
-    <t>Wieśniak (dżungla)</t>
-  </si>
-  <si>
-    <t>Villager (Plains)</t>
-  </si>
-  <si>
-    <t>Wieśniak (równiny)</t>
-  </si>
-  <si>
-    <t>Villager (Savanna)</t>
-  </si>
-  <si>
-    <t>Wieśniak (Savanna)</t>
-  </si>
-  <si>
-    <t>Villager (Snowy Tundra)</t>
-  </si>
-  <si>
-    <t>Wieśniak (Śnieżna Tundra)</t>
-  </si>
-  <si>
-    <t>Villager (Swamp)</t>
-  </si>
-  <si>
-    <t>Wieśniak (Bagna)</t>
-  </si>
-  <si>
-    <t>Villager (Taiga)</t>
-  </si>
-  <si>
-    <t>Wieśniak (Tajga)</t>
-  </si>
-  <si>
-    <t>Virtual Youtuber</t>
-  </si>
-  <si>
-    <t>Wirtualny youtuber</t>
-  </si>
-  <si>
-    <t>Vocaloid</t>
-  </si>
-  <si>
-    <t>Voltron</t>
-  </si>
-  <si>
-    <t>Wakfu</t>
-  </si>
-  <si>
-    <t>Walking Dead</t>
-  </si>
-  <si>
-    <t>Wall-E</t>
-  </si>
-  <si>
-    <t>Wallace and Gromit</t>
-  </si>
-  <si>
-    <t>Wallace i Gromit</t>
-  </si>
-  <si>
-    <t>War of the Worlds</t>
-  </si>
-  <si>
-    <t>Wojna światów</t>
-  </si>
-  <si>
-    <t>Warcraft</t>
-  </si>
-  <si>
-    <t>Warframe</t>
-  </si>
-  <si>
-    <t>Warhammer</t>
-  </si>
-  <si>
-    <t>Warrior Cats</t>
-  </si>
-  <si>
-    <t>Wojownicze koty</t>
-  </si>
-  <si>
-    <t>We Bear Bears</t>
-  </si>
-  <si>
-    <t>We Happy Few</t>
-  </si>
-  <si>
-    <t>Weather</t>
-  </si>
-  <si>
-    <t>Pogoda</t>
-  </si>
-  <si>
-    <t>Welcome Home</t>
-  </si>
-  <si>
-    <t>Witamy w domu</t>
-  </si>
-  <si>
-    <t>Who is this?</t>
-  </si>
-  <si>
-    <t>Kto to jest?</t>
-  </si>
-  <si>
-    <t>Wild Update</t>
-  </si>
-  <si>
-    <t>Dzika aktualizacja</t>
-  </si>
-  <si>
-    <t>Wings of Fire</t>
-  </si>
-  <si>
-    <t>Skrzydła ognia</t>
-  </si>
-  <si>
-    <t>Winnie the Pooh</t>
-  </si>
-  <si>
-    <t>Kubuś Puchatek</t>
-  </si>
-  <si>
-    <t>Winter</t>
-  </si>
-  <si>
-    <t>Zima</t>
-  </si>
-  <si>
-    <t>Witcher</t>
-  </si>
-  <si>
-    <t>Wiedźmin</t>
-  </si>
-  <si>
-    <t>Wonderful Wonder World</t>
-  </si>
-  <si>
-    <t>Wspaniały cudowny świat</t>
-  </si>
-  <si>
-    <t>Wood</t>
-  </si>
-  <si>
-    <t>Drewno</t>
-  </si>
-  <si>
-    <t>Wool</t>
-  </si>
-  <si>
-    <t>Wełna</t>
-  </si>
-  <si>
-    <t>Work Safety Helmet</t>
-  </si>
-  <si>
-    <t>Kask ochronny</t>
-  </si>
-  <si>
-    <t>Wreck It Ralph</t>
-  </si>
-  <si>
-    <t>Wybel</t>
-  </si>
-  <si>
-    <t>Wynncraft</t>
-  </si>
-  <si>
-    <t>X-Men</t>
-  </si>
-  <si>
-    <t>Xenoblade Chronicles</t>
-  </si>
-  <si>
-    <t>Yandere Simulator</t>
-  </si>
-  <si>
-    <t>Symulator Yandere</t>
-  </si>
-  <si>
-    <t>Yellow Submarine</t>
-  </si>
-  <si>
-    <t>Żółta łódź podwodna</t>
-  </si>
-  <si>
-    <t>Yokai</t>
-  </si>
-  <si>
-    <t>Yooka Laylee</t>
-  </si>
-  <si>
-    <t>Young</t>
-  </si>
-  <si>
-    <t>Młody</t>
-  </si>
-  <si>
-    <t>Youtube</t>
-  </si>
-  <si>
-    <t>YouTube</t>
-  </si>
-  <si>
-    <t>Yu-Gi-Oh</t>
-  </si>
-  <si>
-    <t>Yume Nikki</t>
-  </si>
-  <si>
-    <t>Zero no Tsukaima</t>
-  </si>
-  <si>
-    <t>Zero Wing</t>
-  </si>
-  <si>
-    <t>Zodiac Sign</t>
-  </si>
-  <si>
-    <t>Znak zodiaku</t>
-  </si>
-  <si>
-    <t>Zombie</t>
-  </si>
-  <si>
-    <t>Zombie (Vanilla)</t>
-  </si>
-  <si>
-    <t>Zombie (wanilia)</t>
-  </si>
-  <si>
-    <t>Zootopia</t>
   </si>
   <si>
     <t>Fall Drop</t>
@@ -5940,7 +5946,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1176"/>
+  <dimension ref="A1:B1177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -15361,8 +15367,16 @@
         <v>1858</v>
       </c>
     </row>
+    <row r="1177" spans="1:2">
+      <c r="A1177" t="s">
+        <v>1859</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>1860</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1176"/>
+  <autoFilter ref="A1:B1177"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
